--- a/src/teamlists.xlsx
+++ b/src/teamlists.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rossritchie/code/fantasy_trade_calculator/src/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{558EC766-94E2-7945-9FDF-EE6E09399AE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00EF3343-B684-E841-BB5F-1043E612F8AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="35400" yWindow="2340" windowWidth="31400" windowHeight="17420" xr2:uid="{B4242749-2F31-BC4D-9D1D-C0882BBF0A2E}"/>
   </bookViews>
@@ -671,9 +671,6 @@
     <t>Player Number</t>
   </si>
   <si>
-    <t>Player Name</t>
-  </si>
-  <si>
     <t>J. Howarth</t>
   </si>
   <si>
@@ -852,6 +849,9 @@
   </si>
   <si>
     <t>B. Jones</t>
+  </si>
+  <si>
+    <t>Player</t>
   </si>
 </sst>
 </file>
@@ -1347,12 +1347,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1361,35 +1361,34 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1771,31 +1770,30 @@
   <dimension ref="A1:AO832"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="P2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="T6" sqref="T6"/>
+      <selection pane="bottomRight" activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="15"/>
-    <col min="2" max="2" width="18.1640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.83203125" style="14" customWidth="1"/>
+    <col min="2" max="2" width="18.1640625" style="14" bestFit="1" customWidth="1"/>
     <col min="3" max="9" width="10.83203125" style="2" customWidth="1"/>
     <col min="10" max="11" width="10.6640625" style="2" customWidth="1"/>
     <col min="12" max="38" width="10.83203125" style="2" customWidth="1" outlineLevel="1"/>
     <col min="39" max="39" width="10.83203125" style="6"/>
     <col min="40" max="40" width="10.83203125" style="6" customWidth="1"/>
     <col min="41" max="41" width="10.83203125" style="6"/>
-    <col min="42" max="16384" width="10.83203125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" s="5" customFormat="1" ht="82" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:41" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="13" t="s">
         <v>210</v>
       </c>
-      <c r="B1" s="14" t="s">
-        <v>211</v>
+      <c r="B1" s="13" t="s">
+        <v>271</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -1838,3809 +1836,3809 @@
       <c r="AO1" s="4"/>
     </row>
     <row r="2" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A2" s="15">
+      <c r="A2" s="14">
         <v>1</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="14" t="s">
         <v>38</v>
       </c>
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
     </row>
     <row r="3" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A3" s="15">
+      <c r="A3" s="14">
         <v>1</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="14" t="s">
         <v>107</v>
       </c>
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
     </row>
     <row r="4" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A4" s="15">
+      <c r="A4" s="14">
         <v>2</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="14" t="s">
         <v>57</v>
       </c>
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
     </row>
     <row r="5" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A5" s="15">
+      <c r="A5" s="14">
         <v>2</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="14" t="s">
         <v>121</v>
       </c>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
     </row>
     <row r="6" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A6" s="15">
+      <c r="A6" s="14">
         <v>3</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="14" t="s">
         <v>35</v>
       </c>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
     </row>
     <row r="7" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A7" s="15">
+      <c r="A7" s="14">
         <v>3</v>
       </c>
-      <c r="B7" s="15" t="s">
-        <v>212</v>
-      </c>
-      <c r="D7" s="8"/>
+      <c r="B7" s="14" t="s">
+        <v>211</v>
+      </c>
+      <c r="D7" s="7"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
     </row>
     <row r="8" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A8" s="15">
+      <c r="A8" s="14">
         <v>4</v>
       </c>
-      <c r="B8" s="15" t="s">
-        <v>213</v>
+      <c r="B8" s="14" t="s">
+        <v>212</v>
       </c>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
     </row>
     <row r="9" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A9" s="15">
+      <c r="A9" s="14">
         <v>4</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="14" t="s">
         <v>114</v>
       </c>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
     </row>
     <row r="10" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A10" s="15">
+      <c r="A10" s="14">
         <v>5</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="14" t="s">
         <v>45</v>
       </c>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
     </row>
     <row r="11" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A11" s="15">
+      <c r="A11" s="14">
         <v>5</v>
       </c>
-      <c r="B11" s="15" t="s">
-        <v>214</v>
+      <c r="B11" s="14" t="s">
+        <v>213</v>
       </c>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
     </row>
     <row r="12" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A12" s="15">
+      <c r="A12" s="14">
         <v>6</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="14" t="s">
         <v>54</v>
       </c>
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
     </row>
     <row r="13" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A13" s="15">
+      <c r="A13" s="14">
         <v>6</v>
       </c>
-      <c r="B13" s="15" t="s">
-        <v>215</v>
+      <c r="B13" s="14" t="s">
+        <v>214</v>
       </c>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
     </row>
     <row r="14" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A14" s="15">
+      <c r="A14" s="14">
         <v>7</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="14" t="s">
         <v>39</v>
       </c>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
     </row>
     <row r="15" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A15" s="15">
+      <c r="A15" s="14">
         <v>7</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="14" t="s">
         <v>108</v>
       </c>
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
     </row>
     <row r="16" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A16" s="15">
+      <c r="A16" s="14">
         <v>8</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="14" t="s">
         <v>40</v>
       </c>
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="15">
+      <c r="A17" s="14">
         <v>8</v>
       </c>
-      <c r="B17" s="15" t="s">
-        <v>216</v>
+      <c r="B17" s="14" t="s">
+        <v>215</v>
       </c>
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="15">
+      <c r="A18" s="14">
         <v>9</v>
       </c>
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="14" t="s">
         <v>42</v>
       </c>
       <c r="H18" s="6"/>
       <c r="I18" s="6"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="15">
+      <c r="A19" s="14">
         <v>9</v>
       </c>
-      <c r="B19" s="15" t="s">
+      <c r="B19" s="14" t="s">
         <v>110</v>
       </c>
       <c r="H19" s="6"/>
       <c r="I19" s="6"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="15">
+      <c r="A20" s="14">
         <v>10</v>
       </c>
-      <c r="B20" s="15" t="s">
+      <c r="B20" s="14" t="s">
         <v>55</v>
       </c>
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="15">
+      <c r="A21" s="14">
         <v>10</v>
       </c>
-      <c r="B21" s="15" t="s">
+      <c r="B21" s="14" t="s">
         <v>119</v>
       </c>
       <c r="H21" s="6"/>
       <c r="I21" s="6"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="15">
+      <c r="A22" s="14">
         <v>11</v>
       </c>
-      <c r="B22" s="15" t="s">
+      <c r="B22" s="14" t="s">
         <v>46</v>
       </c>
       <c r="H22" s="6"/>
       <c r="I22" s="6"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="15">
+      <c r="A23" s="14">
         <v>11</v>
       </c>
-      <c r="B23" s="15" t="s">
+      <c r="B23" s="14" t="s">
         <v>207</v>
       </c>
       <c r="H23" s="6"/>
       <c r="I23" s="6"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="15">
+      <c r="A24" s="14">
         <v>12</v>
       </c>
-      <c r="B24" s="15" t="s">
-        <v>217</v>
+      <c r="B24" s="14" t="s">
+        <v>216</v>
       </c>
       <c r="H24" s="6"/>
       <c r="I24" s="6"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" s="15">
+      <c r="A25" s="14">
         <v>12</v>
       </c>
-      <c r="B25" s="15" t="s">
+      <c r="B25" s="14" t="s">
         <v>113</v>
       </c>
       <c r="H25" s="6"/>
       <c r="I25" s="6"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" s="15">
+      <c r="A26" s="14">
         <v>13</v>
       </c>
-      <c r="B26" s="15" t="s">
+      <c r="B26" s="14" t="s">
         <v>36</v>
       </c>
       <c r="H26" s="6"/>
       <c r="I26" s="6"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27" s="15">
+      <c r="A27" s="14">
         <v>13</v>
       </c>
-      <c r="B27" s="15" t="s">
+      <c r="B27" s="14" t="s">
         <v>115</v>
       </c>
       <c r="H27" s="6"/>
       <c r="I27" s="6"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" s="15">
+      <c r="A28" s="14">
         <v>14</v>
       </c>
-      <c r="B28" s="15" t="s">
+      <c r="B28" s="14" t="s">
         <v>53</v>
       </c>
       <c r="H28" s="6"/>
       <c r="I28" s="6"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A29" s="15">
+      <c r="A29" s="14">
         <v>14</v>
       </c>
-      <c r="B29" s="15" t="s">
+      <c r="B29" s="14" t="s">
         <v>128</v>
       </c>
       <c r="H29" s="6"/>
       <c r="I29" s="6"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30" s="15">
+      <c r="A30" s="14">
         <v>15</v>
       </c>
-      <c r="B30" s="15" t="s">
-        <v>218</v>
+      <c r="B30" s="14" t="s">
+        <v>217</v>
       </c>
       <c r="H30" s="6"/>
       <c r="I30" s="6"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A31" s="15">
+      <c r="A31" s="14">
         <v>15</v>
       </c>
-      <c r="B31" s="15" t="s">
-        <v>219</v>
+      <c r="B31" s="14" t="s">
+        <v>218</v>
       </c>
       <c r="H31" s="6"/>
       <c r="I31" s="6"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A32" s="15">
+      <c r="A32" s="14">
         <v>16</v>
       </c>
-      <c r="B32" s="15" t="s">
+      <c r="B32" s="14" t="s">
         <v>181</v>
       </c>
       <c r="H32" s="6"/>
       <c r="I32" s="6"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A33" s="15">
+      <c r="A33" s="14">
         <v>16</v>
       </c>
-      <c r="B33" s="15" t="s">
+      <c r="B33" s="14" t="s">
         <v>122</v>
       </c>
       <c r="H33" s="6"/>
       <c r="I33" s="6"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A34" s="15">
+      <c r="A34" s="14">
         <v>17</v>
       </c>
-      <c r="B34" s="15" t="s">
-        <v>220</v>
+      <c r="B34" s="14" t="s">
+        <v>219</v>
       </c>
       <c r="H34" s="6"/>
       <c r="I34" s="6"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A35" s="15">
+      <c r="A35" s="14">
         <v>17</v>
       </c>
-      <c r="B35" s="15" t="s">
+      <c r="B35" s="14" t="s">
         <v>120</v>
       </c>
       <c r="H35" s="6"/>
       <c r="I35" s="6"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A36" s="15">
+      <c r="A36" s="14">
         <v>1</v>
       </c>
-      <c r="B36" s="15" t="s">
+      <c r="B36" s="14" t="s">
         <v>134</v>
       </c>
       <c r="H36" s="6"/>
       <c r="I36" s="6"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A37" s="15">
+      <c r="A37" s="14">
         <v>1</v>
       </c>
-      <c r="B37" s="15" t="s">
-        <v>221</v>
+      <c r="B37" s="14" t="s">
+        <v>220</v>
       </c>
       <c r="H37" s="6"/>
       <c r="I37" s="6"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A38" s="15">
+      <c r="A38" s="14">
         <v>2</v>
       </c>
-      <c r="B38" s="15" t="s">
+      <c r="B38" s="14" t="s">
         <v>176</v>
       </c>
       <c r="H38" s="6"/>
       <c r="I38" s="6"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A39" s="15">
+      <c r="A39" s="14">
         <v>2</v>
       </c>
-      <c r="B39" s="15" t="s">
+      <c r="B39" s="14" t="s">
         <v>109</v>
       </c>
       <c r="H39" s="6"/>
       <c r="I39" s="6"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A40" s="15">
+      <c r="A40" s="14">
         <v>3</v>
       </c>
-      <c r="B40" s="15" t="s">
+      <c r="B40" s="14" t="s">
         <v>144</v>
       </c>
       <c r="H40" s="6"/>
       <c r="I40" s="6"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A41" s="15">
+      <c r="A41" s="14">
         <v>3</v>
       </c>
-      <c r="B41" s="15" t="s">
-        <v>222</v>
+      <c r="B41" s="14" t="s">
+        <v>221</v>
       </c>
       <c r="H41" s="6"/>
       <c r="I41" s="6"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A42" s="15">
+      <c r="A42" s="14">
         <v>4</v>
       </c>
-      <c r="B42" s="15" t="s">
+      <c r="B42" s="14" t="s">
         <v>142</v>
       </c>
       <c r="H42" s="6"/>
       <c r="I42" s="6"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A43" s="15">
+      <c r="A43" s="14">
         <v>4</v>
       </c>
-      <c r="B43" s="15" t="s">
+      <c r="B43" s="14" t="s">
         <v>111</v>
       </c>
       <c r="H43" s="6"/>
       <c r="I43" s="6"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A44" s="15">
+      <c r="A44" s="14">
         <v>5</v>
       </c>
-      <c r="B44" s="15" t="s">
-        <v>223</v>
+      <c r="B44" s="14" t="s">
+        <v>222</v>
       </c>
       <c r="H44" s="6"/>
       <c r="I44" s="6"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A45" s="15">
+      <c r="A45" s="14">
         <v>5</v>
       </c>
-      <c r="B45" s="15" t="s">
+      <c r="B45" s="14" t="s">
         <v>124</v>
       </c>
       <c r="H45" s="6"/>
       <c r="I45" s="6"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A46" s="15">
+      <c r="A46" s="14">
         <v>6</v>
       </c>
-      <c r="B46" s="15" t="s">
+      <c r="B46" s="14" t="s">
         <v>145</v>
       </c>
       <c r="H46" s="6"/>
       <c r="I46" s="6"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A47" s="15">
+      <c r="A47" s="14">
         <v>6</v>
       </c>
-      <c r="B47" s="15" t="s">
+      <c r="B47" s="14" t="s">
         <v>118</v>
       </c>
       <c r="H47" s="6"/>
       <c r="I47" s="6"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A48" s="15">
+      <c r="A48" s="14">
         <v>7</v>
       </c>
-      <c r="B48" s="15" t="s">
+      <c r="B48" s="14" t="s">
         <v>137</v>
       </c>
       <c r="H48" s="6"/>
       <c r="I48" s="6"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A49" s="15">
+      <c r="A49" s="14">
         <v>7</v>
       </c>
-      <c r="B49" s="15" t="s">
+      <c r="B49" s="14" t="s">
         <v>125</v>
       </c>
       <c r="H49" s="6"/>
       <c r="I49" s="6"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A50" s="15">
+      <c r="A50" s="14">
         <v>8</v>
       </c>
-      <c r="B50" s="15" t="s">
+      <c r="B50" s="14" t="s">
         <v>133</v>
       </c>
       <c r="H50" s="6"/>
       <c r="I50" s="6"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A51" s="15">
+      <c r="A51" s="14">
         <v>8</v>
       </c>
-      <c r="B51" s="15" t="s">
+      <c r="B51" s="14" t="s">
         <v>112</v>
       </c>
       <c r="H51" s="6"/>
       <c r="I51" s="6"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A52" s="15">
+      <c r="A52" s="14">
         <v>9</v>
       </c>
-      <c r="B52" s="15" t="s">
+      <c r="B52" s="14" t="s">
         <v>153</v>
       </c>
       <c r="H52" s="6"/>
       <c r="I52" s="6"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A53" s="15">
+      <c r="A53" s="14">
         <v>9</v>
       </c>
-      <c r="B53" s="15" t="s">
+      <c r="B53" s="14" t="s">
         <v>123</v>
       </c>
       <c r="H53" s="6"/>
       <c r="I53" s="6"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A54" s="15">
+      <c r="A54" s="14">
         <v>10</v>
       </c>
-      <c r="B54" s="15" t="s">
+      <c r="B54" s="14" t="s">
         <v>150</v>
       </c>
       <c r="H54" s="6"/>
       <c r="I54" s="6"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A55" s="15">
+      <c r="A55" s="14">
         <v>10</v>
       </c>
-      <c r="B55" s="15" t="s">
+      <c r="B55" s="14" t="s">
         <v>116</v>
       </c>
       <c r="H55" s="6"/>
       <c r="I55" s="6"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A56" s="15">
+      <c r="A56" s="14">
         <v>11</v>
       </c>
-      <c r="B56" s="15" t="s">
+      <c r="B56" s="14" t="s">
         <v>132</v>
       </c>
       <c r="H56" s="6"/>
       <c r="I56" s="6"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A57" s="15">
+      <c r="A57" s="14">
         <v>11</v>
       </c>
-      <c r="B57" s="15" t="s">
-        <v>224</v>
+      <c r="B57" s="14" t="s">
+        <v>223</v>
       </c>
       <c r="H57" s="6"/>
       <c r="I57" s="6"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A58" s="15">
+      <c r="A58" s="14">
         <v>12</v>
       </c>
-      <c r="B58" s="15" t="s">
+      <c r="B58" s="14" t="s">
         <v>148</v>
       </c>
       <c r="H58" s="6"/>
       <c r="I58" s="6"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A59" s="15">
+      <c r="A59" s="14">
         <v>12</v>
       </c>
-      <c r="B59" s="15" t="s">
+      <c r="B59" s="14" t="s">
         <v>117</v>
       </c>
       <c r="H59" s="6"/>
       <c r="I59" s="6"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A60" s="15">
+      <c r="A60" s="14">
         <v>13</v>
       </c>
-      <c r="B60" s="15" t="s">
+      <c r="B60" s="14" t="s">
         <v>139</v>
       </c>
       <c r="H60" s="6"/>
       <c r="I60" s="6"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A61" s="15">
+      <c r="A61" s="14">
         <v>13</v>
       </c>
-      <c r="B61" s="15" t="s">
+      <c r="B61" s="14" t="s">
         <v>126</v>
       </c>
       <c r="H61" s="6"/>
       <c r="I61" s="6"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A62" s="15">
+      <c r="A62" s="14">
         <v>14</v>
       </c>
-      <c r="B62" s="15" t="s">
-        <v>225</v>
+      <c r="B62" s="14" t="s">
+        <v>224</v>
       </c>
       <c r="H62" s="6"/>
       <c r="I62" s="6"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A63" s="15">
+      <c r="A63" s="14">
         <v>14</v>
       </c>
-      <c r="B63" s="15" t="s">
+      <c r="B63" s="14" t="s">
         <v>129</v>
       </c>
       <c r="H63" s="6"/>
       <c r="I63" s="6"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A64" s="15">
+      <c r="A64" s="14">
         <v>15</v>
       </c>
-      <c r="B64" s="15" t="s">
+      <c r="B64" s="14" t="s">
         <v>152</v>
       </c>
       <c r="H64" s="6"/>
       <c r="I64" s="6"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A65" s="15">
+      <c r="A65" s="14">
         <v>15</v>
       </c>
-      <c r="B65" s="15" t="s">
+      <c r="B65" s="14" t="s">
         <v>127</v>
       </c>
       <c r="H65" s="6"/>
       <c r="I65" s="6"/>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A66" s="15">
+      <c r="A66" s="14">
         <v>16</v>
       </c>
-      <c r="B66" s="15" t="s">
+      <c r="B66" s="14" t="s">
         <v>151</v>
       </c>
       <c r="H66" s="6"/>
       <c r="I66" s="6"/>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A67" s="15">
+      <c r="A67" s="14">
         <v>16</v>
       </c>
-      <c r="B67" s="15" t="s">
+      <c r="B67" s="14" t="s">
         <v>199</v>
       </c>
       <c r="H67" s="6"/>
       <c r="I67" s="6"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A68" s="15">
+      <c r="A68" s="14">
         <v>17</v>
       </c>
-      <c r="B68" s="15" t="s">
+      <c r="B68" s="14" t="s">
         <v>131</v>
       </c>
       <c r="H68" s="6"/>
       <c r="I68" s="6"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A69" s="15">
+      <c r="A69" s="14">
         <v>17</v>
       </c>
-      <c r="B69" s="15" t="s">
-        <v>226</v>
+      <c r="B69" s="14" t="s">
+        <v>225</v>
       </c>
       <c r="H69" s="6"/>
       <c r="I69" s="6"/>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A70" s="15">
+      <c r="A70" s="14">
         <v>1</v>
       </c>
-      <c r="B70" s="15" t="s">
+      <c r="B70" s="14" t="s">
         <v>130</v>
       </c>
       <c r="H70" s="6"/>
       <c r="I70" s="6"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A71" s="15">
+      <c r="A71" s="14">
         <v>1</v>
       </c>
-      <c r="B71" s="15" t="s">
+      <c r="B71" s="14" t="s">
         <v>51</v>
       </c>
       <c r="H71" s="6"/>
       <c r="I71" s="6"/>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A72" s="15">
+      <c r="A72" s="14">
         <v>2</v>
       </c>
-      <c r="B72" s="15" t="s">
+      <c r="B72" s="14" t="s">
         <v>149</v>
       </c>
       <c r="H72" s="6"/>
       <c r="I72" s="6"/>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A73" s="15">
+      <c r="A73" s="14">
         <v>2</v>
       </c>
-      <c r="B73" s="15" t="s">
-        <v>227</v>
+      <c r="B73" s="14" t="s">
+        <v>226</v>
       </c>
       <c r="H73" s="6"/>
       <c r="I73" s="6"/>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A74" s="15">
+      <c r="A74" s="14">
         <v>3</v>
       </c>
-      <c r="B74" s="15" t="s">
-        <v>228</v>
+      <c r="B74" s="14" t="s">
+        <v>227</v>
       </c>
       <c r="H74" s="6"/>
       <c r="I74" s="6"/>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A75" s="15">
+      <c r="A75" s="14">
         <v>3</v>
       </c>
-      <c r="B75" s="15" t="s">
+      <c r="B75" s="14" t="s">
         <v>41</v>
       </c>
       <c r="H75" s="6"/>
       <c r="I75" s="6"/>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A76" s="15">
+      <c r="A76" s="14">
         <v>4</v>
       </c>
-      <c r="B76" s="15" t="s">
+      <c r="B76" s="14" t="s">
         <v>155</v>
       </c>
       <c r="H76" s="6"/>
       <c r="I76" s="6"/>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A77" s="15">
+      <c r="A77" s="14">
         <v>4</v>
       </c>
-      <c r="B77" s="15" t="s">
+      <c r="B77" s="14" t="s">
         <v>206</v>
       </c>
       <c r="H77" s="6"/>
       <c r="I77" s="6"/>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A78" s="15">
+      <c r="A78" s="14">
         <v>5</v>
       </c>
-      <c r="B78" s="15" t="s">
+      <c r="B78" s="14" t="s">
         <v>136</v>
       </c>
       <c r="H78" s="6"/>
       <c r="I78" s="6"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A79" s="15">
+      <c r="A79" s="14">
         <v>5</v>
       </c>
-      <c r="B79" s="15" t="s">
+      <c r="B79" s="14" t="s">
         <v>52</v>
       </c>
       <c r="H79" s="6"/>
       <c r="I79" s="6"/>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A80" s="15">
+      <c r="A80" s="14">
         <v>6</v>
       </c>
-      <c r="B80" s="15" t="s">
+      <c r="B80" s="14" t="s">
         <v>146</v>
       </c>
       <c r="H80" s="6"/>
       <c r="I80" s="6"/>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A81" s="15">
+      <c r="A81" s="14">
         <v>6</v>
       </c>
-      <c r="B81" s="15" t="s">
+      <c r="B81" s="14" t="s">
         <v>50</v>
       </c>
       <c r="H81" s="6"/>
       <c r="I81" s="6"/>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A82" s="15">
+      <c r="A82" s="14">
         <v>7</v>
       </c>
-      <c r="B82" s="15" t="s">
+      <c r="B82" s="14" t="s">
         <v>154</v>
       </c>
       <c r="H82" s="6"/>
       <c r="I82" s="6"/>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A83" s="15">
+      <c r="A83" s="14">
         <v>7</v>
       </c>
-      <c r="B83" s="15" t="s">
-        <v>229</v>
+      <c r="B83" s="14" t="s">
+        <v>228</v>
       </c>
       <c r="H83" s="6"/>
       <c r="I83" s="6"/>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A84" s="15">
+      <c r="A84" s="14">
         <v>8</v>
       </c>
-      <c r="B84" s="15" t="s">
+      <c r="B84" s="14" t="s">
         <v>179</v>
       </c>
       <c r="H84" s="6"/>
       <c r="I84" s="6"/>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A85" s="15">
+      <c r="A85" s="14">
         <v>8</v>
       </c>
-      <c r="B85" s="15" t="s">
+      <c r="B85" s="14" t="s">
         <v>47</v>
       </c>
       <c r="H85" s="6"/>
       <c r="I85" s="6"/>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A86" s="15">
+      <c r="A86" s="14">
         <v>9</v>
       </c>
-      <c r="B86" s="15" t="s">
+      <c r="B86" s="14" t="s">
         <v>138</v>
       </c>
       <c r="H86" s="6"/>
       <c r="I86" s="6"/>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A87" s="15">
+      <c r="A87" s="14">
         <v>9</v>
       </c>
-      <c r="B87" s="15" t="s">
+      <c r="B87" s="14" t="s">
         <v>58</v>
       </c>
       <c r="H87" s="6"/>
       <c r="I87" s="6"/>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A88" s="15">
+      <c r="A88" s="14">
         <v>10</v>
       </c>
-      <c r="B88" s="15" t="s">
+      <c r="B88" s="14" t="s">
         <v>140</v>
       </c>
       <c r="H88" s="6"/>
       <c r="I88" s="6"/>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A89" s="15">
+      <c r="A89" s="14">
         <v>10</v>
       </c>
-      <c r="B89" s="15" t="s">
-        <v>230</v>
+      <c r="B89" s="14" t="s">
+        <v>229</v>
       </c>
       <c r="H89" s="6"/>
       <c r="I89" s="6"/>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A90" s="15">
+      <c r="A90" s="14">
         <v>11</v>
       </c>
-      <c r="B90" s="15" t="s">
+      <c r="B90" s="14" t="s">
         <v>203</v>
       </c>
       <c r="H90" s="6"/>
       <c r="I90" s="6"/>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A91" s="15">
+      <c r="A91" s="14">
         <v>11</v>
       </c>
-      <c r="B91" s="15" t="s">
+      <c r="B91" s="14" t="s">
         <v>43</v>
       </c>
       <c r="H91" s="6"/>
       <c r="I91" s="6"/>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A92" s="15">
+      <c r="A92" s="14">
         <v>12</v>
       </c>
-      <c r="B92" s="15" t="s">
+      <c r="B92" s="14" t="s">
         <v>135</v>
       </c>
       <c r="H92" s="6"/>
       <c r="I92" s="6"/>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A93" s="15">
+      <c r="A93" s="14">
         <v>12</v>
       </c>
-      <c r="B93" s="15" t="s">
+      <c r="B93" s="14" t="s">
         <v>48</v>
       </c>
       <c r="H93" s="6"/>
       <c r="I93" s="6"/>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A94" s="15">
+      <c r="A94" s="14">
         <v>13</v>
       </c>
-      <c r="B94" s="15" t="s">
+      <c r="B94" s="14" t="s">
         <v>201</v>
       </c>
       <c r="H94" s="6"/>
       <c r="I94" s="6"/>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A95" s="15">
+      <c r="A95" s="14">
         <v>13</v>
       </c>
-      <c r="B95" s="15" t="s">
+      <c r="B95" s="14" t="s">
         <v>44</v>
       </c>
       <c r="H95" s="6"/>
       <c r="I95" s="6"/>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A96" s="15">
+      <c r="A96" s="14">
         <v>14</v>
       </c>
-      <c r="B96" s="15" t="s">
+      <c r="B96" s="14" t="s">
         <v>147</v>
       </c>
       <c r="H96" s="6"/>
       <c r="I96" s="6"/>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A97" s="15">
+      <c r="A97" s="14">
         <v>14</v>
       </c>
-      <c r="B97" s="15" t="s">
+      <c r="B97" s="14" t="s">
         <v>37</v>
       </c>
       <c r="H97" s="6"/>
       <c r="I97" s="6"/>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A98" s="15">
+      <c r="A98" s="14">
         <v>15</v>
       </c>
-      <c r="B98" s="15" t="s">
+      <c r="B98" s="14" t="s">
         <v>143</v>
       </c>
       <c r="H98" s="6"/>
       <c r="I98" s="6"/>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A99" s="15">
+      <c r="A99" s="14">
         <v>15</v>
       </c>
-      <c r="B99" s="15" t="s">
+      <c r="B99" s="14" t="s">
         <v>56</v>
       </c>
       <c r="H99" s="6"/>
       <c r="I99" s="6"/>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A100" s="15">
+      <c r="A100" s="14">
         <v>16</v>
       </c>
-      <c r="B100" s="15" t="s">
+      <c r="B100" s="14" t="s">
         <v>49</v>
       </c>
       <c r="H100" s="6"/>
       <c r="I100" s="6"/>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A101" s="15">
+      <c r="A101" s="14">
         <v>16</v>
       </c>
-      <c r="B101" s="15" t="s">
-        <v>231</v>
+      <c r="B101" s="14" t="s">
+        <v>230</v>
       </c>
       <c r="H101" s="6"/>
       <c r="I101" s="6"/>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A102" s="15">
+      <c r="A102" s="14">
         <v>17</v>
       </c>
-      <c r="B102" s="15" t="s">
+      <c r="B102" s="14" t="s">
         <v>141</v>
       </c>
       <c r="H102" s="6"/>
       <c r="I102" s="6"/>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A103" s="15">
+      <c r="A103" s="14">
         <v>17</v>
       </c>
-      <c r="B103" s="15" t="s">
-        <v>232</v>
+      <c r="B103" s="14" t="s">
+        <v>231</v>
       </c>
       <c r="H103" s="6"/>
       <c r="I103" s="6"/>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A104" s="15">
+      <c r="A104" s="14">
         <v>1</v>
       </c>
-      <c r="B104" s="15" t="s">
+      <c r="B104" s="14" t="s">
         <v>30</v>
       </c>
       <c r="H104" s="6"/>
       <c r="I104" s="6"/>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A105" s="15">
+      <c r="A105" s="14">
         <v>1</v>
       </c>
-      <c r="B105" s="15" t="s">
+      <c r="B105" s="14" t="s">
         <v>156</v>
       </c>
       <c r="H105" s="6"/>
       <c r="I105" s="6"/>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A106" s="15">
+      <c r="A106" s="14">
         <v>2</v>
       </c>
-      <c r="B106" s="15" t="s">
+      <c r="B106" s="14" t="s">
         <v>31</v>
       </c>
       <c r="H106" s="6"/>
       <c r="I106" s="6"/>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A107" s="15">
+      <c r="A107" s="14">
         <v>2</v>
       </c>
-      <c r="B107" s="15" t="s">
+      <c r="B107" s="14" t="s">
         <v>158</v>
       </c>
       <c r="H107" s="6"/>
       <c r="I107" s="6"/>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A108" s="15">
+      <c r="A108" s="14">
         <v>3</v>
       </c>
-      <c r="B108" s="15" t="s">
-        <v>233</v>
+      <c r="B108" s="14" t="s">
+        <v>232</v>
       </c>
       <c r="H108" s="6"/>
       <c r="I108" s="6"/>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A109" s="15">
+      <c r="A109" s="14">
         <v>3</v>
       </c>
-      <c r="B109" s="15" t="s">
+      <c r="B109" s="14" t="s">
         <v>173</v>
       </c>
       <c r="H109" s="6"/>
       <c r="I109" s="6"/>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A110" s="15">
+      <c r="A110" s="14">
         <v>4</v>
       </c>
-      <c r="B110" s="15" t="s">
+      <c r="B110" s="14" t="s">
         <v>32</v>
       </c>
       <c r="H110" s="6"/>
       <c r="I110" s="6"/>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A111" s="15">
+      <c r="A111" s="14">
         <v>4</v>
       </c>
-      <c r="B111" s="15" t="s">
+      <c r="B111" s="14" t="s">
         <v>160</v>
       </c>
       <c r="H111" s="6"/>
       <c r="I111" s="6"/>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A112" s="15">
+      <c r="A112" s="14">
         <v>5</v>
       </c>
-      <c r="B112" s="15" t="s">
+      <c r="B112" s="14" t="s">
         <v>182</v>
       </c>
       <c r="H112" s="6"/>
       <c r="I112" s="6"/>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A113" s="15">
+      <c r="A113" s="14">
         <v>5</v>
       </c>
-      <c r="B113" s="15" t="s">
+      <c r="B113" s="14" t="s">
         <v>167</v>
       </c>
       <c r="H113" s="6"/>
       <c r="I113" s="6"/>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A114" s="15">
+      <c r="A114" s="14">
         <v>6</v>
       </c>
-      <c r="B114" s="15" t="s">
+      <c r="B114" s="14" t="s">
         <v>20</v>
       </c>
       <c r="H114" s="6"/>
       <c r="I114" s="6"/>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A115" s="15">
+      <c r="A115" s="14">
         <v>6</v>
       </c>
-      <c r="B115" s="15" t="s">
+      <c r="B115" s="14" t="s">
         <v>175</v>
       </c>
       <c r="H115" s="6"/>
       <c r="I115" s="6"/>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A116" s="15">
+      <c r="A116" s="14">
         <v>7</v>
       </c>
-      <c r="B116" s="15" t="s">
-        <v>234</v>
+      <c r="B116" s="14" t="s">
+        <v>233</v>
       </c>
       <c r="H116" s="6"/>
       <c r="I116" s="6"/>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A117" s="15">
+      <c r="A117" s="14">
         <v>7</v>
       </c>
-      <c r="B117" s="15" t="s">
+      <c r="B117" s="14" t="s">
         <v>157</v>
       </c>
       <c r="H117" s="6"/>
       <c r="I117" s="6"/>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A118" s="15">
+      <c r="A118" s="14">
         <v>8</v>
       </c>
-      <c r="B118" s="15" t="s">
+      <c r="B118" s="14" t="s">
         <v>13</v>
       </c>
       <c r="H118" s="6"/>
       <c r="I118" s="6"/>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A119" s="15">
+      <c r="A119" s="14">
         <v>8</v>
       </c>
-      <c r="B119" s="15" t="s">
+      <c r="B119" s="14" t="s">
         <v>170</v>
       </c>
       <c r="H119" s="6"/>
       <c r="I119" s="6"/>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A120" s="15">
+      <c r="A120" s="14">
         <v>9</v>
       </c>
-      <c r="B120" s="15" t="s">
+      <c r="B120" s="14" t="s">
         <v>18</v>
       </c>
       <c r="H120" s="6"/>
       <c r="I120" s="6"/>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A121" s="15">
+      <c r="A121" s="14">
         <v>9</v>
       </c>
-      <c r="B121" s="15" t="s">
+      <c r="B121" s="14" t="s">
         <v>159</v>
       </c>
       <c r="H121" s="6"/>
       <c r="I121" s="6"/>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A122" s="15">
+      <c r="A122" s="14">
         <v>10</v>
       </c>
-      <c r="B122" s="15" t="s">
+      <c r="B122" s="14" t="s">
         <v>27</v>
       </c>
       <c r="H122" s="6"/>
       <c r="I122" s="6"/>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A123" s="15">
+      <c r="A123" s="14">
         <v>10</v>
       </c>
-      <c r="B123" s="15" t="s">
+      <c r="B123" s="14" t="s">
         <v>196</v>
       </c>
       <c r="H123" s="6"/>
       <c r="I123" s="6"/>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A124" s="15">
+      <c r="A124" s="14">
         <v>11</v>
       </c>
-      <c r="B124" s="15" t="s">
+      <c r="B124" s="14" t="s">
         <v>22</v>
       </c>
       <c r="H124" s="6"/>
       <c r="I124" s="6"/>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A125" s="15">
+      <c r="A125" s="14">
         <v>11</v>
       </c>
-      <c r="B125" s="15" t="s">
+      <c r="B125" s="14" t="s">
         <v>161</v>
       </c>
       <c r="H125" s="6"/>
       <c r="I125" s="6"/>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A126" s="15">
+      <c r="A126" s="14">
         <v>12</v>
       </c>
-      <c r="B126" s="15" t="s">
+      <c r="B126" s="14" t="s">
         <v>16</v>
       </c>
       <c r="H126" s="6"/>
       <c r="I126" s="6"/>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A127" s="15">
+      <c r="A127" s="14">
         <v>12</v>
       </c>
-      <c r="B127" s="15" t="s">
+      <c r="B127" s="14" t="s">
         <v>198</v>
       </c>
       <c r="H127" s="6"/>
       <c r="I127" s="6"/>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A128" s="15">
+      <c r="A128" s="14">
         <v>13</v>
       </c>
-      <c r="B128" s="15" t="s">
+      <c r="B128" s="14" t="s">
         <v>14</v>
       </c>
       <c r="H128" s="6"/>
       <c r="I128" s="6"/>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A129" s="15">
+      <c r="A129" s="14">
         <v>13</v>
       </c>
-      <c r="B129" s="15" t="s">
+      <c r="B129" s="14" t="s">
         <v>197</v>
       </c>
       <c r="H129" s="6"/>
       <c r="I129" s="6"/>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A130" s="15">
+      <c r="A130" s="14">
         <v>14</v>
       </c>
-      <c r="B130" s="15" t="s">
-        <v>235</v>
+      <c r="B130" s="14" t="s">
+        <v>234</v>
       </c>
       <c r="H130" s="6"/>
       <c r="I130" s="6"/>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A131" s="15">
+      <c r="A131" s="14">
         <v>14</v>
       </c>
-      <c r="B131" s="15" t="s">
-        <v>236</v>
+      <c r="B131" s="14" t="s">
+        <v>235</v>
       </c>
       <c r="H131" s="6"/>
       <c r="I131" s="6"/>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A132" s="15">
+      <c r="A132" s="14">
         <v>15</v>
       </c>
-      <c r="B132" s="15" t="s">
+      <c r="B132" s="14" t="s">
         <v>29</v>
       </c>
       <c r="H132" s="6"/>
       <c r="I132" s="6"/>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A133" s="15">
+      <c r="A133" s="14">
         <v>15</v>
       </c>
-      <c r="B133" s="15" t="s">
-        <v>237</v>
+      <c r="B133" s="14" t="s">
+        <v>236</v>
       </c>
       <c r="H133" s="6"/>
       <c r="I133" s="6"/>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A134" s="15">
+      <c r="A134" s="14">
         <v>16</v>
       </c>
-      <c r="B134" s="15" t="s">
-        <v>238</v>
+      <c r="B134" s="14" t="s">
+        <v>237</v>
       </c>
       <c r="H134" s="6"/>
       <c r="I134" s="6"/>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A135" s="15">
+      <c r="A135" s="14">
         <v>16</v>
       </c>
-      <c r="B135" s="15" t="s">
-        <v>239</v>
+      <c r="B135" s="14" t="s">
+        <v>238</v>
       </c>
       <c r="H135" s="6"/>
       <c r="I135" s="6"/>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A136" s="15">
+      <c r="A136" s="14">
         <v>17</v>
       </c>
-      <c r="B136" s="15" t="s">
+      <c r="B136" s="14" t="s">
         <v>25</v>
       </c>
       <c r="H136" s="6"/>
       <c r="I136" s="6"/>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A137" s="15">
+      <c r="A137" s="14">
         <v>17</v>
       </c>
-      <c r="B137" s="15" t="s">
+      <c r="B137" s="14" t="s">
         <v>195</v>
       </c>
       <c r="H137" s="6"/>
       <c r="I137" s="6"/>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A138" s="15">
+      <c r="A138" s="14">
         <v>1</v>
       </c>
-      <c r="B138" s="15" t="s">
+      <c r="B138" s="14" t="s">
         <v>90</v>
       </c>
       <c r="H138" s="6"/>
       <c r="I138" s="6"/>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A139" s="15">
+      <c r="A139" s="14">
         <v>1</v>
       </c>
-      <c r="B139" s="15" t="s">
-        <v>240</v>
+      <c r="B139" s="14" t="s">
+        <v>239</v>
       </c>
       <c r="H139" s="6"/>
       <c r="I139" s="6"/>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A140" s="15">
+      <c r="A140" s="14">
         <v>2</v>
       </c>
-      <c r="B140" s="15" t="s">
+      <c r="B140" s="14" t="s">
         <v>87</v>
       </c>
       <c r="H140" s="6"/>
       <c r="I140" s="6"/>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A141" s="15">
+      <c r="A141" s="14">
         <v>2</v>
       </c>
-      <c r="B141" s="15" t="s">
+      <c r="B141" s="14" t="s">
         <v>75</v>
       </c>
       <c r="H141" s="6"/>
       <c r="I141" s="6"/>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A142" s="15">
+      <c r="A142" s="14">
         <v>3</v>
       </c>
-      <c r="B142" s="15" t="s">
+      <c r="B142" s="14" t="s">
         <v>95</v>
       </c>
       <c r="H142" s="6"/>
       <c r="I142" s="6"/>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A143" s="15">
+      <c r="A143" s="14">
         <v>3</v>
       </c>
-      <c r="B143" s="15" t="s">
+      <c r="B143" s="14" t="s">
         <v>67</v>
       </c>
       <c r="H143" s="6"/>
       <c r="I143" s="6"/>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A144" s="15">
+      <c r="A144" s="14">
         <v>4</v>
       </c>
-      <c r="B144" s="15" t="s">
-        <v>241</v>
+      <c r="B144" s="14" t="s">
+        <v>240</v>
       </c>
       <c r="H144" s="6"/>
       <c r="I144" s="6"/>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A145" s="15">
+      <c r="A145" s="14">
         <v>4</v>
       </c>
-      <c r="B145" s="15" t="s">
+      <c r="B145" s="14" t="s">
         <v>64</v>
       </c>
       <c r="H145" s="6"/>
       <c r="I145" s="6"/>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A146" s="15">
+      <c r="A146" s="14">
         <v>5</v>
       </c>
-      <c r="B146" s="15" t="s">
+      <c r="B146" s="14" t="s">
         <v>100</v>
       </c>
       <c r="H146" s="6"/>
       <c r="I146" s="6"/>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A147" s="15">
+      <c r="A147" s="14">
         <v>5</v>
       </c>
-      <c r="B147" s="15" t="s">
+      <c r="B147" s="14" t="s">
         <v>73</v>
       </c>
       <c r="H147" s="6"/>
       <c r="I147" s="6"/>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A148" s="15">
+      <c r="A148" s="14">
         <v>6</v>
       </c>
-      <c r="B148" s="15" t="s">
+      <c r="B148" s="14" t="s">
         <v>89</v>
       </c>
       <c r="H148" s="6"/>
       <c r="I148" s="6"/>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A149" s="15">
+      <c r="A149" s="14">
         <v>6</v>
       </c>
-      <c r="B149" s="15" t="s">
-        <v>242</v>
+      <c r="B149" s="14" t="s">
+        <v>241</v>
       </c>
       <c r="H149" s="6"/>
       <c r="I149" s="6"/>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A150" s="15">
+      <c r="A150" s="14">
         <v>7</v>
       </c>
-      <c r="B150" s="15" t="s">
-        <v>243</v>
+      <c r="B150" s="14" t="s">
+        <v>242</v>
       </c>
       <c r="H150" s="6"/>
       <c r="I150" s="6"/>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A151" s="15">
+      <c r="A151" s="14">
         <v>7</v>
       </c>
-      <c r="B151" s="15" t="s">
+      <c r="B151" s="14" t="s">
         <v>59</v>
       </c>
       <c r="H151" s="6"/>
       <c r="I151" s="6"/>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A152" s="15">
+      <c r="A152" s="14">
         <v>8</v>
       </c>
-      <c r="B152" s="15" t="s">
+      <c r="B152" s="14" t="s">
         <v>91</v>
       </c>
       <c r="H152" s="6"/>
       <c r="I152" s="6"/>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A153" s="15">
+      <c r="A153" s="14">
         <v>8</v>
       </c>
-      <c r="B153" s="15" t="s">
+      <c r="B153" s="14" t="s">
         <v>71</v>
       </c>
       <c r="H153" s="6"/>
       <c r="I153" s="6"/>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A154" s="15">
+      <c r="A154" s="14">
         <v>9</v>
       </c>
-      <c r="B154" s="15" t="s">
+      <c r="B154" s="14" t="s">
         <v>85</v>
       </c>
       <c r="H154" s="6"/>
       <c r="I154" s="6"/>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A155" s="15">
+      <c r="A155" s="14">
         <v>9</v>
       </c>
-      <c r="B155" s="15" t="s">
+      <c r="B155" s="14" t="s">
         <v>77</v>
       </c>
       <c r="H155" s="6"/>
       <c r="I155" s="6"/>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A156" s="15">
+      <c r="A156" s="14">
         <v>10</v>
       </c>
-      <c r="B156" s="15" t="s">
+      <c r="B156" s="14" t="s">
         <v>105</v>
       </c>
       <c r="H156" s="6"/>
       <c r="I156" s="6"/>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A157" s="15">
+      <c r="A157" s="14">
         <v>10</v>
       </c>
-      <c r="B157" s="15" t="s">
+      <c r="B157" s="14" t="s">
         <v>79</v>
       </c>
       <c r="H157" s="6"/>
       <c r="I157" s="6"/>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A158" s="15">
+      <c r="A158" s="14">
         <v>11</v>
       </c>
-      <c r="B158" s="15" t="s">
+      <c r="B158" s="14" t="s">
         <v>106</v>
       </c>
       <c r="H158" s="6"/>
       <c r="I158" s="6"/>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A159" s="15">
+      <c r="A159" s="14">
         <v>11</v>
       </c>
-      <c r="B159" s="15" t="s">
+      <c r="B159" s="14" t="s">
         <v>74</v>
       </c>
       <c r="H159" s="6"/>
       <c r="I159" s="6"/>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A160" s="15">
+      <c r="A160" s="14">
         <v>12</v>
       </c>
-      <c r="B160" s="15" t="s">
+      <c r="B160" s="14" t="s">
         <v>94</v>
       </c>
       <c r="H160" s="6"/>
       <c r="I160" s="6"/>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A161" s="15">
+      <c r="A161" s="14">
         <v>12</v>
       </c>
-      <c r="B161" s="15" t="s">
+      <c r="B161" s="14" t="s">
         <v>200</v>
       </c>
       <c r="H161" s="6"/>
       <c r="I161" s="6"/>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A162" s="15">
+      <c r="A162" s="14">
         <v>13</v>
       </c>
-      <c r="B162" s="15" t="s">
+      <c r="B162" s="14" t="s">
         <v>84</v>
       </c>
       <c r="H162" s="6"/>
       <c r="I162" s="6"/>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A163" s="15">
+      <c r="A163" s="14">
         <v>13</v>
       </c>
-      <c r="B163" s="15" t="s">
+      <c r="B163" s="14" t="s">
         <v>63</v>
       </c>
       <c r="H163" s="6"/>
       <c r="I163" s="6"/>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A164" s="15">
+      <c r="A164" s="14">
         <v>14</v>
       </c>
-      <c r="B164" s="15" t="s">
-        <v>244</v>
+      <c r="B164" s="14" t="s">
+        <v>243</v>
       </c>
       <c r="H164" s="6"/>
       <c r="I164" s="6"/>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A165" s="15">
+      <c r="A165" s="14">
         <v>14</v>
       </c>
-      <c r="B165" s="15" t="s">
-        <v>245</v>
+      <c r="B165" s="14" t="s">
+        <v>244</v>
       </c>
       <c r="H165" s="6"/>
       <c r="I165" s="6"/>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A166" s="15">
+      <c r="A166" s="14">
         <v>15</v>
       </c>
-      <c r="B166" s="15" t="s">
-        <v>246</v>
+      <c r="B166" s="14" t="s">
+        <v>245</v>
       </c>
       <c r="H166" s="6"/>
       <c r="I166" s="6"/>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A167" s="15">
+      <c r="A167" s="14">
         <v>15</v>
       </c>
-      <c r="B167" s="15" t="s">
+      <c r="B167" s="14" t="s">
         <v>76</v>
       </c>
       <c r="H167" s="6"/>
       <c r="I167" s="6"/>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A168" s="15">
+      <c r="A168" s="14">
         <v>16</v>
       </c>
-      <c r="B168" s="15" t="s">
-        <v>247</v>
+      <c r="B168" s="14" t="s">
+        <v>246</v>
       </c>
       <c r="H168" s="6"/>
       <c r="I168" s="6"/>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A169" s="15">
+      <c r="A169" s="14">
         <v>16</v>
       </c>
-      <c r="B169" s="15" t="s">
+      <c r="B169" s="14" t="s">
         <v>70</v>
       </c>
       <c r="H169" s="6"/>
       <c r="I169" s="6"/>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A170" s="15">
+      <c r="A170" s="14">
         <v>17</v>
       </c>
-      <c r="B170" s="15" t="s">
+      <c r="B170" s="14" t="s">
         <v>97</v>
       </c>
       <c r="H170" s="6"/>
       <c r="I170" s="6"/>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A171" s="15">
+      <c r="A171" s="14">
         <v>17</v>
       </c>
-      <c r="B171" s="15" t="s">
-        <v>248</v>
+      <c r="B171" s="14" t="s">
+        <v>247</v>
       </c>
       <c r="H171" s="6"/>
       <c r="I171" s="6"/>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A172" s="15">
+      <c r="A172" s="14">
         <v>1</v>
       </c>
-      <c r="B172" s="15" t="s">
-        <v>249</v>
+      <c r="B172" s="14" t="s">
+        <v>248</v>
       </c>
       <c r="H172" s="6"/>
       <c r="I172" s="6"/>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A173" s="15">
+      <c r="A173" s="14">
         <v>1</v>
       </c>
-      <c r="B173" s="15" t="s">
-        <v>250</v>
+      <c r="B173" s="14" t="s">
+        <v>249</v>
       </c>
       <c r="H173" s="6"/>
       <c r="I173" s="6"/>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A174" s="15">
+      <c r="A174" s="14">
         <v>2</v>
       </c>
-      <c r="B174" s="15" t="s">
-        <v>251</v>
+      <c r="B174" s="14" t="s">
+        <v>250</v>
       </c>
       <c r="H174" s="6"/>
       <c r="I174" s="6"/>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A175" s="15">
+      <c r="A175" s="14">
         <v>2</v>
       </c>
-      <c r="B175" s="15" t="s">
-        <v>252</v>
+      <c r="B175" s="14" t="s">
+        <v>251</v>
       </c>
       <c r="H175" s="6"/>
       <c r="I175" s="6"/>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A176" s="15">
+      <c r="A176" s="14">
         <v>3</v>
       </c>
-      <c r="B176" s="15" t="s">
+      <c r="B176" s="14" t="s">
         <v>80</v>
       </c>
       <c r="H176" s="6"/>
       <c r="I176" s="6"/>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A177" s="15">
+      <c r="A177" s="14">
         <v>3</v>
       </c>
-      <c r="B177" s="15" t="s">
+      <c r="B177" s="14" t="s">
         <v>9</v>
       </c>
       <c r="H177" s="6"/>
       <c r="I177" s="6"/>
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A178" s="15">
+      <c r="A178" s="14">
         <v>4</v>
       </c>
-      <c r="B178" s="15" t="s">
-        <v>253</v>
+      <c r="B178" s="14" t="s">
+        <v>252</v>
       </c>
       <c r="H178" s="6"/>
       <c r="I178" s="6"/>
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A179" s="15">
+      <c r="A179" s="14">
         <v>4</v>
       </c>
-      <c r="B179" s="15" t="s">
+      <c r="B179" s="14" t="s">
         <v>7</v>
       </c>
       <c r="H179" s="6"/>
       <c r="I179" s="6"/>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A180" s="15">
+      <c r="A180" s="14">
         <v>5</v>
       </c>
-      <c r="B180" s="15" t="s">
+      <c r="B180" s="14" t="s">
         <v>78</v>
       </c>
       <c r="H180" s="6"/>
       <c r="I180" s="6"/>
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A181" s="15">
+      <c r="A181" s="14">
         <v>5</v>
       </c>
-      <c r="B181" s="15" t="s">
+      <c r="B181" s="14" t="s">
         <v>177</v>
       </c>
       <c r="H181" s="6"/>
       <c r="I181" s="6"/>
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A182" s="15">
+      <c r="A182" s="14">
         <v>6</v>
       </c>
-      <c r="B182" s="15" t="s">
+      <c r="B182" s="14" t="s">
         <v>65</v>
       </c>
       <c r="H182" s="6"/>
       <c r="I182" s="6"/>
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A183" s="15">
+      <c r="A183" s="14">
         <v>6</v>
       </c>
-      <c r="B183" s="15" t="s">
+      <c r="B183" s="14" t="s">
         <v>202</v>
       </c>
       <c r="H183" s="6"/>
       <c r="I183" s="6"/>
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A184" s="15">
+      <c r="A184" s="14">
         <v>7</v>
       </c>
-      <c r="B184" s="15" t="s">
+      <c r="B184" s="14" t="s">
         <v>82</v>
       </c>
       <c r="H184" s="6"/>
       <c r="I184" s="6"/>
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A185" s="15">
+      <c r="A185" s="14">
         <v>7</v>
       </c>
-      <c r="B185" s="15" t="s">
+      <c r="B185" s="14" t="s">
         <v>1</v>
       </c>
       <c r="H185" s="6"/>
       <c r="I185" s="6"/>
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A186" s="15">
+      <c r="A186" s="14">
         <v>8</v>
       </c>
-      <c r="B186" s="15" t="s">
+      <c r="B186" s="14" t="s">
         <v>69</v>
       </c>
       <c r="H186" s="6"/>
       <c r="I186" s="6"/>
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A187" s="15">
+      <c r="A187" s="14">
         <v>8</v>
       </c>
-      <c r="B187" s="15" t="s">
+      <c r="B187" s="14" t="s">
         <v>5</v>
       </c>
       <c r="H187" s="6"/>
       <c r="I187" s="6"/>
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A188" s="15">
+      <c r="A188" s="14">
         <v>9</v>
       </c>
-      <c r="B188" s="15" t="s">
+      <c r="B188" s="14" t="s">
         <v>60</v>
       </c>
       <c r="H188" s="6"/>
       <c r="I188" s="6"/>
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A189" s="15">
+      <c r="A189" s="14">
         <v>9</v>
       </c>
-      <c r="B189" s="15" t="s">
+      <c r="B189" s="14" t="s">
         <v>4</v>
       </c>
       <c r="H189" s="6"/>
       <c r="I189" s="6"/>
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A190" s="15">
+      <c r="A190" s="14">
         <v>10</v>
       </c>
-      <c r="B190" s="15" t="s">
+      <c r="B190" s="14" t="s">
         <v>72</v>
       </c>
       <c r="H190" s="6"/>
       <c r="I190" s="6"/>
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A191" s="15">
+      <c r="A191" s="14">
         <v>10</v>
       </c>
-      <c r="B191" s="15" t="s">
+      <c r="B191" s="14" t="s">
         <v>3</v>
       </c>
       <c r="H191" s="6"/>
       <c r="I191" s="6"/>
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A192" s="15">
+      <c r="A192" s="14">
         <v>11</v>
       </c>
-      <c r="B192" s="15" t="s">
+      <c r="B192" s="14" t="s">
         <v>81</v>
       </c>
       <c r="H192" s="6"/>
       <c r="I192" s="6"/>
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A193" s="15">
+      <c r="A193" s="14">
         <v>11</v>
       </c>
-      <c r="B193" s="15" t="s">
+      <c r="B193" s="14" t="s">
         <v>6</v>
       </c>
       <c r="H193" s="6"/>
       <c r="I193" s="6"/>
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A194" s="15">
+      <c r="A194" s="14">
         <v>12</v>
       </c>
-      <c r="B194" s="15" t="s">
+      <c r="B194" s="14" t="s">
         <v>62</v>
       </c>
       <c r="H194" s="6"/>
       <c r="I194" s="6"/>
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A195" s="15">
+      <c r="A195" s="14">
         <v>12</v>
       </c>
-      <c r="B195" s="15" t="s">
+      <c r="B195" s="14" t="s">
         <v>8</v>
       </c>
       <c r="H195" s="6"/>
       <c r="I195" s="6"/>
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A196" s="15">
+      <c r="A196" s="14">
         <v>13</v>
       </c>
-      <c r="B196" s="15" t="s">
+      <c r="B196" s="14" t="s">
         <v>61</v>
       </c>
       <c r="H196" s="6"/>
       <c r="I196" s="6"/>
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A197" s="15">
+      <c r="A197" s="14">
         <v>13</v>
       </c>
-      <c r="B197" s="15" t="s">
+      <c r="B197" s="14" t="s">
         <v>0</v>
       </c>
       <c r="H197" s="6"/>
       <c r="I197" s="6"/>
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A198" s="15">
+      <c r="A198" s="14">
         <v>14</v>
       </c>
-      <c r="B198" s="15" t="s">
-        <v>254</v>
+      <c r="B198" s="14" t="s">
+        <v>253</v>
       </c>
       <c r="H198" s="6"/>
       <c r="I198" s="6"/>
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A199" s="15">
+      <c r="A199" s="14">
         <v>14</v>
       </c>
-      <c r="B199" s="15" t="s">
-        <v>255</v>
+      <c r="B199" s="14" t="s">
+        <v>254</v>
       </c>
       <c r="H199" s="6"/>
       <c r="I199" s="6"/>
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A200" s="15">
+      <c r="A200" s="14">
         <v>15</v>
       </c>
-      <c r="B200" s="15" t="s">
+      <c r="B200" s="14" t="s">
         <v>62</v>
       </c>
       <c r="H200" s="6"/>
       <c r="I200" s="6"/>
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A201" s="15">
+      <c r="A201" s="14">
         <v>15</v>
       </c>
-      <c r="B201" s="15" t="s">
+      <c r="B201" s="14" t="s">
         <v>178</v>
       </c>
       <c r="H201" s="6"/>
       <c r="I201" s="6"/>
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A202" s="15">
+      <c r="A202" s="14">
         <v>16</v>
       </c>
-      <c r="B202" s="15" t="s">
+      <c r="B202" s="14" t="s">
         <v>68</v>
       </c>
       <c r="H202" s="6"/>
       <c r="I202" s="6"/>
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A203" s="15">
+      <c r="A203" s="14">
         <v>16</v>
       </c>
-      <c r="B203" s="15" t="s">
+      <c r="B203" s="14" t="s">
         <v>10</v>
       </c>
       <c r="H203" s="6"/>
       <c r="I203" s="6"/>
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A204" s="15">
+      <c r="A204" s="14">
         <v>17</v>
       </c>
-      <c r="B204" s="15" t="s">
+      <c r="B204" s="14" t="s">
         <v>66</v>
       </c>
       <c r="H204" s="6"/>
       <c r="I204" s="6"/>
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A205" s="15">
+      <c r="A205" s="14">
         <v>17</v>
       </c>
-      <c r="B205" s="15" t="s">
+      <c r="B205" s="14" t="s">
         <v>2</v>
       </c>
       <c r="H205" s="6"/>
       <c r="I205" s="6"/>
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A206" s="15">
+      <c r="A206" s="14">
         <v>1</v>
       </c>
-      <c r="B206" s="15" t="s">
+      <c r="B206" s="14" t="s">
         <v>163</v>
       </c>
       <c r="H206" s="6"/>
       <c r="I206" s="6"/>
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A207" s="15">
+      <c r="A207" s="14">
         <v>1</v>
       </c>
-      <c r="B207" s="15" t="s">
+      <c r="B207" s="14" t="s">
         <v>194</v>
       </c>
       <c r="H207" s="6"/>
       <c r="I207" s="6"/>
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A208" s="15">
+      <c r="A208" s="14">
         <v>2</v>
       </c>
-      <c r="B208" s="15" t="s">
+      <c r="B208" s="14" t="s">
         <v>165</v>
       </c>
       <c r="H208" s="6"/>
       <c r="I208" s="6"/>
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A209" s="15">
+      <c r="A209" s="14">
         <v>2</v>
       </c>
-      <c r="B209" s="15" t="s">
+      <c r="B209" s="14" t="s">
         <v>192</v>
       </c>
       <c r="H209" s="6"/>
       <c r="I209" s="6"/>
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A210" s="15">
+      <c r="A210" s="14">
         <v>3</v>
       </c>
-      <c r="B210" s="15" t="s">
-        <v>256</v>
+      <c r="B210" s="14" t="s">
+        <v>255</v>
       </c>
       <c r="H210" s="6"/>
       <c r="I210" s="6"/>
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A211" s="15">
+      <c r="A211" s="14">
         <v>3</v>
       </c>
-      <c r="B211" s="15" t="s">
+      <c r="B211" s="14" t="s">
         <v>190</v>
       </c>
       <c r="H211" s="6"/>
       <c r="I211" s="6"/>
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A212" s="15">
+      <c r="A212" s="14">
         <v>4</v>
       </c>
-      <c r="B212" s="15" t="s">
-        <v>256</v>
+      <c r="B212" s="14" t="s">
+        <v>255</v>
       </c>
       <c r="H212" s="6"/>
       <c r="I212" s="6"/>
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A213" s="15">
+      <c r="A213" s="14">
         <v>4</v>
       </c>
-      <c r="B213" s="15" t="s">
+      <c r="B213" s="14" t="s">
         <v>184</v>
       </c>
       <c r="H213" s="6"/>
       <c r="I213" s="6"/>
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A214" s="15">
+      <c r="A214" s="14">
         <v>5</v>
       </c>
-      <c r="B214" s="15" t="s">
-        <v>257</v>
+      <c r="B214" s="14" t="s">
+        <v>256</v>
       </c>
       <c r="H214" s="6"/>
       <c r="I214" s="6"/>
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A215" s="15">
+      <c r="A215" s="14">
         <v>5</v>
       </c>
-      <c r="B215" s="15" t="s">
-        <v>258</v>
+      <c r="B215" s="14" t="s">
+        <v>257</v>
       </c>
       <c r="H215" s="6"/>
       <c r="I215" s="6"/>
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A216" s="15">
+      <c r="A216" s="14">
         <v>6</v>
       </c>
-      <c r="B216" s="15" t="s">
+      <c r="B216" s="14" t="s">
         <v>174</v>
       </c>
       <c r="H216" s="6"/>
       <c r="I216" s="6"/>
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A217" s="15">
+      <c r="A217" s="14">
         <v>6</v>
       </c>
-      <c r="B217" s="15" t="s">
-        <v>259</v>
+      <c r="B217" s="14" t="s">
+        <v>258</v>
       </c>
       <c r="H217" s="6"/>
       <c r="I217" s="6"/>
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A218" s="15">
+      <c r="A218" s="14">
         <v>7</v>
       </c>
-      <c r="B218" s="15" t="s">
+      <c r="B218" s="14" t="s">
         <v>166</v>
       </c>
       <c r="H218" s="6"/>
       <c r="I218" s="6"/>
     </row>
     <row r="219" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A219" s="15">
+      <c r="A219" s="14">
         <v>7</v>
       </c>
-      <c r="B219" s="15" t="s">
+      <c r="B219" s="14" t="s">
         <v>204</v>
       </c>
       <c r="H219" s="6"/>
       <c r="I219" s="6"/>
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A220" s="15">
+      <c r="A220" s="14">
         <v>8</v>
       </c>
-      <c r="B220" s="15" t="s">
+      <c r="B220" s="14" t="s">
         <v>172</v>
       </c>
       <c r="H220" s="6"/>
       <c r="I220" s="6"/>
     </row>
     <row r="221" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A221" s="15">
+      <c r="A221" s="14">
         <v>8</v>
       </c>
-      <c r="B221" s="15" t="s">
+      <c r="B221" s="14" t="s">
         <v>193</v>
       </c>
       <c r="H221" s="6"/>
       <c r="I221" s="6"/>
     </row>
     <row r="222" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A222" s="15">
+      <c r="A222" s="14">
         <v>9</v>
       </c>
-      <c r="B222" s="15" t="s">
+      <c r="B222" s="14" t="s">
         <v>169</v>
       </c>
       <c r="H222" s="6"/>
       <c r="I222" s="6"/>
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A223" s="15">
+      <c r="A223" s="14">
         <v>9</v>
       </c>
-      <c r="B223" s="15" t="s">
+      <c r="B223" s="14" t="s">
         <v>185</v>
       </c>
       <c r="H223" s="6"/>
       <c r="I223" s="6"/>
     </row>
     <row r="224" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A224" s="15">
+      <c r="A224" s="14">
         <v>10</v>
       </c>
-      <c r="B224" s="15" t="s">
+      <c r="B224" s="14" t="s">
         <v>171</v>
       </c>
       <c r="H224" s="6"/>
       <c r="I224" s="6"/>
     </row>
     <row r="225" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A225" s="15">
+      <c r="A225" s="14">
         <v>10</v>
       </c>
-      <c r="B225" s="15" t="s">
+      <c r="B225" s="14" t="s">
         <v>188</v>
       </c>
       <c r="H225" s="6"/>
       <c r="I225" s="6"/>
     </row>
     <row r="226" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A226" s="15">
+      <c r="A226" s="14">
         <v>11</v>
       </c>
-      <c r="B226" s="15" t="s">
+      <c r="B226" s="14" t="s">
         <v>164</v>
       </c>
       <c r="H226" s="6"/>
       <c r="I226" s="6"/>
     </row>
     <row r="227" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A227" s="15">
+      <c r="A227" s="14">
         <v>11</v>
       </c>
-      <c r="B227" s="15" t="s">
-        <v>260</v>
+      <c r="B227" s="14" t="s">
+        <v>259</v>
       </c>
       <c r="H227" s="6"/>
       <c r="I227" s="6"/>
     </row>
     <row r="228" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A228" s="15">
+      <c r="A228" s="14">
         <v>12</v>
       </c>
-      <c r="B228" s="15" t="s">
-        <v>261</v>
+      <c r="B228" s="14" t="s">
+        <v>260</v>
       </c>
       <c r="H228" s="6"/>
       <c r="I228" s="6"/>
     </row>
     <row r="229" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A229" s="15">
+      <c r="A229" s="14">
         <v>12</v>
       </c>
-      <c r="B229" s="15" t="s">
+      <c r="B229" s="14" t="s">
         <v>183</v>
       </c>
       <c r="H229" s="6"/>
       <c r="I229" s="6"/>
     </row>
     <row r="230" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A230" s="15">
+      <c r="A230" s="14">
         <v>13</v>
       </c>
-      <c r="B230" s="15" t="s">
+      <c r="B230" s="14" t="s">
         <v>168</v>
       </c>
       <c r="H230" s="6"/>
       <c r="I230" s="6"/>
     </row>
     <row r="231" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A231" s="15">
+      <c r="A231" s="14">
         <v>13</v>
       </c>
-      <c r="B231" s="15" t="s">
+      <c r="B231" s="14" t="s">
         <v>186</v>
       </c>
       <c r="H231" s="6"/>
       <c r="I231" s="6"/>
     </row>
     <row r="232" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A232" s="15">
+      <c r="A232" s="14">
         <v>14</v>
       </c>
-      <c r="B232" s="15" t="s">
+      <c r="B232" s="14" t="s">
         <v>162</v>
       </c>
       <c r="H232" s="6"/>
       <c r="I232" s="6"/>
     </row>
     <row r="233" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A233" s="15">
+      <c r="A233" s="14">
         <v>14</v>
       </c>
-      <c r="B233" s="15" t="s">
+      <c r="B233" s="14" t="s">
         <v>187</v>
       </c>
       <c r="H233" s="6"/>
       <c r="I233" s="6"/>
     </row>
     <row r="234" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A234" s="15">
+      <c r="A234" s="14">
         <v>15</v>
       </c>
-      <c r="B234" s="15" t="s">
-        <v>262</v>
+      <c r="B234" s="14" t="s">
+        <v>261</v>
       </c>
       <c r="H234" s="6"/>
       <c r="I234" s="6"/>
     </row>
     <row r="235" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A235" s="15">
+      <c r="A235" s="14">
         <v>15</v>
       </c>
-      <c r="B235" s="15" t="s">
+      <c r="B235" s="14" t="s">
         <v>189</v>
       </c>
       <c r="H235" s="6"/>
       <c r="I235" s="6"/>
     </row>
     <row r="236" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A236" s="15">
+      <c r="A236" s="14">
         <v>16</v>
       </c>
-      <c r="B236" s="15" t="s">
-        <v>263</v>
+      <c r="B236" s="14" t="s">
+        <v>262</v>
       </c>
       <c r="H236" s="6"/>
       <c r="I236" s="6"/>
     </row>
     <row r="237" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A237" s="15">
+      <c r="A237" s="14">
         <v>16</v>
       </c>
-      <c r="B237" s="15" t="s">
-        <v>264</v>
+      <c r="B237" s="14" t="s">
+        <v>263</v>
       </c>
       <c r="H237" s="6"/>
       <c r="I237" s="6"/>
     </row>
     <row r="238" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A238" s="15">
+      <c r="A238" s="14">
         <v>17</v>
       </c>
-      <c r="B238" s="15" t="s">
-        <v>265</v>
+      <c r="B238" s="14" t="s">
+        <v>264</v>
       </c>
       <c r="H238" s="6"/>
       <c r="I238" s="6"/>
     </row>
     <row r="239" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A239" s="15">
+      <c r="A239" s="14">
         <v>17</v>
       </c>
-      <c r="B239" s="15" t="s">
+      <c r="B239" s="14" t="s">
         <v>191</v>
       </c>
       <c r="H239" s="6"/>
       <c r="I239" s="6"/>
     </row>
     <row r="240" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A240" s="15">
+      <c r="A240" s="14">
         <v>1</v>
       </c>
-      <c r="B240" s="15" t="s">
+      <c r="B240" s="14" t="s">
         <v>21</v>
       </c>
       <c r="H240" s="6"/>
       <c r="I240" s="6"/>
     </row>
     <row r="241" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A241" s="15">
+      <c r="A241" s="14">
         <v>1</v>
       </c>
-      <c r="B241" s="15" t="s">
+      <c r="B241" s="14" t="s">
         <v>93</v>
       </c>
       <c r="H241" s="6"/>
       <c r="I241" s="6"/>
     </row>
     <row r="242" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A242" s="15">
+      <c r="A242" s="14">
         <v>2</v>
       </c>
-      <c r="B242" s="15" t="s">
+      <c r="B242" s="14" t="s">
         <v>19</v>
       </c>
       <c r="H242" s="6"/>
       <c r="I242" s="6"/>
     </row>
     <row r="243" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A243" s="15">
+      <c r="A243" s="14">
         <v>2</v>
       </c>
-      <c r="B243" s="15" t="s">
-        <v>266</v>
+      <c r="B243" s="14" t="s">
+        <v>265</v>
       </c>
       <c r="H243" s="6"/>
       <c r="I243" s="6"/>
     </row>
     <row r="244" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A244" s="15">
+      <c r="A244" s="14">
         <v>3</v>
       </c>
-      <c r="B244" s="15" t="s">
+      <c r="B244" s="14" t="s">
         <v>23</v>
       </c>
       <c r="H244" s="6"/>
       <c r="I244" s="6"/>
     </row>
     <row r="245" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A245" s="15">
+      <c r="A245" s="14">
         <v>3</v>
       </c>
-      <c r="B245" s="15" t="s">
+      <c r="B245" s="14" t="s">
         <v>86</v>
       </c>
       <c r="H245" s="6"/>
       <c r="I245" s="6"/>
     </row>
     <row r="246" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A246" s="15">
+      <c r="A246" s="14">
         <v>4</v>
       </c>
-      <c r="B246" s="15" t="s">
+      <c r="B246" s="14" t="s">
         <v>12</v>
       </c>
       <c r="H246" s="6"/>
       <c r="I246" s="6"/>
     </row>
     <row r="247" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A247" s="15">
+      <c r="A247" s="14">
         <v>4</v>
       </c>
-      <c r="B247" s="15" t="s">
-        <v>267</v>
+      <c r="B247" s="14" t="s">
+        <v>266</v>
       </c>
       <c r="H247" s="6"/>
       <c r="I247" s="6"/>
     </row>
     <row r="248" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A248" s="15">
+      <c r="A248" s="14">
         <v>5</v>
       </c>
-      <c r="B248" s="15" t="s">
+      <c r="B248" s="14" t="s">
         <v>11</v>
       </c>
       <c r="H248" s="6"/>
       <c r="I248" s="6"/>
     </row>
     <row r="249" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A249" s="15">
+      <c r="A249" s="14">
         <v>5</v>
       </c>
-      <c r="B249" s="15" t="s">
+      <c r="B249" s="14" t="s">
         <v>101</v>
       </c>
       <c r="H249" s="6"/>
       <c r="I249" s="6"/>
     </row>
     <row r="250" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A250" s="15">
+      <c r="A250" s="14">
         <v>6</v>
       </c>
-      <c r="B250" s="15" t="s">
-        <v>268</v>
+      <c r="B250" s="14" t="s">
+        <v>267</v>
       </c>
       <c r="H250" s="6"/>
       <c r="I250" s="6"/>
     </row>
     <row r="251" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A251" s="15">
+      <c r="A251" s="14">
         <v>6</v>
       </c>
-      <c r="B251" s="15" t="s">
+      <c r="B251" s="14" t="s">
         <v>98</v>
       </c>
       <c r="H251" s="6"/>
       <c r="I251" s="6"/>
     </row>
     <row r="252" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A252" s="15">
+      <c r="A252" s="14">
         <v>7</v>
       </c>
-      <c r="B252" s="15" t="s">
+      <c r="B252" s="14" t="s">
         <v>17</v>
       </c>
       <c r="H252" s="6"/>
       <c r="I252" s="6"/>
     </row>
     <row r="253" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A253" s="15">
+      <c r="A253" s="14">
         <v>7</v>
       </c>
-      <c r="B253" s="15" t="s">
+      <c r="B253" s="14" t="s">
         <v>103</v>
       </c>
       <c r="H253" s="6"/>
       <c r="I253" s="6"/>
     </row>
     <row r="254" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A254" s="15">
+      <c r="A254" s="14">
         <v>8</v>
       </c>
-      <c r="B254" s="15" t="s">
+      <c r="B254" s="14" t="s">
         <v>28</v>
       </c>
       <c r="H254" s="6"/>
       <c r="I254" s="6"/>
-      <c r="AO254" s="9"/>
+      <c r="AO254" s="8"/>
     </row>
     <row r="255" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A255" s="15">
+      <c r="A255" s="14">
         <v>8</v>
       </c>
-      <c r="B255" s="15" t="s">
+      <c r="B255" s="14" t="s">
         <v>96</v>
       </c>
       <c r="H255" s="6"/>
       <c r="I255" s="6"/>
     </row>
     <row r="256" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A256" s="15">
+      <c r="A256" s="14">
         <v>9</v>
       </c>
-      <c r="B256" s="15" t="s">
+      <c r="B256" s="14" t="s">
         <v>15</v>
       </c>
       <c r="H256" s="6"/>
       <c r="I256" s="6"/>
     </row>
     <row r="257" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A257" s="15">
+      <c r="A257" s="14">
         <v>9</v>
       </c>
-      <c r="B257" s="15" t="s">
+      <c r="B257" s="14" t="s">
         <v>208</v>
       </c>
       <c r="H257" s="6"/>
       <c r="I257" s="6"/>
     </row>
     <row r="258" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A258" s="15">
+      <c r="A258" s="14">
         <v>10</v>
       </c>
-      <c r="B258" s="15" t="s">
+      <c r="B258" s="14" t="s">
         <v>24</v>
       </c>
       <c r="H258" s="6"/>
       <c r="I258" s="6"/>
     </row>
     <row r="259" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A259" s="15">
+      <c r="A259" s="14">
         <v>10</v>
       </c>
-      <c r="B259" s="15" t="s">
+      <c r="B259" s="14" t="s">
         <v>88</v>
       </c>
       <c r="H259" s="6"/>
       <c r="I259" s="6"/>
     </row>
     <row r="260" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A260" s="15">
+      <c r="A260" s="14">
         <v>11</v>
       </c>
-      <c r="B260" s="15" t="s">
+      <c r="B260" s="14" t="s">
         <v>34</v>
       </c>
       <c r="H260" s="6"/>
       <c r="I260" s="6"/>
     </row>
     <row r="261" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A261" s="15">
+      <c r="A261" s="14">
         <v>11</v>
       </c>
-      <c r="B261" s="15" t="s">
+      <c r="B261" s="14" t="s">
         <v>99</v>
       </c>
       <c r="H261" s="6"/>
       <c r="I261" s="6"/>
     </row>
     <row r="262" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A262" s="15">
+      <c r="A262" s="14">
         <v>12</v>
       </c>
-      <c r="B262" s="15" t="s">
+      <c r="B262" s="14" t="s">
         <v>180</v>
       </c>
       <c r="H262" s="6"/>
       <c r="I262" s="6"/>
     </row>
     <row r="263" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A263" s="15">
+      <c r="A263" s="14">
         <v>12</v>
       </c>
-      <c r="B263" s="15" t="s">
+      <c r="B263" s="14" t="s">
         <v>92</v>
       </c>
       <c r="H263" s="6"/>
       <c r="I263" s="6"/>
     </row>
     <row r="264" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A264" s="15">
+      <c r="A264" s="14">
         <v>13</v>
       </c>
-      <c r="B264" s="15" t="s">
+      <c r="B264" s="14" t="s">
         <v>26</v>
       </c>
       <c r="H264" s="6"/>
       <c r="I264" s="6"/>
     </row>
     <row r="265" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A265" s="15">
+      <c r="A265" s="14">
         <v>13</v>
       </c>
-      <c r="B265" s="15" t="s">
+      <c r="B265" s="14" t="s">
         <v>83</v>
       </c>
       <c r="H265" s="6"/>
       <c r="I265" s="6"/>
     </row>
     <row r="266" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A266" s="15">
+      <c r="A266" s="14">
         <v>14</v>
       </c>
-      <c r="B266" s="15" t="s">
-        <v>269</v>
+      <c r="B266" s="14" t="s">
+        <v>268</v>
       </c>
       <c r="H266" s="6"/>
       <c r="I266" s="6"/>
     </row>
     <row r="267" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A267" s="15">
+      <c r="A267" s="14">
         <v>14</v>
       </c>
-      <c r="B267" s="15" t="s">
+      <c r="B267" s="14" t="s">
         <v>104</v>
       </c>
       <c r="H267" s="6"/>
       <c r="I267" s="6"/>
     </row>
     <row r="268" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A268" s="15">
+      <c r="A268" s="14">
         <v>15</v>
       </c>
-      <c r="B268" s="15" t="s">
+      <c r="B268" s="14" t="s">
         <v>205</v>
       </c>
       <c r="H268" s="6"/>
       <c r="I268" s="6"/>
     </row>
     <row r="269" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A269" s="15">
+      <c r="A269" s="14">
         <v>15</v>
       </c>
-      <c r="B269" s="15" t="s">
+      <c r="B269" s="14" t="s">
         <v>209</v>
       </c>
       <c r="H269" s="6"/>
       <c r="I269" s="6"/>
     </row>
     <row r="270" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A270" s="15">
+      <c r="A270" s="14">
         <v>16</v>
       </c>
-      <c r="B270" s="15" t="s">
-        <v>270</v>
+      <c r="B270" s="14" t="s">
+        <v>269</v>
       </c>
       <c r="H270" s="6"/>
       <c r="I270" s="6"/>
     </row>
     <row r="271" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A271" s="15">
+      <c r="A271" s="14">
         <v>16</v>
       </c>
-      <c r="B271" s="15" t="s">
+      <c r="B271" s="14" t="s">
         <v>102</v>
       </c>
       <c r="H271" s="6"/>
       <c r="I271" s="6"/>
     </row>
     <row r="272" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A272" s="15">
+      <c r="A272" s="14">
         <v>17</v>
       </c>
-      <c r="B272" s="15" t="s">
+      <c r="B272" s="14" t="s">
         <v>33</v>
       </c>
       <c r="H272" s="6"/>
       <c r="I272" s="6"/>
     </row>
     <row r="273" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A273" s="15">
+      <c r="A273" s="14">
         <v>17</v>
       </c>
-      <c r="B273" s="15" t="s">
-        <v>271</v>
-      </c>
-      <c r="H273" s="10"/>
+      <c r="B273" s="14" t="s">
+        <v>270</v>
+      </c>
+      <c r="H273" s="9"/>
       <c r="AN273" s="2"/>
     </row>
     <row r="274" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="H274" s="10"/>
+      <c r="H274" s="9"/>
       <c r="AN274" s="2"/>
     </row>
     <row r="275" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="H275" s="10"/>
+      <c r="H275" s="9"/>
       <c r="AN275" s="2"/>
     </row>
     <row r="276" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="H276" s="10"/>
+      <c r="H276" s="9"/>
       <c r="AN276" s="2"/>
     </row>
     <row r="277" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="H277" s="10"/>
+      <c r="H277" s="9"/>
       <c r="AN277" s="2"/>
     </row>
     <row r="278" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="H278" s="10"/>
+      <c r="H278" s="9"/>
       <c r="AN278" s="2"/>
     </row>
     <row r="279" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="H279" s="10"/>
+      <c r="H279" s="9"/>
       <c r="AN279" s="2"/>
     </row>
     <row r="280" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="H280" s="10"/>
+      <c r="H280" s="9"/>
       <c r="AN280" s="2"/>
     </row>
     <row r="281" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="H281" s="10"/>
+      <c r="H281" s="9"/>
       <c r="AN281" s="2"/>
     </row>
     <row r="282" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="H282" s="10"/>
+      <c r="H282" s="9"/>
       <c r="AN282" s="2"/>
     </row>
     <row r="283" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="H283" s="10"/>
+      <c r="H283" s="9"/>
       <c r="AN283" s="2"/>
     </row>
     <row r="284" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="H284" s="10"/>
+      <c r="H284" s="9"/>
       <c r="AN284" s="2"/>
     </row>
     <row r="285" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="H285" s="10"/>
+      <c r="H285" s="9"/>
       <c r="AN285" s="2"/>
     </row>
     <row r="286" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="H286" s="10"/>
+      <c r="H286" s="9"/>
       <c r="AN286" s="2"/>
     </row>
     <row r="287" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="H287" s="10"/>
+      <c r="H287" s="9"/>
       <c r="AN287" s="2"/>
     </row>
     <row r="288" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="H288" s="10"/>
+      <c r="H288" s="9"/>
       <c r="AN288" s="2"/>
     </row>
     <row r="289" spans="8:40" x14ac:dyDescent="0.2">
-      <c r="H289" s="10"/>
+      <c r="H289" s="9"/>
       <c r="AN289" s="2"/>
     </row>
     <row r="290" spans="8:40" x14ac:dyDescent="0.2">
-      <c r="H290" s="10"/>
+      <c r="H290" s="9"/>
       <c r="AN290" s="2"/>
     </row>
     <row r="291" spans="8:40" x14ac:dyDescent="0.2">
-      <c r="H291" s="10"/>
+      <c r="H291" s="9"/>
       <c r="AN291" s="2"/>
     </row>
     <row r="292" spans="8:40" x14ac:dyDescent="0.2">
-      <c r="H292" s="10"/>
+      <c r="H292" s="9"/>
       <c r="AN292" s="2"/>
     </row>
     <row r="293" spans="8:40" x14ac:dyDescent="0.2">
-      <c r="H293" s="10"/>
+      <c r="H293" s="9"/>
       <c r="AN293" s="2"/>
     </row>
     <row r="294" spans="8:40" x14ac:dyDescent="0.2">
-      <c r="H294" s="10"/>
+      <c r="H294" s="9"/>
       <c r="AN294" s="2"/>
     </row>
     <row r="295" spans="8:40" x14ac:dyDescent="0.2">
-      <c r="H295" s="10"/>
+      <c r="H295" s="9"/>
       <c r="AN295" s="2"/>
     </row>
     <row r="296" spans="8:40" x14ac:dyDescent="0.2">
-      <c r="H296" s="10"/>
+      <c r="H296" s="9"/>
       <c r="AN296" s="2"/>
     </row>
     <row r="297" spans="8:40" x14ac:dyDescent="0.2">
-      <c r="H297" s="10"/>
+      <c r="H297" s="9"/>
       <c r="AN297" s="2"/>
     </row>
     <row r="298" spans="8:40" x14ac:dyDescent="0.2">
-      <c r="H298" s="10"/>
+      <c r="H298" s="9"/>
       <c r="AN298" s="2"/>
     </row>
     <row r="299" spans="8:40" x14ac:dyDescent="0.2">
-      <c r="H299" s="10"/>
+      <c r="H299" s="9"/>
       <c r="AN299" s="2"/>
     </row>
     <row r="300" spans="8:40" x14ac:dyDescent="0.2">
-      <c r="H300" s="10"/>
+      <c r="H300" s="9"/>
       <c r="AN300" s="2"/>
     </row>
     <row r="301" spans="8:40" x14ac:dyDescent="0.2">
-      <c r="H301" s="10"/>
+      <c r="H301" s="9"/>
       <c r="AN301" s="2"/>
     </row>
     <row r="302" spans="8:40" x14ac:dyDescent="0.2">
-      <c r="H302" s="10"/>
+      <c r="H302" s="9"/>
       <c r="AN302" s="2"/>
     </row>
     <row r="303" spans="8:40" x14ac:dyDescent="0.2">
-      <c r="H303" s="10"/>
+      <c r="H303" s="9"/>
       <c r="AN303" s="2"/>
     </row>
     <row r="304" spans="8:40" x14ac:dyDescent="0.2">
-      <c r="H304" s="10"/>
+      <c r="H304" s="9"/>
       <c r="AN304" s="2"/>
     </row>
     <row r="305" spans="8:40" x14ac:dyDescent="0.2">
-      <c r="H305" s="10"/>
+      <c r="H305" s="9"/>
       <c r="AN305" s="2"/>
     </row>
     <row r="306" spans="8:40" x14ac:dyDescent="0.2">
-      <c r="H306" s="10"/>
+      <c r="H306" s="9"/>
       <c r="AN306" s="2"/>
     </row>
     <row r="307" spans="8:40" x14ac:dyDescent="0.2">
-      <c r="H307" s="10"/>
+      <c r="H307" s="9"/>
       <c r="AN307" s="2"/>
     </row>
     <row r="308" spans="8:40" x14ac:dyDescent="0.2">
-      <c r="H308" s="10"/>
+      <c r="H308" s="9"/>
       <c r="AN308" s="2"/>
     </row>
     <row r="309" spans="8:40" x14ac:dyDescent="0.2">
-      <c r="H309" s="10"/>
+      <c r="H309" s="9"/>
       <c r="AN309" s="2"/>
     </row>
     <row r="310" spans="8:40" x14ac:dyDescent="0.2">
-      <c r="H310" s="10"/>
+      <c r="H310" s="9"/>
       <c r="AN310" s="2"/>
     </row>
     <row r="311" spans="8:40" x14ac:dyDescent="0.2">
-      <c r="H311" s="10"/>
+      <c r="H311" s="9"/>
       <c r="AN311" s="2"/>
     </row>
     <row r="312" spans="8:40" x14ac:dyDescent="0.2">
-      <c r="H312" s="10"/>
+      <c r="H312" s="9"/>
       <c r="AN312" s="2"/>
     </row>
     <row r="313" spans="8:40" x14ac:dyDescent="0.2">
-      <c r="H313" s="10"/>
+      <c r="H313" s="9"/>
       <c r="AN313" s="2"/>
     </row>
     <row r="314" spans="8:40" x14ac:dyDescent="0.2">
-      <c r="H314" s="10"/>
+      <c r="H314" s="9"/>
       <c r="AN314" s="2"/>
     </row>
     <row r="315" spans="8:40" x14ac:dyDescent="0.2">
-      <c r="H315" s="10"/>
+      <c r="H315" s="9"/>
       <c r="AN315" s="2"/>
     </row>
     <row r="316" spans="8:40" x14ac:dyDescent="0.2">
-      <c r="H316" s="10"/>
+      <c r="H316" s="9"/>
       <c r="AN316" s="2"/>
     </row>
     <row r="317" spans="8:40" x14ac:dyDescent="0.2">
-      <c r="H317" s="10"/>
+      <c r="H317" s="9"/>
       <c r="AN317" s="2"/>
     </row>
     <row r="318" spans="8:40" x14ac:dyDescent="0.2">
-      <c r="H318" s="10"/>
+      <c r="H318" s="9"/>
       <c r="AN318" s="2"/>
     </row>
     <row r="319" spans="8:40" x14ac:dyDescent="0.2">
-      <c r="H319" s="10"/>
+      <c r="H319" s="9"/>
       <c r="AN319" s="2"/>
     </row>
     <row r="320" spans="8:40" x14ac:dyDescent="0.2">
-      <c r="H320" s="10"/>
+      <c r="H320" s="9"/>
       <c r="AN320" s="2"/>
     </row>
     <row r="321" spans="8:40" x14ac:dyDescent="0.2">
-      <c r="H321" s="10"/>
+      <c r="H321" s="9"/>
       <c r="AN321" s="2"/>
     </row>
     <row r="322" spans="8:40" x14ac:dyDescent="0.2">
-      <c r="H322" s="10"/>
+      <c r="H322" s="9"/>
       <c r="AN322" s="2"/>
     </row>
     <row r="323" spans="8:40" x14ac:dyDescent="0.2">
-      <c r="H323" s="10"/>
+      <c r="H323" s="9"/>
       <c r="AN323" s="2"/>
     </row>
     <row r="324" spans="8:40" x14ac:dyDescent="0.2">
-      <c r="H324" s="10"/>
+      <c r="H324" s="9"/>
       <c r="AN324" s="2"/>
     </row>
     <row r="325" spans="8:40" x14ac:dyDescent="0.2">
-      <c r="H325" s="10"/>
+      <c r="H325" s="9"/>
       <c r="AN325" s="2"/>
     </row>
     <row r="326" spans="8:40" x14ac:dyDescent="0.2">
-      <c r="H326" s="10"/>
+      <c r="H326" s="9"/>
       <c r="AN326" s="2"/>
     </row>
     <row r="327" spans="8:40" x14ac:dyDescent="0.2">
-      <c r="H327" s="10"/>
+      <c r="H327" s="9"/>
       <c r="AN327" s="2"/>
     </row>
     <row r="328" spans="8:40" x14ac:dyDescent="0.2">
-      <c r="H328" s="10"/>
+      <c r="H328" s="9"/>
       <c r="AN328" s="2"/>
     </row>
     <row r="329" spans="8:40" x14ac:dyDescent="0.2">
-      <c r="H329" s="10"/>
+      <c r="H329" s="9"/>
       <c r="AN329" s="2"/>
     </row>
     <row r="330" spans="8:40" x14ac:dyDescent="0.2">
-      <c r="H330" s="10"/>
+      <c r="H330" s="9"/>
       <c r="AN330" s="2"/>
     </row>
     <row r="331" spans="8:40" x14ac:dyDescent="0.2">
-      <c r="H331" s="10"/>
+      <c r="H331" s="9"/>
       <c r="AN331" s="2"/>
     </row>
     <row r="332" spans="8:40" x14ac:dyDescent="0.2">
-      <c r="H332" s="10"/>
+      <c r="H332" s="9"/>
       <c r="AN332" s="2"/>
     </row>
     <row r="333" spans="8:40" x14ac:dyDescent="0.2">
-      <c r="H333" s="10"/>
+      <c r="H333" s="9"/>
       <c r="AN333" s="2"/>
     </row>
     <row r="334" spans="8:40" x14ac:dyDescent="0.2">
-      <c r="H334" s="10"/>
+      <c r="H334" s="9"/>
       <c r="AN334" s="2"/>
     </row>
     <row r="335" spans="8:40" x14ac:dyDescent="0.2">
-      <c r="H335" s="10"/>
+      <c r="H335" s="9"/>
       <c r="AN335" s="2"/>
     </row>
     <row r="336" spans="8:40" x14ac:dyDescent="0.2">
-      <c r="H336" s="10"/>
+      <c r="H336" s="9"/>
       <c r="AN336" s="2"/>
     </row>
     <row r="337" spans="8:40" x14ac:dyDescent="0.2">
-      <c r="H337" s="10"/>
+      <c r="H337" s="9"/>
       <c r="AN337" s="2"/>
     </row>
     <row r="338" spans="8:40" x14ac:dyDescent="0.2">
-      <c r="H338" s="10"/>
+      <c r="H338" s="9"/>
       <c r="AN338" s="2"/>
     </row>
     <row r="339" spans="8:40" x14ac:dyDescent="0.2">
-      <c r="H339" s="10"/>
+      <c r="H339" s="9"/>
       <c r="AN339" s="2"/>
     </row>
     <row r="340" spans="8:40" x14ac:dyDescent="0.2">
-      <c r="H340" s="10"/>
+      <c r="H340" s="9"/>
       <c r="AN340" s="2"/>
     </row>
     <row r="341" spans="8:40" x14ac:dyDescent="0.2">
-      <c r="H341" s="10"/>
+      <c r="H341" s="9"/>
       <c r="AN341" s="2"/>
     </row>
     <row r="342" spans="8:40" x14ac:dyDescent="0.2">
-      <c r="H342" s="10"/>
+      <c r="H342" s="9"/>
       <c r="AN342" s="2"/>
     </row>
     <row r="343" spans="8:40" x14ac:dyDescent="0.2">
-      <c r="H343" s="10"/>
+      <c r="H343" s="9"/>
       <c r="AN343" s="2"/>
     </row>
     <row r="344" spans="8:40" x14ac:dyDescent="0.2">
-      <c r="H344" s="10"/>
+      <c r="H344" s="9"/>
       <c r="AN344" s="2"/>
     </row>
     <row r="345" spans="8:40" x14ac:dyDescent="0.2">
-      <c r="H345" s="10"/>
+      <c r="H345" s="9"/>
       <c r="AN345" s="2"/>
     </row>
     <row r="346" spans="8:40" x14ac:dyDescent="0.2">
-      <c r="H346" s="10"/>
+      <c r="H346" s="9"/>
       <c r="AN346" s="2"/>
     </row>
     <row r="347" spans="8:40" x14ac:dyDescent="0.2">
-      <c r="H347" s="10"/>
+      <c r="H347" s="9"/>
       <c r="AN347" s="2"/>
     </row>
     <row r="348" spans="8:40" x14ac:dyDescent="0.2">
-      <c r="H348" s="10"/>
+      <c r="H348" s="9"/>
       <c r="AN348" s="2"/>
     </row>
     <row r="349" spans="8:40" x14ac:dyDescent="0.2">
-      <c r="H349" s="10"/>
+      <c r="H349" s="9"/>
       <c r="AN349" s="2"/>
     </row>
     <row r="350" spans="8:40" x14ac:dyDescent="0.2">
-      <c r="H350" s="10"/>
+      <c r="H350" s="9"/>
       <c r="AN350" s="2"/>
     </row>
     <row r="351" spans="8:40" x14ac:dyDescent="0.2">
-      <c r="H351" s="10"/>
+      <c r="H351" s="9"/>
       <c r="AN351" s="2"/>
     </row>
     <row r="352" spans="8:40" x14ac:dyDescent="0.2">
-      <c r="H352" s="10"/>
+      <c r="H352" s="9"/>
       <c r="AN352" s="2"/>
     </row>
     <row r="353" spans="8:40" x14ac:dyDescent="0.2">
-      <c r="H353" s="10"/>
+      <c r="H353" s="9"/>
       <c r="AN353" s="2"/>
     </row>
     <row r="354" spans="8:40" x14ac:dyDescent="0.2">
-      <c r="H354" s="10"/>
+      <c r="H354" s="9"/>
       <c r="AN354" s="2"/>
     </row>
     <row r="355" spans="8:40" x14ac:dyDescent="0.2">
-      <c r="H355" s="10"/>
+      <c r="H355" s="9"/>
       <c r="AN355" s="2"/>
     </row>
     <row r="356" spans="8:40" x14ac:dyDescent="0.2">
-      <c r="H356" s="10"/>
+      <c r="H356" s="9"/>
       <c r="AN356" s="2"/>
     </row>
     <row r="357" spans="8:40" x14ac:dyDescent="0.2">
-      <c r="H357" s="10"/>
+      <c r="H357" s="9"/>
       <c r="AN357" s="2"/>
     </row>
     <row r="358" spans="8:40" x14ac:dyDescent="0.2">
-      <c r="H358" s="10"/>
+      <c r="H358" s="9"/>
       <c r="AN358" s="2"/>
     </row>
     <row r="359" spans="8:40" x14ac:dyDescent="0.2">
-      <c r="H359" s="10"/>
+      <c r="H359" s="9"/>
       <c r="AN359" s="2"/>
     </row>
     <row r="360" spans="8:40" x14ac:dyDescent="0.2">
-      <c r="H360" s="10"/>
+      <c r="H360" s="9"/>
       <c r="AN360" s="2"/>
     </row>
     <row r="361" spans="8:40" x14ac:dyDescent="0.2">
-      <c r="H361" s="10"/>
+      <c r="H361" s="9"/>
       <c r="AN361" s="2"/>
     </row>
     <row r="362" spans="8:40" x14ac:dyDescent="0.2">
-      <c r="H362" s="10"/>
+      <c r="H362" s="9"/>
       <c r="AN362" s="2"/>
     </row>
     <row r="363" spans="8:40" x14ac:dyDescent="0.2">
-      <c r="H363" s="10"/>
+      <c r="H363" s="9"/>
       <c r="AN363" s="2"/>
     </row>
     <row r="364" spans="8:40" x14ac:dyDescent="0.2">
-      <c r="H364" s="10"/>
+      <c r="H364" s="9"/>
       <c r="AN364" s="2"/>
     </row>
     <row r="365" spans="8:40" x14ac:dyDescent="0.2">
-      <c r="H365" s="10"/>
+      <c r="H365" s="9"/>
       <c r="AN365" s="2"/>
     </row>
     <row r="366" spans="8:40" x14ac:dyDescent="0.2">
-      <c r="H366" s="10"/>
+      <c r="H366" s="9"/>
       <c r="AN366" s="2"/>
     </row>
     <row r="367" spans="8:40" x14ac:dyDescent="0.2">
-      <c r="H367" s="10"/>
+      <c r="H367" s="9"/>
       <c r="AN367" s="2"/>
     </row>
     <row r="368" spans="8:40" x14ac:dyDescent="0.2">
-      <c r="H368" s="10"/>
+      <c r="H368" s="9"/>
       <c r="AN368" s="2"/>
     </row>
     <row r="369" spans="8:40" x14ac:dyDescent="0.2">
-      <c r="H369" s="10"/>
+      <c r="H369" s="9"/>
       <c r="AN369" s="2"/>
     </row>
     <row r="370" spans="8:40" x14ac:dyDescent="0.2">
-      <c r="H370" s="10"/>
+      <c r="H370" s="9"/>
       <c r="AN370" s="2"/>
     </row>
     <row r="371" spans="8:40" x14ac:dyDescent="0.2">
-      <c r="H371" s="10"/>
+      <c r="H371" s="9"/>
       <c r="AN371" s="2"/>
     </row>
     <row r="372" spans="8:40" x14ac:dyDescent="0.2">
-      <c r="H372" s="10"/>
+      <c r="H372" s="9"/>
       <c r="AN372" s="2"/>
     </row>
     <row r="373" spans="8:40" x14ac:dyDescent="0.2">
-      <c r="H373" s="10"/>
+      <c r="H373" s="9"/>
       <c r="AN373" s="2"/>
     </row>
     <row r="374" spans="8:40" x14ac:dyDescent="0.2">
-      <c r="H374" s="10"/>
+      <c r="H374" s="9"/>
       <c r="AN374" s="2"/>
     </row>
     <row r="375" spans="8:40" x14ac:dyDescent="0.2">
-      <c r="H375" s="10"/>
+      <c r="H375" s="9"/>
       <c r="AN375" s="2"/>
     </row>
     <row r="376" spans="8:40" x14ac:dyDescent="0.2">
-      <c r="H376" s="10"/>
+      <c r="H376" s="9"/>
       <c r="AN376" s="2"/>
     </row>
     <row r="377" spans="8:40" x14ac:dyDescent="0.2">
-      <c r="H377" s="10"/>
+      <c r="H377" s="9"/>
       <c r="AN377" s="2"/>
     </row>
     <row r="378" spans="8:40" x14ac:dyDescent="0.2">
-      <c r="H378" s="10"/>
+      <c r="H378" s="9"/>
       <c r="AN378" s="2"/>
     </row>
     <row r="379" spans="8:40" x14ac:dyDescent="0.2">
-      <c r="H379" s="10"/>
+      <c r="H379" s="9"/>
       <c r="AN379" s="2"/>
     </row>
     <row r="380" spans="8:40" x14ac:dyDescent="0.2">
-      <c r="H380" s="10"/>
+      <c r="H380" s="9"/>
       <c r="AN380" s="2"/>
     </row>
     <row r="381" spans="8:40" x14ac:dyDescent="0.2">
-      <c r="H381" s="10"/>
+      <c r="H381" s="9"/>
       <c r="AN381" s="2"/>
     </row>
     <row r="382" spans="8:40" x14ac:dyDescent="0.2">
-      <c r="H382" s="10"/>
+      <c r="H382" s="9"/>
       <c r="AN382" s="2"/>
     </row>
     <row r="383" spans="8:40" x14ac:dyDescent="0.2">
-      <c r="H383" s="10"/>
+      <c r="H383" s="9"/>
       <c r="AN383" s="2"/>
     </row>
     <row r="384" spans="8:40" x14ac:dyDescent="0.2">
-      <c r="H384" s="10"/>
+      <c r="H384" s="9"/>
       <c r="AN384" s="2"/>
     </row>
     <row r="385" spans="8:40" x14ac:dyDescent="0.2">
-      <c r="H385" s="10"/>
+      <c r="H385" s="9"/>
       <c r="AN385" s="2"/>
     </row>
     <row r="386" spans="8:40" x14ac:dyDescent="0.2">
-      <c r="H386" s="10"/>
+      <c r="H386" s="9"/>
       <c r="AN386" s="2"/>
     </row>
     <row r="387" spans="8:40" x14ac:dyDescent="0.2">
-      <c r="H387" s="10"/>
+      <c r="H387" s="9"/>
       <c r="AN387" s="2"/>
     </row>
     <row r="388" spans="8:40" x14ac:dyDescent="0.2">
-      <c r="H388" s="10"/>
+      <c r="H388" s="9"/>
       <c r="AN388" s="2"/>
     </row>
     <row r="389" spans="8:40" x14ac:dyDescent="0.2">
-      <c r="H389" s="10"/>
+      <c r="H389" s="9"/>
       <c r="AN389" s="2"/>
     </row>
     <row r="390" spans="8:40" x14ac:dyDescent="0.2">
-      <c r="H390" s="10"/>
+      <c r="H390" s="9"/>
       <c r="AN390" s="2"/>
     </row>
     <row r="391" spans="8:40" x14ac:dyDescent="0.2">
-      <c r="H391" s="10"/>
+      <c r="H391" s="9"/>
       <c r="AN391" s="2"/>
     </row>
     <row r="392" spans="8:40" x14ac:dyDescent="0.2">
-      <c r="H392" s="10"/>
+      <c r="H392" s="9"/>
       <c r="AN392" s="2"/>
     </row>
     <row r="393" spans="8:40" x14ac:dyDescent="0.2">
-      <c r="H393" s="10"/>
+      <c r="H393" s="9"/>
       <c r="AN393" s="2"/>
     </row>
     <row r="394" spans="8:40" x14ac:dyDescent="0.2">
-      <c r="H394" s="10"/>
+      <c r="H394" s="9"/>
       <c r="AN394" s="2"/>
     </row>
     <row r="395" spans="8:40" x14ac:dyDescent="0.2">
-      <c r="H395" s="10"/>
+      <c r="H395" s="9"/>
       <c r="AN395" s="2"/>
     </row>
     <row r="396" spans="8:40" x14ac:dyDescent="0.2">
-      <c r="H396" s="10"/>
+      <c r="H396" s="9"/>
       <c r="AN396" s="2"/>
     </row>
     <row r="397" spans="8:40" x14ac:dyDescent="0.2">
-      <c r="H397" s="10"/>
+      <c r="H397" s="9"/>
       <c r="AN397" s="2"/>
     </row>
     <row r="398" spans="8:40" x14ac:dyDescent="0.2">
-      <c r="H398" s="10"/>
+      <c r="H398" s="9"/>
       <c r="AN398" s="2"/>
     </row>
     <row r="399" spans="8:40" x14ac:dyDescent="0.2">
-      <c r="H399" s="10"/>
+      <c r="H399" s="9"/>
       <c r="AN399" s="2"/>
     </row>
     <row r="400" spans="8:40" x14ac:dyDescent="0.2">
-      <c r="H400" s="10"/>
+      <c r="H400" s="9"/>
       <c r="AN400" s="2"/>
     </row>
     <row r="401" spans="8:40" x14ac:dyDescent="0.2">
-      <c r="H401" s="10"/>
+      <c r="H401" s="9"/>
       <c r="AN401" s="2"/>
     </row>
     <row r="402" spans="8:40" x14ac:dyDescent="0.2">
-      <c r="H402" s="10"/>
+      <c r="H402" s="9"/>
       <c r="AN402" s="2"/>
     </row>
     <row r="403" spans="8:40" x14ac:dyDescent="0.2">
-      <c r="H403" s="10"/>
+      <c r="H403" s="9"/>
       <c r="AN403" s="2"/>
     </row>
     <row r="404" spans="8:40" x14ac:dyDescent="0.2">
-      <c r="H404" s="10"/>
+      <c r="H404" s="9"/>
       <c r="AN404" s="2"/>
     </row>
     <row r="405" spans="8:40" x14ac:dyDescent="0.2">
-      <c r="H405" s="10"/>
+      <c r="H405" s="9"/>
       <c r="AN405" s="2"/>
     </row>
     <row r="406" spans="8:40" x14ac:dyDescent="0.2">
-      <c r="H406" s="10"/>
+      <c r="H406" s="9"/>
       <c r="AN406" s="2"/>
     </row>
     <row r="407" spans="8:40" x14ac:dyDescent="0.2">
-      <c r="H407" s="10"/>
+      <c r="H407" s="9"/>
       <c r="AN407" s="2"/>
     </row>
     <row r="408" spans="8:40" x14ac:dyDescent="0.2">
-      <c r="H408" s="10"/>
+      <c r="H408" s="9"/>
       <c r="AN408" s="2"/>
     </row>
     <row r="409" spans="8:40" x14ac:dyDescent="0.2">
-      <c r="H409" s="10"/>
+      <c r="H409" s="9"/>
       <c r="AN409" s="2"/>
     </row>
     <row r="410" spans="8:40" x14ac:dyDescent="0.2">
-      <c r="H410" s="10"/>
+      <c r="H410" s="9"/>
       <c r="AN410" s="2"/>
     </row>
     <row r="411" spans="8:40" x14ac:dyDescent="0.2">
-      <c r="H411" s="10"/>
+      <c r="H411" s="9"/>
       <c r="AN411" s="2"/>
     </row>
     <row r="412" spans="8:40" x14ac:dyDescent="0.2">
-      <c r="H412" s="10"/>
+      <c r="H412" s="9"/>
       <c r="AN412" s="2"/>
     </row>
     <row r="413" spans="8:40" x14ac:dyDescent="0.2">
-      <c r="H413" s="10"/>
+      <c r="H413" s="9"/>
       <c r="AN413" s="2"/>
     </row>
     <row r="414" spans="8:40" x14ac:dyDescent="0.2">
-      <c r="H414" s="10"/>
+      <c r="H414" s="9"/>
       <c r="AN414" s="2"/>
     </row>
     <row r="415" spans="8:40" x14ac:dyDescent="0.2">
-      <c r="H415" s="10"/>
+      <c r="H415" s="9"/>
       <c r="AN415" s="2"/>
     </row>
     <row r="416" spans="8:40" x14ac:dyDescent="0.2">
-      <c r="H416" s="10"/>
+      <c r="H416" s="9"/>
       <c r="AN416" s="2"/>
     </row>
     <row r="417" spans="8:40" x14ac:dyDescent="0.2">
-      <c r="H417" s="10"/>
+      <c r="H417" s="9"/>
       <c r="AN417" s="2"/>
     </row>
     <row r="418" spans="8:40" x14ac:dyDescent="0.2">
-      <c r="H418" s="10"/>
+      <c r="H418" s="9"/>
       <c r="AN418" s="2"/>
     </row>
     <row r="419" spans="8:40" x14ac:dyDescent="0.2">
-      <c r="H419" s="10"/>
+      <c r="H419" s="9"/>
       <c r="AN419" s="2"/>
     </row>
     <row r="420" spans="8:40" x14ac:dyDescent="0.2">
-      <c r="H420" s="10"/>
+      <c r="H420" s="9"/>
       <c r="AN420" s="2"/>
     </row>
     <row r="421" spans="8:40" x14ac:dyDescent="0.2">
-      <c r="H421" s="10"/>
+      <c r="H421" s="9"/>
       <c r="AN421" s="2"/>
     </row>
     <row r="422" spans="8:40" x14ac:dyDescent="0.2">
-      <c r="H422" s="10"/>
+      <c r="H422" s="9"/>
       <c r="AN422" s="2"/>
     </row>
     <row r="423" spans="8:40" x14ac:dyDescent="0.2">
-      <c r="H423" s="10"/>
+      <c r="H423" s="9"/>
       <c r="AN423" s="2"/>
     </row>
     <row r="424" spans="8:40" x14ac:dyDescent="0.2">
-      <c r="H424" s="10"/>
+      <c r="H424" s="9"/>
       <c r="AN424" s="2"/>
     </row>
     <row r="425" spans="8:40" x14ac:dyDescent="0.2">
-      <c r="H425" s="10"/>
+      <c r="H425" s="9"/>
       <c r="AN425" s="2"/>
     </row>
     <row r="426" spans="8:40" x14ac:dyDescent="0.2">
-      <c r="H426" s="10"/>
+      <c r="H426" s="9"/>
       <c r="AN426" s="2"/>
     </row>
     <row r="427" spans="8:40" x14ac:dyDescent="0.2">
-      <c r="H427" s="10"/>
+      <c r="H427" s="9"/>
       <c r="AN427" s="2"/>
     </row>
     <row r="428" spans="8:40" x14ac:dyDescent="0.2">
-      <c r="H428" s="10"/>
+      <c r="H428" s="9"/>
       <c r="AN428" s="2"/>
     </row>
     <row r="429" spans="8:40" x14ac:dyDescent="0.2">
-      <c r="H429" s="10"/>
+      <c r="H429" s="9"/>
       <c r="AN429" s="2"/>
     </row>
     <row r="430" spans="8:40" x14ac:dyDescent="0.2">
-      <c r="H430" s="10"/>
+      <c r="H430" s="9"/>
       <c r="AN430" s="2"/>
     </row>
     <row r="431" spans="8:40" x14ac:dyDescent="0.2">
-      <c r="H431" s="10"/>
+      <c r="H431" s="9"/>
       <c r="AN431" s="2"/>
     </row>
     <row r="432" spans="8:40" x14ac:dyDescent="0.2">
-      <c r="H432" s="10"/>
+      <c r="H432" s="9"/>
       <c r="AN432" s="2"/>
     </row>
     <row r="433" spans="8:40" x14ac:dyDescent="0.2">
-      <c r="H433" s="10"/>
+      <c r="H433" s="9"/>
       <c r="AN433" s="2"/>
     </row>
     <row r="434" spans="8:40" x14ac:dyDescent="0.2">
-      <c r="H434" s="10"/>
+      <c r="H434" s="9"/>
       <c r="AN434" s="2"/>
     </row>
     <row r="435" spans="8:40" x14ac:dyDescent="0.2">
-      <c r="H435" s="10"/>
+      <c r="H435" s="9"/>
       <c r="AN435" s="2"/>
     </row>
     <row r="436" spans="8:40" x14ac:dyDescent="0.2">
-      <c r="H436" s="10"/>
+      <c r="H436" s="9"/>
       <c r="AN436" s="2"/>
     </row>
     <row r="437" spans="8:40" x14ac:dyDescent="0.2">
-      <c r="H437" s="10"/>
+      <c r="H437" s="9"/>
       <c r="AN437" s="2"/>
     </row>
     <row r="438" spans="8:40" x14ac:dyDescent="0.2">
-      <c r="H438" s="10"/>
+      <c r="H438" s="9"/>
       <c r="AN438" s="2"/>
     </row>
     <row r="439" spans="8:40" x14ac:dyDescent="0.2">
-      <c r="H439" s="10"/>
+      <c r="H439" s="9"/>
       <c r="AN439" s="2"/>
     </row>
     <row r="440" spans="8:40" x14ac:dyDescent="0.2">
-      <c r="H440" s="10"/>
+      <c r="H440" s="9"/>
       <c r="AN440" s="2"/>
     </row>
     <row r="441" spans="8:40" x14ac:dyDescent="0.2">
-      <c r="H441" s="10"/>
+      <c r="H441" s="9"/>
       <c r="AN441" s="2"/>
     </row>
     <row r="442" spans="8:40" x14ac:dyDescent="0.2">
-      <c r="H442" s="10"/>
+      <c r="H442" s="9"/>
       <c r="AN442" s="2"/>
     </row>
     <row r="443" spans="8:40" x14ac:dyDescent="0.2">
-      <c r="H443" s="10"/>
+      <c r="H443" s="9"/>
       <c r="AN443" s="2"/>
     </row>
     <row r="444" spans="8:40" x14ac:dyDescent="0.2">
-      <c r="H444" s="10"/>
+      <c r="H444" s="9"/>
       <c r="AN444" s="2"/>
     </row>
     <row r="445" spans="8:40" x14ac:dyDescent="0.2">
-      <c r="H445" s="10"/>
+      <c r="H445" s="9"/>
       <c r="AN445" s="2"/>
     </row>
     <row r="446" spans="8:40" x14ac:dyDescent="0.2">
-      <c r="H446" s="10"/>
+      <c r="H446" s="9"/>
       <c r="AN446" s="2"/>
     </row>
     <row r="447" spans="8:40" x14ac:dyDescent="0.2">
-      <c r="H447" s="10"/>
+      <c r="H447" s="9"/>
       <c r="AN447" s="2"/>
     </row>
     <row r="448" spans="8:40" x14ac:dyDescent="0.2">
-      <c r="H448" s="10"/>
+      <c r="H448" s="9"/>
       <c r="AN448" s="2"/>
     </row>
     <row r="449" spans="8:40" x14ac:dyDescent="0.2">
-      <c r="H449" s="10"/>
+      <c r="H449" s="9"/>
       <c r="AN449" s="2"/>
     </row>
     <row r="450" spans="8:40" x14ac:dyDescent="0.2">
-      <c r="H450" s="10"/>
+      <c r="H450" s="9"/>
       <c r="AN450" s="2"/>
     </row>
     <row r="451" spans="8:40" x14ac:dyDescent="0.2">
-      <c r="H451" s="10"/>
+      <c r="H451" s="9"/>
       <c r="AN451" s="2"/>
     </row>
     <row r="452" spans="8:40" x14ac:dyDescent="0.2">
-      <c r="H452" s="10"/>
+      <c r="H452" s="9"/>
       <c r="AN452" s="2"/>
     </row>
     <row r="453" spans="8:40" x14ac:dyDescent="0.2">
-      <c r="H453" s="10"/>
+      <c r="H453" s="9"/>
       <c r="AN453" s="2"/>
     </row>
     <row r="454" spans="8:40" x14ac:dyDescent="0.2">
-      <c r="H454" s="10"/>
+      <c r="H454" s="9"/>
       <c r="AN454" s="2"/>
     </row>
     <row r="455" spans="8:40" x14ac:dyDescent="0.2">
-      <c r="H455" s="10"/>
+      <c r="H455" s="9"/>
       <c r="AN455" s="2"/>
     </row>
     <row r="456" spans="8:40" x14ac:dyDescent="0.2">
-      <c r="H456" s="10"/>
+      <c r="H456" s="9"/>
       <c r="AN456" s="2"/>
     </row>
     <row r="457" spans="8:40" x14ac:dyDescent="0.2">
-      <c r="H457" s="10"/>
+      <c r="H457" s="9"/>
       <c r="AN457" s="2"/>
     </row>
     <row r="458" spans="8:40" x14ac:dyDescent="0.2">
-      <c r="H458" s="10"/>
+      <c r="H458" s="9"/>
       <c r="AN458" s="2"/>
     </row>
     <row r="459" spans="8:40" x14ac:dyDescent="0.2">
-      <c r="H459" s="10"/>
+      <c r="H459" s="9"/>
       <c r="AN459" s="2"/>
     </row>
     <row r="460" spans="8:40" x14ac:dyDescent="0.2">
-      <c r="H460" s="10"/>
+      <c r="H460" s="9"/>
       <c r="AN460" s="2"/>
     </row>
     <row r="461" spans="8:40" x14ac:dyDescent="0.2">
-      <c r="H461" s="10"/>
+      <c r="H461" s="9"/>
       <c r="AN461" s="2"/>
     </row>
     <row r="462" spans="8:40" x14ac:dyDescent="0.2">
-      <c r="H462" s="10"/>
+      <c r="H462" s="9"/>
       <c r="AN462" s="2"/>
     </row>
     <row r="463" spans="8:40" x14ac:dyDescent="0.2">
-      <c r="H463" s="10"/>
+      <c r="H463" s="9"/>
       <c r="AN463" s="2"/>
     </row>
     <row r="464" spans="8:40" x14ac:dyDescent="0.2">
-      <c r="H464" s="10"/>
+      <c r="H464" s="9"/>
       <c r="AN464" s="2"/>
     </row>
     <row r="465" spans="8:40" x14ac:dyDescent="0.2">
-      <c r="H465" s="10"/>
+      <c r="H465" s="9"/>
       <c r="AN465" s="2"/>
     </row>
     <row r="466" spans="8:40" x14ac:dyDescent="0.2">
-      <c r="H466" s="10"/>
+      <c r="H466" s="9"/>
       <c r="AN466" s="2"/>
     </row>
     <row r="467" spans="8:40" x14ac:dyDescent="0.2">
-      <c r="H467" s="10"/>
+      <c r="H467" s="9"/>
       <c r="AN467" s="2"/>
     </row>
     <row r="468" spans="8:40" x14ac:dyDescent="0.2">
-      <c r="H468" s="10"/>
+      <c r="H468" s="9"/>
       <c r="AN468" s="2"/>
     </row>
     <row r="469" spans="8:40" x14ac:dyDescent="0.2">
-      <c r="H469" s="10"/>
+      <c r="H469" s="9"/>
       <c r="AN469" s="2"/>
     </row>
     <row r="470" spans="8:40" x14ac:dyDescent="0.2">
-      <c r="H470" s="10"/>
+      <c r="H470" s="9"/>
       <c r="AN470" s="2"/>
     </row>
     <row r="471" spans="8:40" x14ac:dyDescent="0.2">
-      <c r="H471" s="10"/>
+      <c r="H471" s="9"/>
       <c r="AN471" s="2"/>
     </row>
     <row r="472" spans="8:40" x14ac:dyDescent="0.2">
-      <c r="H472" s="10"/>
+      <c r="H472" s="9"/>
       <c r="AN472" s="2"/>
     </row>
     <row r="473" spans="8:40" x14ac:dyDescent="0.2">
-      <c r="H473" s="10"/>
+      <c r="H473" s="9"/>
       <c r="AN473" s="2"/>
     </row>
     <row r="474" spans="8:40" x14ac:dyDescent="0.2">
-      <c r="H474" s="10"/>
+      <c r="H474" s="9"/>
       <c r="AN474" s="2"/>
     </row>
     <row r="475" spans="8:40" x14ac:dyDescent="0.2">
-      <c r="H475" s="10"/>
+      <c r="H475" s="9"/>
       <c r="AN475" s="2"/>
     </row>
     <row r="476" spans="8:40" x14ac:dyDescent="0.2">
-      <c r="H476" s="10"/>
+      <c r="H476" s="9"/>
       <c r="AN476" s="2"/>
     </row>
     <row r="477" spans="8:40" x14ac:dyDescent="0.2">
-      <c r="H477" s="10"/>
+      <c r="H477" s="9"/>
       <c r="AN477" s="2"/>
     </row>
     <row r="478" spans="8:40" x14ac:dyDescent="0.2">
-      <c r="H478" s="10"/>
+      <c r="H478" s="9"/>
       <c r="AN478" s="2"/>
     </row>
     <row r="479" spans="8:40" x14ac:dyDescent="0.2">
-      <c r="H479" s="10"/>
+      <c r="H479" s="9"/>
       <c r="AN479" s="2"/>
     </row>
     <row r="480" spans="8:40" x14ac:dyDescent="0.2">
-      <c r="H480" s="10"/>
+      <c r="H480" s="9"/>
       <c r="AN480" s="2"/>
     </row>
     <row r="481" spans="8:40" x14ac:dyDescent="0.2">
-      <c r="H481" s="10"/>
+      <c r="H481" s="9"/>
       <c r="AN481" s="2"/>
     </row>
     <row r="482" spans="8:40" x14ac:dyDescent="0.2">
-      <c r="H482" s="10"/>
+      <c r="H482" s="9"/>
       <c r="AN482" s="2"/>
     </row>
     <row r="483" spans="8:40" x14ac:dyDescent="0.2">
-      <c r="H483" s="10"/>
+      <c r="H483" s="9"/>
       <c r="AN483" s="2"/>
     </row>
     <row r="484" spans="8:40" x14ac:dyDescent="0.2">
-      <c r="H484" s="10"/>
+      <c r="H484" s="9"/>
       <c r="AN484" s="2"/>
     </row>
     <row r="485" spans="8:40" x14ac:dyDescent="0.2">
-      <c r="H485" s="10"/>
+      <c r="H485" s="9"/>
       <c r="AN485" s="2"/>
     </row>
     <row r="486" spans="8:40" x14ac:dyDescent="0.2">
-      <c r="H486" s="10"/>
+      <c r="H486" s="9"/>
       <c r="AN486" s="2"/>
     </row>
     <row r="487" spans="8:40" x14ac:dyDescent="0.2">
-      <c r="H487" s="10"/>
+      <c r="H487" s="9"/>
       <c r="AN487" s="2"/>
     </row>
     <row r="488" spans="8:40" x14ac:dyDescent="0.2">
-      <c r="H488" s="10"/>
+      <c r="H488" s="9"/>
       <c r="AN488" s="2"/>
     </row>
     <row r="489" spans="8:40" x14ac:dyDescent="0.2">
-      <c r="H489" s="10"/>
+      <c r="H489" s="9"/>
       <c r="AN489" s="2"/>
     </row>
     <row r="490" spans="8:40" x14ac:dyDescent="0.2">
-      <c r="H490" s="10"/>
+      <c r="H490" s="9"/>
       <c r="AN490" s="2"/>
     </row>
     <row r="491" spans="8:40" x14ac:dyDescent="0.2">
-      <c r="H491" s="10"/>
+      <c r="H491" s="9"/>
       <c r="AN491" s="2"/>
     </row>
     <row r="492" spans="8:40" x14ac:dyDescent="0.2">
-      <c r="H492" s="10"/>
+      <c r="H492" s="9"/>
       <c r="AN492" s="2"/>
     </row>
     <row r="493" spans="8:40" x14ac:dyDescent="0.2">
-      <c r="H493" s="10"/>
+      <c r="H493" s="9"/>
       <c r="AN493" s="2"/>
     </row>
     <row r="494" spans="8:40" x14ac:dyDescent="0.2">
-      <c r="H494" s="10"/>
+      <c r="H494" s="9"/>
       <c r="AN494" s="2"/>
     </row>
     <row r="495" spans="8:40" x14ac:dyDescent="0.2">
-      <c r="H495" s="10"/>
+      <c r="H495" s="9"/>
       <c r="AN495" s="2"/>
     </row>
     <row r="496" spans="8:40" x14ac:dyDescent="0.2">
-      <c r="H496" s="10"/>
+      <c r="H496" s="9"/>
       <c r="AN496" s="2"/>
     </row>
     <row r="497" spans="8:40" x14ac:dyDescent="0.2">
-      <c r="H497" s="10"/>
+      <c r="H497" s="9"/>
       <c r="AN497" s="2"/>
     </row>
     <row r="498" spans="8:40" x14ac:dyDescent="0.2">
-      <c r="H498" s="10"/>
+      <c r="H498" s="9"/>
       <c r="AN498" s="2"/>
     </row>
     <row r="499" spans="8:40" x14ac:dyDescent="0.2">
-      <c r="H499" s="10"/>
+      <c r="H499" s="9"/>
       <c r="AN499" s="2"/>
     </row>
     <row r="500" spans="8:40" x14ac:dyDescent="0.2">
-      <c r="H500" s="10"/>
+      <c r="H500" s="9"/>
       <c r="AN500" s="2"/>
     </row>
     <row r="501" spans="8:40" x14ac:dyDescent="0.2">
-      <c r="H501" s="10"/>
+      <c r="H501" s="9"/>
       <c r="AN501" s="2"/>
     </row>
     <row r="502" spans="8:40" x14ac:dyDescent="0.2">
-      <c r="H502" s="10"/>
+      <c r="H502" s="9"/>
       <c r="AN502" s="2"/>
     </row>
     <row r="503" spans="8:40" x14ac:dyDescent="0.2">
-      <c r="H503" s="10"/>
+      <c r="H503" s="9"/>
       <c r="AN503" s="2"/>
     </row>
     <row r="504" spans="8:40" x14ac:dyDescent="0.2">
-      <c r="H504" s="10"/>
+      <c r="H504" s="9"/>
       <c r="AN504" s="2"/>
     </row>
     <row r="505" spans="8:40" x14ac:dyDescent="0.2">
-      <c r="H505" s="10"/>
+      <c r="H505" s="9"/>
       <c r="AN505" s="2"/>
     </row>
     <row r="506" spans="8:40" x14ac:dyDescent="0.2">
-      <c r="H506" s="10"/>
+      <c r="H506" s="9"/>
       <c r="AN506" s="2"/>
     </row>
     <row r="507" spans="8:40" x14ac:dyDescent="0.2">
-      <c r="H507" s="10"/>
+      <c r="H507" s="9"/>
       <c r="AN507" s="2"/>
     </row>
     <row r="508" spans="8:40" x14ac:dyDescent="0.2">
-      <c r="H508" s="10"/>
+      <c r="H508" s="9"/>
       <c r="AN508" s="2"/>
     </row>
     <row r="509" spans="8:40" x14ac:dyDescent="0.2">
-      <c r="H509" s="10"/>
+      <c r="H509" s="9"/>
       <c r="AN509" s="2"/>
     </row>
     <row r="510" spans="8:40" x14ac:dyDescent="0.2">
-      <c r="H510" s="10"/>
+      <c r="H510" s="9"/>
       <c r="AN510" s="2"/>
     </row>
     <row r="511" spans="8:40" x14ac:dyDescent="0.2">
-      <c r="H511" s="10"/>
+      <c r="H511" s="9"/>
       <c r="AN511" s="2"/>
     </row>
     <row r="512" spans="8:40" x14ac:dyDescent="0.2">
-      <c r="H512" s="10"/>
+      <c r="H512" s="9"/>
       <c r="AN512" s="2"/>
     </row>
     <row r="513" spans="8:40" x14ac:dyDescent="0.2">
-      <c r="H513" s="10"/>
+      <c r="H513" s="9"/>
       <c r="AN513" s="2"/>
     </row>
     <row r="514" spans="8:40" x14ac:dyDescent="0.2">
-      <c r="H514" s="10"/>
+      <c r="H514" s="9"/>
       <c r="AN514" s="2"/>
     </row>
     <row r="515" spans="8:40" x14ac:dyDescent="0.2">
-      <c r="H515" s="10"/>
+      <c r="H515" s="9"/>
       <c r="AN515" s="2"/>
     </row>
     <row r="516" spans="8:40" x14ac:dyDescent="0.2">
-      <c r="H516" s="10"/>
+      <c r="H516" s="9"/>
       <c r="AN516" s="2"/>
     </row>
     <row r="517" spans="8:40" x14ac:dyDescent="0.2">
-      <c r="H517" s="10"/>
+      <c r="H517" s="9"/>
       <c r="AN517" s="2"/>
     </row>
     <row r="518" spans="8:40" x14ac:dyDescent="0.2">
-      <c r="H518" s="10"/>
+      <c r="H518" s="9"/>
       <c r="AN518" s="2"/>
     </row>
     <row r="519" spans="8:40" x14ac:dyDescent="0.2">
-      <c r="H519" s="10"/>
+      <c r="H519" s="9"/>
       <c r="AN519" s="2"/>
     </row>
     <row r="520" spans="8:40" x14ac:dyDescent="0.2">
-      <c r="H520" s="10"/>
+      <c r="H520" s="9"/>
       <c r="AN520" s="2"/>
     </row>
     <row r="521" spans="8:40" x14ac:dyDescent="0.2">
-      <c r="H521" s="10"/>
+      <c r="H521" s="9"/>
       <c r="AN521" s="2"/>
     </row>
     <row r="522" spans="8:40" x14ac:dyDescent="0.2">
-      <c r="H522" s="10"/>
+      <c r="H522" s="9"/>
       <c r="AN522" s="2"/>
     </row>
     <row r="523" spans="8:40" x14ac:dyDescent="0.2">
-      <c r="H523" s="10"/>
+      <c r="H523" s="9"/>
       <c r="AN523" s="2"/>
     </row>
     <row r="524" spans="8:40" x14ac:dyDescent="0.2">
-      <c r="H524" s="10"/>
+      <c r="H524" s="9"/>
       <c r="AN524" s="2"/>
     </row>
     <row r="525" spans="8:40" x14ac:dyDescent="0.2">
-      <c r="H525" s="10"/>
+      <c r="H525" s="9"/>
       <c r="AN525" s="2"/>
     </row>
     <row r="526" spans="8:40" x14ac:dyDescent="0.2">
-      <c r="H526" s="10"/>
+      <c r="H526" s="9"/>
       <c r="AN526" s="2"/>
     </row>
     <row r="527" spans="8:40" x14ac:dyDescent="0.2">
-      <c r="H527" s="10"/>
+      <c r="H527" s="9"/>
       <c r="AN527" s="2"/>
     </row>
     <row r="528" spans="8:40" x14ac:dyDescent="0.2">
-      <c r="H528" s="10"/>
+      <c r="H528" s="9"/>
       <c r="AN528" s="2"/>
     </row>
     <row r="529" spans="8:40" x14ac:dyDescent="0.2">
-      <c r="H529" s="10"/>
+      <c r="H529" s="9"/>
       <c r="AN529" s="2"/>
     </row>
     <row r="530" spans="8:40" x14ac:dyDescent="0.2">
-      <c r="H530" s="10"/>
+      <c r="H530" s="9"/>
       <c r="AN530" s="2"/>
     </row>
     <row r="531" spans="8:40" x14ac:dyDescent="0.2">
-      <c r="H531" s="10"/>
+      <c r="H531" s="9"/>
       <c r="AN531" s="2"/>
     </row>
     <row r="532" spans="8:40" x14ac:dyDescent="0.2">
-      <c r="H532" s="10"/>
+      <c r="H532" s="9"/>
       <c r="AN532" s="2"/>
     </row>
     <row r="533" spans="8:40" x14ac:dyDescent="0.2">
-      <c r="H533" s="10"/>
+      <c r="H533" s="9"/>
       <c r="AN533" s="2"/>
     </row>
     <row r="534" spans="8:40" x14ac:dyDescent="0.2">
-      <c r="H534" s="10"/>
+      <c r="H534" s="9"/>
       <c r="AN534" s="2"/>
     </row>
     <row r="535" spans="8:40" x14ac:dyDescent="0.2">
-      <c r="H535" s="10"/>
+      <c r="H535" s="9"/>
       <c r="AN535" s="2"/>
     </row>
     <row r="536" spans="8:40" x14ac:dyDescent="0.2">
-      <c r="H536" s="10"/>
+      <c r="H536" s="9"/>
       <c r="AN536" s="2"/>
     </row>
     <row r="537" spans="8:40" x14ac:dyDescent="0.2">
-      <c r="H537" s="10"/>
+      <c r="H537" s="9"/>
       <c r="AN537" s="2"/>
     </row>
     <row r="538" spans="8:40" x14ac:dyDescent="0.2">
-      <c r="H538" s="10"/>
+      <c r="H538" s="9"/>
       <c r="AN538" s="2"/>
     </row>
     <row r="539" spans="8:40" x14ac:dyDescent="0.2">
-      <c r="H539" s="10"/>
+      <c r="H539" s="9"/>
       <c r="AN539" s="2"/>
     </row>
     <row r="540" spans="8:40" x14ac:dyDescent="0.2">
-      <c r="H540" s="10"/>
+      <c r="H540" s="9"/>
       <c r="AN540" s="2"/>
     </row>
     <row r="541" spans="8:40" x14ac:dyDescent="0.2">
-      <c r="H541" s="10"/>
+      <c r="H541" s="9"/>
       <c r="AN541" s="2"/>
     </row>
     <row r="542" spans="8:40" x14ac:dyDescent="0.2">
-      <c r="H542" s="10"/>
+      <c r="H542" s="9"/>
       <c r="AN542" s="2"/>
     </row>
     <row r="543" spans="8:40" x14ac:dyDescent="0.2">
-      <c r="H543" s="10"/>
+      <c r="H543" s="9"/>
       <c r="AN543" s="2"/>
     </row>
     <row r="544" spans="8:40" x14ac:dyDescent="0.2">
-      <c r="H544" s="10"/>
+      <c r="H544" s="9"/>
       <c r="AN544" s="2"/>
     </row>
     <row r="545" spans="8:41" x14ac:dyDescent="0.2">
@@ -5648,1901 +5646,1901 @@
       <c r="I545" s="6"/>
       <c r="AM545" s="2"/>
       <c r="AN545" s="2"/>
-      <c r="AO545" s="11"/>
+      <c r="AO545" s="10"/>
     </row>
     <row r="546" spans="8:41" x14ac:dyDescent="0.2">
       <c r="H546" s="6"/>
       <c r="I546" s="6"/>
       <c r="AM546" s="2"/>
       <c r="AN546" s="2"/>
-      <c r="AO546" s="11"/>
+      <c r="AO546" s="10"/>
     </row>
     <row r="547" spans="8:41" x14ac:dyDescent="0.2">
       <c r="H547" s="6"/>
       <c r="I547" s="6"/>
       <c r="AM547" s="2"/>
       <c r="AN547" s="2"/>
-      <c r="AO547" s="11"/>
+      <c r="AO547" s="10"/>
     </row>
     <row r="548" spans="8:41" x14ac:dyDescent="0.2">
       <c r="H548" s="6"/>
       <c r="I548" s="6"/>
       <c r="AM548" s="2"/>
       <c r="AN548" s="2"/>
-      <c r="AO548" s="11"/>
+      <c r="AO548" s="10"/>
     </row>
     <row r="549" spans="8:41" x14ac:dyDescent="0.2">
       <c r="H549" s="6"/>
       <c r="I549" s="6"/>
       <c r="AM549" s="2"/>
       <c r="AN549" s="2"/>
-      <c r="AO549" s="11"/>
+      <c r="AO549" s="10"/>
     </row>
     <row r="550" spans="8:41" x14ac:dyDescent="0.2">
       <c r="H550" s="6"/>
       <c r="I550" s="6"/>
       <c r="AM550" s="2"/>
       <c r="AN550" s="2"/>
-      <c r="AO550" s="11"/>
+      <c r="AO550" s="10"/>
     </row>
     <row r="551" spans="8:41" x14ac:dyDescent="0.2">
       <c r="H551" s="6"/>
       <c r="I551" s="6"/>
       <c r="AM551" s="2"/>
       <c r="AN551" s="2"/>
-      <c r="AO551" s="11"/>
+      <c r="AO551" s="10"/>
     </row>
     <row r="552" spans="8:41" x14ac:dyDescent="0.2">
       <c r="H552" s="6"/>
       <c r="I552" s="6"/>
       <c r="AM552" s="2"/>
       <c r="AN552" s="2"/>
-      <c r="AO552" s="11"/>
+      <c r="AO552" s="10"/>
     </row>
     <row r="553" spans="8:41" x14ac:dyDescent="0.2">
       <c r="H553" s="6"/>
       <c r="I553" s="6"/>
       <c r="AM553" s="2"/>
       <c r="AN553" s="2"/>
-      <c r="AO553" s="11"/>
+      <c r="AO553" s="10"/>
     </row>
     <row r="554" spans="8:41" x14ac:dyDescent="0.2">
       <c r="H554" s="6"/>
       <c r="I554" s="6"/>
       <c r="AM554" s="2"/>
       <c r="AN554" s="2"/>
-      <c r="AO554" s="11"/>
+      <c r="AO554" s="10"/>
     </row>
     <row r="555" spans="8:41" x14ac:dyDescent="0.2">
       <c r="H555" s="6"/>
       <c r="I555" s="6"/>
       <c r="AM555" s="2"/>
       <c r="AN555" s="2"/>
-      <c r="AO555" s="11"/>
+      <c r="AO555" s="10"/>
     </row>
     <row r="556" spans="8:41" x14ac:dyDescent="0.2">
       <c r="H556" s="6"/>
       <c r="I556" s="6"/>
       <c r="AM556" s="2"/>
       <c r="AN556" s="2"/>
-      <c r="AO556" s="11"/>
+      <c r="AO556" s="10"/>
     </row>
     <row r="557" spans="8:41" x14ac:dyDescent="0.2">
       <c r="H557" s="6"/>
       <c r="I557" s="6"/>
       <c r="AM557" s="2"/>
       <c r="AN557" s="2"/>
-      <c r="AO557" s="11"/>
+      <c r="AO557" s="10"/>
     </row>
     <row r="558" spans="8:41" x14ac:dyDescent="0.2">
       <c r="H558" s="6"/>
       <c r="I558" s="6"/>
       <c r="AM558" s="2"/>
       <c r="AN558" s="2"/>
-      <c r="AO558" s="11"/>
+      <c r="AO558" s="10"/>
     </row>
     <row r="559" spans="8:41" x14ac:dyDescent="0.2">
       <c r="H559" s="6"/>
       <c r="I559" s="6"/>
       <c r="AM559" s="2"/>
       <c r="AN559" s="2"/>
-      <c r="AO559" s="11"/>
+      <c r="AO559" s="10"/>
     </row>
     <row r="560" spans="8:41" x14ac:dyDescent="0.2">
       <c r="H560" s="6"/>
       <c r="I560" s="6"/>
       <c r="AM560" s="2"/>
       <c r="AN560" s="2"/>
-      <c r="AO560" s="11"/>
+      <c r="AO560" s="10"/>
     </row>
     <row r="561" spans="8:41" x14ac:dyDescent="0.2">
       <c r="H561" s="6"/>
       <c r="I561" s="6"/>
       <c r="AM561" s="2"/>
       <c r="AN561" s="2"/>
-      <c r="AO561" s="11"/>
+      <c r="AO561" s="10"/>
     </row>
     <row r="562" spans="8:41" x14ac:dyDescent="0.2">
       <c r="H562" s="6"/>
       <c r="I562" s="6"/>
       <c r="AM562" s="2"/>
       <c r="AN562" s="2"/>
-      <c r="AO562" s="11"/>
+      <c r="AO562" s="10"/>
     </row>
     <row r="563" spans="8:41" x14ac:dyDescent="0.2">
       <c r="H563" s="6"/>
       <c r="I563" s="6"/>
       <c r="AM563" s="2"/>
       <c r="AN563" s="2"/>
-      <c r="AO563" s="11"/>
+      <c r="AO563" s="10"/>
     </row>
     <row r="564" spans="8:41" x14ac:dyDescent="0.2">
       <c r="H564" s="6"/>
       <c r="I564" s="6"/>
       <c r="AM564" s="2"/>
       <c r="AN564" s="2"/>
-      <c r="AO564" s="11"/>
+      <c r="AO564" s="10"/>
     </row>
     <row r="565" spans="8:41" x14ac:dyDescent="0.2">
       <c r="H565" s="6"/>
       <c r="I565" s="6"/>
       <c r="AM565" s="2"/>
       <c r="AN565" s="2"/>
-      <c r="AO565" s="11"/>
+      <c r="AO565" s="10"/>
     </row>
     <row r="566" spans="8:41" x14ac:dyDescent="0.2">
       <c r="H566" s="6"/>
       <c r="I566" s="6"/>
       <c r="AM566" s="2"/>
       <c r="AN566" s="2"/>
-      <c r="AO566" s="11"/>
+      <c r="AO566" s="10"/>
     </row>
     <row r="567" spans="8:41" x14ac:dyDescent="0.2">
       <c r="H567" s="6"/>
       <c r="I567" s="6"/>
       <c r="AM567" s="2"/>
       <c r="AN567" s="2"/>
-      <c r="AO567" s="11"/>
+      <c r="AO567" s="10"/>
     </row>
     <row r="568" spans="8:41" x14ac:dyDescent="0.2">
       <c r="H568" s="6"/>
       <c r="I568" s="6"/>
       <c r="AM568" s="2"/>
       <c r="AN568" s="2"/>
-      <c r="AO568" s="11"/>
+      <c r="AO568" s="10"/>
     </row>
     <row r="569" spans="8:41" x14ac:dyDescent="0.2">
       <c r="H569" s="6"/>
       <c r="I569" s="6"/>
       <c r="AM569" s="2"/>
       <c r="AN569" s="2"/>
-      <c r="AO569" s="11"/>
+      <c r="AO569" s="10"/>
     </row>
     <row r="570" spans="8:41" x14ac:dyDescent="0.2">
       <c r="H570" s="6"/>
       <c r="I570" s="6"/>
       <c r="AM570" s="2"/>
       <c r="AN570" s="2"/>
-      <c r="AO570" s="11"/>
+      <c r="AO570" s="10"/>
     </row>
     <row r="571" spans="8:41" x14ac:dyDescent="0.2">
       <c r="H571" s="6"/>
       <c r="I571" s="6"/>
       <c r="AM571" s="2"/>
       <c r="AN571" s="2"/>
-      <c r="AO571" s="11"/>
+      <c r="AO571" s="10"/>
     </row>
     <row r="572" spans="8:41" x14ac:dyDescent="0.2">
       <c r="H572" s="6"/>
       <c r="I572" s="6"/>
       <c r="AM572" s="2"/>
       <c r="AN572" s="2"/>
-      <c r="AO572" s="11"/>
+      <c r="AO572" s="10"/>
     </row>
     <row r="573" spans="8:41" x14ac:dyDescent="0.2">
       <c r="H573" s="6"/>
       <c r="I573" s="6"/>
       <c r="AM573" s="2"/>
       <c r="AN573" s="2"/>
-      <c r="AO573" s="11"/>
+      <c r="AO573" s="10"/>
     </row>
     <row r="574" spans="8:41" x14ac:dyDescent="0.2">
       <c r="H574" s="6"/>
       <c r="I574" s="6"/>
       <c r="AM574" s="2"/>
       <c r="AN574" s="2"/>
-      <c r="AO574" s="11"/>
+      <c r="AO574" s="10"/>
     </row>
     <row r="575" spans="8:41" x14ac:dyDescent="0.2">
       <c r="H575" s="6"/>
       <c r="I575" s="6"/>
       <c r="AM575" s="2"/>
       <c r="AN575" s="2"/>
-      <c r="AO575" s="11"/>
+      <c r="AO575" s="10"/>
     </row>
     <row r="576" spans="8:41" x14ac:dyDescent="0.2">
       <c r="H576" s="6"/>
       <c r="I576" s="6"/>
       <c r="AM576" s="2"/>
       <c r="AN576" s="2"/>
-      <c r="AO576" s="11"/>
+      <c r="AO576" s="10"/>
     </row>
     <row r="577" spans="8:41" x14ac:dyDescent="0.2">
       <c r="H577" s="6"/>
       <c r="I577" s="6"/>
       <c r="AM577" s="2"/>
       <c r="AN577" s="2"/>
-      <c r="AO577" s="11"/>
+      <c r="AO577" s="10"/>
     </row>
     <row r="578" spans="8:41" x14ac:dyDescent="0.2">
       <c r="H578" s="6"/>
       <c r="I578" s="6"/>
       <c r="AM578" s="2"/>
       <c r="AN578" s="2"/>
-      <c r="AO578" s="11"/>
+      <c r="AO578" s="10"/>
     </row>
     <row r="579" spans="8:41" x14ac:dyDescent="0.2">
       <c r="H579" s="6"/>
       <c r="I579" s="6"/>
       <c r="AM579" s="2"/>
       <c r="AN579" s="2"/>
-      <c r="AO579" s="11"/>
+      <c r="AO579" s="10"/>
     </row>
     <row r="580" spans="8:41" x14ac:dyDescent="0.2">
       <c r="H580" s="6"/>
       <c r="I580" s="6"/>
       <c r="AM580" s="2"/>
       <c r="AN580" s="2"/>
-      <c r="AO580" s="11"/>
+      <c r="AO580" s="10"/>
     </row>
     <row r="581" spans="8:41" x14ac:dyDescent="0.2">
       <c r="H581" s="6"/>
       <c r="I581" s="6"/>
       <c r="AM581" s="2"/>
       <c r="AN581" s="2"/>
-      <c r="AO581" s="11"/>
+      <c r="AO581" s="10"/>
     </row>
     <row r="582" spans="8:41" x14ac:dyDescent="0.2">
       <c r="H582" s="6"/>
       <c r="I582" s="6"/>
       <c r="AM582" s="2"/>
       <c r="AN582" s="2"/>
-      <c r="AO582" s="11"/>
+      <c r="AO582" s="10"/>
     </row>
     <row r="583" spans="8:41" x14ac:dyDescent="0.2">
       <c r="H583" s="6"/>
       <c r="I583" s="6"/>
       <c r="AM583" s="2"/>
       <c r="AN583" s="2"/>
-      <c r="AO583" s="11"/>
+      <c r="AO583" s="10"/>
     </row>
     <row r="584" spans="8:41" x14ac:dyDescent="0.2">
       <c r="H584" s="6"/>
       <c r="I584" s="6"/>
       <c r="AM584" s="2"/>
       <c r="AN584" s="2"/>
-      <c r="AO584" s="11"/>
+      <c r="AO584" s="10"/>
     </row>
     <row r="585" spans="8:41" x14ac:dyDescent="0.2">
       <c r="H585" s="6"/>
       <c r="I585" s="6"/>
       <c r="AM585" s="2"/>
       <c r="AN585" s="2"/>
-      <c r="AO585" s="11"/>
+      <c r="AO585" s="10"/>
     </row>
     <row r="586" spans="8:41" x14ac:dyDescent="0.2">
       <c r="H586" s="6"/>
       <c r="I586" s="6"/>
       <c r="AM586" s="2"/>
       <c r="AN586" s="2"/>
-      <c r="AO586" s="11"/>
+      <c r="AO586" s="10"/>
     </row>
     <row r="587" spans="8:41" x14ac:dyDescent="0.2">
       <c r="H587" s="6"/>
       <c r="I587" s="6"/>
       <c r="AM587" s="2"/>
       <c r="AN587" s="2"/>
-      <c r="AO587" s="11"/>
+      <c r="AO587" s="10"/>
     </row>
     <row r="588" spans="8:41" x14ac:dyDescent="0.2">
       <c r="H588" s="6"/>
       <c r="I588" s="6"/>
       <c r="AM588" s="2"/>
       <c r="AN588" s="2"/>
-      <c r="AO588" s="11"/>
+      <c r="AO588" s="10"/>
     </row>
     <row r="589" spans="8:41" x14ac:dyDescent="0.2">
       <c r="H589" s="6"/>
       <c r="I589" s="6"/>
       <c r="AM589" s="2"/>
       <c r="AN589" s="2"/>
-      <c r="AO589" s="11"/>
+      <c r="AO589" s="10"/>
     </row>
     <row r="590" spans="8:41" x14ac:dyDescent="0.2">
       <c r="H590" s="6"/>
       <c r="I590" s="6"/>
       <c r="AM590" s="2"/>
       <c r="AN590" s="2"/>
-      <c r="AO590" s="11"/>
+      <c r="AO590" s="10"/>
     </row>
     <row r="591" spans="8:41" x14ac:dyDescent="0.2">
       <c r="H591" s="6"/>
       <c r="I591" s="6"/>
       <c r="AM591" s="2"/>
       <c r="AN591" s="2"/>
-      <c r="AO591" s="11"/>
+      <c r="AO591" s="10"/>
     </row>
     <row r="592" spans="8:41" x14ac:dyDescent="0.2">
       <c r="H592" s="6"/>
       <c r="I592" s="6"/>
       <c r="AM592" s="2"/>
       <c r="AN592" s="2"/>
-      <c r="AO592" s="11"/>
+      <c r="AO592" s="10"/>
     </row>
     <row r="593" spans="8:41" x14ac:dyDescent="0.2">
       <c r="H593" s="6"/>
       <c r="I593" s="6"/>
       <c r="AM593" s="2"/>
       <c r="AN593" s="2"/>
-      <c r="AO593" s="11"/>
+      <c r="AO593" s="10"/>
     </row>
     <row r="594" spans="8:41" x14ac:dyDescent="0.2">
       <c r="H594" s="6"/>
       <c r="I594" s="6"/>
       <c r="AM594" s="2"/>
       <c r="AN594" s="2"/>
-      <c r="AO594" s="11"/>
+      <c r="AO594" s="10"/>
     </row>
     <row r="595" spans="8:41" x14ac:dyDescent="0.2">
       <c r="H595" s="6"/>
       <c r="I595" s="6"/>
       <c r="AM595" s="2"/>
       <c r="AN595" s="2"/>
-      <c r="AO595" s="11"/>
+      <c r="AO595" s="10"/>
     </row>
     <row r="596" spans="8:41" x14ac:dyDescent="0.2">
       <c r="H596" s="6"/>
       <c r="I596" s="6"/>
       <c r="AM596" s="2"/>
       <c r="AN596" s="2"/>
-      <c r="AO596" s="11"/>
+      <c r="AO596" s="10"/>
     </row>
     <row r="597" spans="8:41" x14ac:dyDescent="0.2">
       <c r="H597" s="6"/>
       <c r="I597" s="6"/>
       <c r="AM597" s="2"/>
       <c r="AN597" s="2"/>
-      <c r="AO597" s="11"/>
+      <c r="AO597" s="10"/>
     </row>
     <row r="598" spans="8:41" x14ac:dyDescent="0.2">
       <c r="H598" s="6"/>
       <c r="I598" s="6"/>
       <c r="AM598" s="2"/>
       <c r="AN598" s="2"/>
-      <c r="AO598" s="11"/>
+      <c r="AO598" s="10"/>
     </row>
     <row r="599" spans="8:41" x14ac:dyDescent="0.2">
       <c r="H599" s="6"/>
       <c r="I599" s="6"/>
       <c r="AM599" s="2"/>
       <c r="AN599" s="2"/>
-      <c r="AO599" s="11"/>
+      <c r="AO599" s="10"/>
     </row>
     <row r="600" spans="8:41" x14ac:dyDescent="0.2">
       <c r="H600" s="6"/>
       <c r="I600" s="6"/>
       <c r="AM600" s="2"/>
       <c r="AN600" s="2"/>
-      <c r="AO600" s="11"/>
+      <c r="AO600" s="10"/>
     </row>
     <row r="601" spans="8:41" x14ac:dyDescent="0.2">
       <c r="H601" s="6"/>
       <c r="I601" s="6"/>
       <c r="AM601" s="2"/>
       <c r="AN601" s="2"/>
-      <c r="AO601" s="11"/>
+      <c r="AO601" s="10"/>
     </row>
     <row r="602" spans="8:41" x14ac:dyDescent="0.2">
       <c r="H602" s="6"/>
       <c r="I602" s="6"/>
       <c r="AM602" s="2"/>
       <c r="AN602" s="2"/>
-      <c r="AO602" s="11"/>
+      <c r="AO602" s="10"/>
     </row>
     <row r="603" spans="8:41" x14ac:dyDescent="0.2">
       <c r="H603" s="6"/>
       <c r="I603" s="6"/>
       <c r="AM603" s="2"/>
       <c r="AN603" s="2"/>
-      <c r="AO603" s="11"/>
+      <c r="AO603" s="10"/>
     </row>
     <row r="604" spans="8:41" x14ac:dyDescent="0.2">
       <c r="H604" s="6"/>
       <c r="I604" s="6"/>
       <c r="AM604" s="2"/>
       <c r="AN604" s="2"/>
-      <c r="AO604" s="11"/>
+      <c r="AO604" s="10"/>
     </row>
     <row r="605" spans="8:41" x14ac:dyDescent="0.2">
       <c r="H605" s="6"/>
       <c r="I605" s="6"/>
       <c r="AM605" s="2"/>
       <c r="AN605" s="2"/>
-      <c r="AO605" s="11"/>
+      <c r="AO605" s="10"/>
     </row>
     <row r="606" spans="8:41" x14ac:dyDescent="0.2">
       <c r="H606" s="6"/>
       <c r="I606" s="6"/>
       <c r="AM606" s="2"/>
       <c r="AN606" s="2"/>
-      <c r="AO606" s="11"/>
+      <c r="AO606" s="10"/>
     </row>
     <row r="607" spans="8:41" x14ac:dyDescent="0.2">
       <c r="H607" s="6"/>
       <c r="I607" s="6"/>
       <c r="AM607" s="2"/>
       <c r="AN607" s="2"/>
-      <c r="AO607" s="11"/>
+      <c r="AO607" s="10"/>
     </row>
     <row r="608" spans="8:41" x14ac:dyDescent="0.2">
       <c r="H608" s="6"/>
       <c r="I608" s="6"/>
       <c r="AM608" s="2"/>
       <c r="AN608" s="2"/>
-      <c r="AO608" s="11"/>
+      <c r="AO608" s="10"/>
     </row>
     <row r="609" spans="8:41" x14ac:dyDescent="0.2">
       <c r="H609" s="6"/>
       <c r="I609" s="6"/>
       <c r="AM609" s="2"/>
       <c r="AN609" s="2"/>
-      <c r="AO609" s="11"/>
+      <c r="AO609" s="10"/>
     </row>
     <row r="610" spans="8:41" x14ac:dyDescent="0.2">
       <c r="H610" s="6"/>
       <c r="I610" s="6"/>
       <c r="AM610" s="2"/>
       <c r="AN610" s="2"/>
-      <c r="AO610" s="11"/>
+      <c r="AO610" s="10"/>
     </row>
     <row r="611" spans="8:41" x14ac:dyDescent="0.2">
       <c r="H611" s="6"/>
       <c r="I611" s="6"/>
       <c r="AM611" s="2"/>
       <c r="AN611" s="2"/>
-      <c r="AO611" s="11"/>
+      <c r="AO611" s="10"/>
     </row>
     <row r="612" spans="8:41" x14ac:dyDescent="0.2">
       <c r="H612" s="6"/>
       <c r="I612" s="6"/>
       <c r="AM612" s="2"/>
       <c r="AN612" s="2"/>
-      <c r="AO612" s="11"/>
+      <c r="AO612" s="10"/>
     </row>
     <row r="613" spans="8:41" x14ac:dyDescent="0.2">
       <c r="H613" s="6"/>
       <c r="I613" s="6"/>
       <c r="AM613" s="2"/>
       <c r="AN613" s="2"/>
-      <c r="AO613" s="11"/>
+      <c r="AO613" s="10"/>
     </row>
     <row r="614" spans="8:41" x14ac:dyDescent="0.2">
       <c r="H614" s="6"/>
       <c r="I614" s="6"/>
       <c r="AM614" s="2"/>
       <c r="AN614" s="2"/>
-      <c r="AO614" s="11"/>
+      <c r="AO614" s="10"/>
     </row>
     <row r="615" spans="8:41" x14ac:dyDescent="0.2">
       <c r="H615" s="6"/>
       <c r="I615" s="6"/>
       <c r="AM615" s="2"/>
       <c r="AN615" s="2"/>
-      <c r="AO615" s="11"/>
+      <c r="AO615" s="10"/>
     </row>
     <row r="616" spans="8:41" x14ac:dyDescent="0.2">
       <c r="H616" s="6"/>
       <c r="I616" s="6"/>
       <c r="AM616" s="2"/>
       <c r="AN616" s="2"/>
-      <c r="AO616" s="11"/>
+      <c r="AO616" s="10"/>
     </row>
     <row r="617" spans="8:41" x14ac:dyDescent="0.2">
       <c r="H617" s="6"/>
       <c r="I617" s="6"/>
       <c r="AM617" s="2"/>
       <c r="AN617" s="2"/>
-      <c r="AO617" s="11"/>
+      <c r="AO617" s="10"/>
     </row>
     <row r="618" spans="8:41" x14ac:dyDescent="0.2">
       <c r="H618" s="6"/>
       <c r="I618" s="6"/>
       <c r="AM618" s="2"/>
       <c r="AN618" s="2"/>
-      <c r="AO618" s="11"/>
+      <c r="AO618" s="10"/>
     </row>
     <row r="619" spans="8:41" x14ac:dyDescent="0.2">
       <c r="H619" s="6"/>
       <c r="I619" s="6"/>
       <c r="AM619" s="2"/>
       <c r="AN619" s="2"/>
-      <c r="AO619" s="11"/>
+      <c r="AO619" s="10"/>
     </row>
     <row r="620" spans="8:41" x14ac:dyDescent="0.2">
       <c r="H620" s="6"/>
       <c r="I620" s="6"/>
       <c r="AM620" s="2"/>
       <c r="AN620" s="2"/>
-      <c r="AO620" s="11"/>
+      <c r="AO620" s="10"/>
     </row>
     <row r="621" spans="8:41" x14ac:dyDescent="0.2">
       <c r="H621" s="6"/>
       <c r="I621" s="6"/>
       <c r="AM621" s="2"/>
       <c r="AN621" s="2"/>
-      <c r="AO621" s="11"/>
+      <c r="AO621" s="10"/>
     </row>
     <row r="622" spans="8:41" x14ac:dyDescent="0.2">
       <c r="H622" s="6"/>
       <c r="I622" s="6"/>
       <c r="AM622" s="2"/>
       <c r="AN622" s="2"/>
-      <c r="AO622" s="11"/>
+      <c r="AO622" s="10"/>
     </row>
     <row r="623" spans="8:41" x14ac:dyDescent="0.2">
       <c r="H623" s="6"/>
       <c r="I623" s="6"/>
       <c r="AM623" s="2"/>
       <c r="AN623" s="2"/>
-      <c r="AO623" s="11"/>
+      <c r="AO623" s="10"/>
     </row>
     <row r="624" spans="8:41" x14ac:dyDescent="0.2">
       <c r="H624" s="6"/>
       <c r="I624" s="6"/>
       <c r="AM624" s="2"/>
       <c r="AN624" s="2"/>
-      <c r="AO624" s="11"/>
+      <c r="AO624" s="10"/>
     </row>
     <row r="625" spans="8:41" x14ac:dyDescent="0.2">
       <c r="H625" s="6"/>
       <c r="I625" s="6"/>
       <c r="AM625" s="2"/>
       <c r="AN625" s="2"/>
-      <c r="AO625" s="11"/>
+      <c r="AO625" s="10"/>
     </row>
     <row r="626" spans="8:41" x14ac:dyDescent="0.2">
       <c r="H626" s="6"/>
       <c r="I626" s="6"/>
       <c r="AM626" s="2"/>
       <c r="AN626" s="2"/>
-      <c r="AO626" s="11"/>
+      <c r="AO626" s="10"/>
     </row>
     <row r="627" spans="8:41" x14ac:dyDescent="0.2">
       <c r="H627" s="6"/>
       <c r="I627" s="6"/>
       <c r="AM627" s="2"/>
       <c r="AN627" s="2"/>
-      <c r="AO627" s="11"/>
+      <c r="AO627" s="10"/>
     </row>
     <row r="628" spans="8:41" x14ac:dyDescent="0.2">
       <c r="H628" s="6"/>
       <c r="I628" s="6"/>
       <c r="AM628" s="2"/>
       <c r="AN628" s="2"/>
-      <c r="AO628" s="11"/>
+      <c r="AO628" s="10"/>
     </row>
     <row r="629" spans="8:41" x14ac:dyDescent="0.2">
       <c r="H629" s="6"/>
       <c r="I629" s="6"/>
       <c r="AM629" s="2"/>
       <c r="AN629" s="2"/>
-      <c r="AO629" s="11"/>
+      <c r="AO629" s="10"/>
     </row>
     <row r="630" spans="8:41" x14ac:dyDescent="0.2">
       <c r="H630" s="6"/>
       <c r="I630" s="6"/>
       <c r="AM630" s="2"/>
       <c r="AN630" s="2"/>
-      <c r="AO630" s="11"/>
+      <c r="AO630" s="10"/>
     </row>
     <row r="631" spans="8:41" x14ac:dyDescent="0.2">
       <c r="H631" s="6"/>
       <c r="I631" s="6"/>
       <c r="AM631" s="2"/>
       <c r="AN631" s="2"/>
-      <c r="AO631" s="11"/>
+      <c r="AO631" s="10"/>
     </row>
     <row r="632" spans="8:41" x14ac:dyDescent="0.2">
       <c r="H632" s="6"/>
       <c r="I632" s="6"/>
       <c r="AM632" s="2"/>
       <c r="AN632" s="2"/>
-      <c r="AO632" s="11"/>
+      <c r="AO632" s="10"/>
     </row>
     <row r="633" spans="8:41" x14ac:dyDescent="0.2">
       <c r="H633" s="6"/>
       <c r="I633" s="6"/>
       <c r="AM633" s="2"/>
       <c r="AN633" s="2"/>
-      <c r="AO633" s="11"/>
+      <c r="AO633" s="10"/>
     </row>
     <row r="634" spans="8:41" x14ac:dyDescent="0.2">
       <c r="H634" s="6"/>
       <c r="I634" s="6"/>
       <c r="AM634" s="2"/>
       <c r="AN634" s="2"/>
-      <c r="AO634" s="11"/>
+      <c r="AO634" s="10"/>
     </row>
     <row r="635" spans="8:41" x14ac:dyDescent="0.2">
       <c r="H635" s="6"/>
       <c r="I635" s="6"/>
       <c r="AM635" s="2"/>
       <c r="AN635" s="2"/>
-      <c r="AO635" s="11"/>
+      <c r="AO635" s="10"/>
     </row>
     <row r="636" spans="8:41" x14ac:dyDescent="0.2">
       <c r="H636" s="6"/>
       <c r="I636" s="6"/>
       <c r="AM636" s="2"/>
       <c r="AN636" s="2"/>
-      <c r="AO636" s="11"/>
+      <c r="AO636" s="10"/>
     </row>
     <row r="637" spans="8:41" x14ac:dyDescent="0.2">
       <c r="H637" s="6"/>
       <c r="I637" s="6"/>
       <c r="AM637" s="2"/>
       <c r="AN637" s="2"/>
-      <c r="AO637" s="11"/>
+      <c r="AO637" s="10"/>
     </row>
     <row r="638" spans="8:41" x14ac:dyDescent="0.2">
       <c r="H638" s="6"/>
       <c r="I638" s="6"/>
       <c r="AM638" s="2"/>
       <c r="AN638" s="2"/>
-      <c r="AO638" s="11"/>
+      <c r="AO638" s="10"/>
     </row>
     <row r="639" spans="8:41" x14ac:dyDescent="0.2">
       <c r="H639" s="6"/>
       <c r="I639" s="6"/>
       <c r="AM639" s="2"/>
       <c r="AN639" s="2"/>
-      <c r="AO639" s="11"/>
+      <c r="AO639" s="10"/>
     </row>
     <row r="640" spans="8:41" x14ac:dyDescent="0.2">
       <c r="H640" s="6"/>
       <c r="I640" s="6"/>
       <c r="AM640" s="2"/>
       <c r="AN640" s="2"/>
-      <c r="AO640" s="11"/>
+      <c r="AO640" s="10"/>
     </row>
     <row r="641" spans="8:41" x14ac:dyDescent="0.2">
       <c r="H641" s="6"/>
       <c r="I641" s="6"/>
       <c r="AM641" s="2"/>
       <c r="AN641" s="2"/>
-      <c r="AO641" s="11"/>
+      <c r="AO641" s="10"/>
     </row>
     <row r="642" spans="8:41" x14ac:dyDescent="0.2">
       <c r="H642" s="6"/>
       <c r="I642" s="6"/>
       <c r="AM642" s="2"/>
       <c r="AN642" s="2"/>
-      <c r="AO642" s="11"/>
+      <c r="AO642" s="10"/>
     </row>
     <row r="643" spans="8:41" x14ac:dyDescent="0.2">
       <c r="H643" s="6"/>
       <c r="I643" s="6"/>
       <c r="AM643" s="2"/>
       <c r="AN643" s="2"/>
-      <c r="AO643" s="11"/>
+      <c r="AO643" s="10"/>
     </row>
     <row r="644" spans="8:41" x14ac:dyDescent="0.2">
       <c r="H644" s="6"/>
       <c r="I644" s="6"/>
       <c r="AM644" s="2"/>
       <c r="AN644" s="2"/>
-      <c r="AO644" s="11"/>
+      <c r="AO644" s="10"/>
     </row>
     <row r="645" spans="8:41" x14ac:dyDescent="0.2">
       <c r="H645" s="6"/>
       <c r="I645" s="6"/>
       <c r="AM645" s="2"/>
       <c r="AN645" s="2"/>
-      <c r="AO645" s="11"/>
+      <c r="AO645" s="10"/>
     </row>
     <row r="646" spans="8:41" x14ac:dyDescent="0.2">
       <c r="H646" s="6"/>
       <c r="I646" s="6"/>
       <c r="AM646" s="2"/>
       <c r="AN646" s="2"/>
-      <c r="AO646" s="11"/>
+      <c r="AO646" s="10"/>
     </row>
     <row r="647" spans="8:41" x14ac:dyDescent="0.2">
       <c r="H647" s="6"/>
       <c r="I647" s="6"/>
       <c r="AM647" s="2"/>
       <c r="AN647" s="2"/>
-      <c r="AO647" s="11"/>
+      <c r="AO647" s="10"/>
     </row>
     <row r="648" spans="8:41" x14ac:dyDescent="0.2">
       <c r="H648" s="6"/>
       <c r="I648" s="6"/>
       <c r="AM648" s="2"/>
       <c r="AN648" s="2"/>
-      <c r="AO648" s="11"/>
+      <c r="AO648" s="10"/>
     </row>
     <row r="649" spans="8:41" x14ac:dyDescent="0.2">
       <c r="H649" s="6"/>
       <c r="I649" s="6"/>
       <c r="AM649" s="2"/>
       <c r="AN649" s="2"/>
-      <c r="AO649" s="11"/>
+      <c r="AO649" s="10"/>
     </row>
     <row r="650" spans="8:41" x14ac:dyDescent="0.2">
       <c r="H650" s="6"/>
       <c r="I650" s="6"/>
       <c r="AM650" s="2"/>
       <c r="AN650" s="2"/>
-      <c r="AO650" s="11"/>
+      <c r="AO650" s="10"/>
     </row>
     <row r="651" spans="8:41" x14ac:dyDescent="0.2">
       <c r="H651" s="6"/>
       <c r="I651" s="6"/>
       <c r="AM651" s="2"/>
       <c r="AN651" s="2"/>
-      <c r="AO651" s="11"/>
+      <c r="AO651" s="10"/>
     </row>
     <row r="652" spans="8:41" x14ac:dyDescent="0.2">
       <c r="H652" s="6"/>
       <c r="I652" s="6"/>
       <c r="AM652" s="2"/>
       <c r="AN652" s="2"/>
-      <c r="AO652" s="11"/>
+      <c r="AO652" s="10"/>
     </row>
     <row r="653" spans="8:41" x14ac:dyDescent="0.2">
       <c r="H653" s="6"/>
       <c r="I653" s="6"/>
       <c r="AM653" s="2"/>
       <c r="AN653" s="2"/>
-      <c r="AO653" s="11"/>
+      <c r="AO653" s="10"/>
     </row>
     <row r="654" spans="8:41" x14ac:dyDescent="0.2">
       <c r="H654" s="6"/>
       <c r="I654" s="6"/>
       <c r="AM654" s="2"/>
       <c r="AN654" s="2"/>
-      <c r="AO654" s="11"/>
+      <c r="AO654" s="10"/>
     </row>
     <row r="655" spans="8:41" x14ac:dyDescent="0.2">
       <c r="H655" s="6"/>
       <c r="I655" s="6"/>
       <c r="AM655" s="2"/>
       <c r="AN655" s="2"/>
-      <c r="AO655" s="11"/>
+      <c r="AO655" s="10"/>
     </row>
     <row r="656" spans="8:41" x14ac:dyDescent="0.2">
       <c r="H656" s="6"/>
       <c r="I656" s="6"/>
       <c r="AM656" s="2"/>
       <c r="AN656" s="2"/>
-      <c r="AO656" s="11"/>
+      <c r="AO656" s="10"/>
     </row>
     <row r="657" spans="8:41" x14ac:dyDescent="0.2">
       <c r="H657" s="6"/>
       <c r="I657" s="6"/>
       <c r="AM657" s="2"/>
       <c r="AN657" s="2"/>
-      <c r="AO657" s="11"/>
+      <c r="AO657" s="10"/>
     </row>
     <row r="658" spans="8:41" x14ac:dyDescent="0.2">
       <c r="H658" s="6"/>
       <c r="I658" s="6"/>
       <c r="AM658" s="2"/>
       <c r="AN658" s="2"/>
-      <c r="AO658" s="11"/>
+      <c r="AO658" s="10"/>
     </row>
     <row r="659" spans="8:41" x14ac:dyDescent="0.2">
       <c r="H659" s="6"/>
       <c r="I659" s="6"/>
       <c r="AM659" s="2"/>
       <c r="AN659" s="2"/>
-      <c r="AO659" s="11"/>
+      <c r="AO659" s="10"/>
     </row>
     <row r="660" spans="8:41" x14ac:dyDescent="0.2">
       <c r="H660" s="6"/>
       <c r="I660" s="6"/>
       <c r="AM660" s="2"/>
       <c r="AN660" s="2"/>
-      <c r="AO660" s="11"/>
+      <c r="AO660" s="10"/>
     </row>
     <row r="661" spans="8:41" x14ac:dyDescent="0.2">
       <c r="H661" s="6"/>
       <c r="I661" s="6"/>
       <c r="AM661" s="2"/>
       <c r="AN661" s="2"/>
-      <c r="AO661" s="11"/>
+      <c r="AO661" s="10"/>
     </row>
     <row r="662" spans="8:41" x14ac:dyDescent="0.2">
       <c r="H662" s="6"/>
       <c r="I662" s="6"/>
       <c r="AM662" s="2"/>
       <c r="AN662" s="2"/>
-      <c r="AO662" s="11"/>
+      <c r="AO662" s="10"/>
     </row>
     <row r="663" spans="8:41" x14ac:dyDescent="0.2">
       <c r="H663" s="6"/>
       <c r="I663" s="6"/>
       <c r="AM663" s="2"/>
       <c r="AN663" s="2"/>
-      <c r="AO663" s="11"/>
+      <c r="AO663" s="10"/>
     </row>
     <row r="664" spans="8:41" x14ac:dyDescent="0.2">
       <c r="H664" s="6"/>
       <c r="I664" s="6"/>
       <c r="AM664" s="2"/>
       <c r="AN664" s="2"/>
-      <c r="AO664" s="11"/>
+      <c r="AO664" s="10"/>
     </row>
     <row r="665" spans="8:41" x14ac:dyDescent="0.2">
       <c r="H665" s="6"/>
       <c r="I665" s="6"/>
       <c r="AM665" s="2"/>
       <c r="AN665" s="2"/>
-      <c r="AO665" s="11"/>
+      <c r="AO665" s="10"/>
     </row>
     <row r="666" spans="8:41" x14ac:dyDescent="0.2">
       <c r="H666" s="6"/>
       <c r="I666" s="6"/>
       <c r="AM666" s="2"/>
       <c r="AN666" s="2"/>
-      <c r="AO666" s="11"/>
+      <c r="AO666" s="10"/>
     </row>
     <row r="667" spans="8:41" x14ac:dyDescent="0.2">
       <c r="H667" s="6"/>
       <c r="I667" s="6"/>
       <c r="AM667" s="2"/>
       <c r="AN667" s="2"/>
-      <c r="AO667" s="11"/>
+      <c r="AO667" s="10"/>
     </row>
     <row r="668" spans="8:41" x14ac:dyDescent="0.2">
       <c r="H668" s="6"/>
       <c r="I668" s="6"/>
       <c r="AM668" s="2"/>
       <c r="AN668" s="2"/>
-      <c r="AO668" s="11"/>
+      <c r="AO668" s="10"/>
     </row>
     <row r="669" spans="8:41" x14ac:dyDescent="0.2">
       <c r="H669" s="6"/>
       <c r="I669" s="6"/>
       <c r="AM669" s="2"/>
       <c r="AN669" s="2"/>
-      <c r="AO669" s="11"/>
+      <c r="AO669" s="10"/>
     </row>
     <row r="670" spans="8:41" x14ac:dyDescent="0.2">
       <c r="H670" s="6"/>
       <c r="I670" s="6"/>
       <c r="AM670" s="2"/>
       <c r="AN670" s="2"/>
-      <c r="AO670" s="11"/>
+      <c r="AO670" s="10"/>
     </row>
     <row r="671" spans="8:41" x14ac:dyDescent="0.2">
       <c r="H671" s="6"/>
       <c r="I671" s="6"/>
       <c r="AM671" s="2"/>
       <c r="AN671" s="2"/>
-      <c r="AO671" s="11"/>
+      <c r="AO671" s="10"/>
     </row>
     <row r="672" spans="8:41" x14ac:dyDescent="0.2">
       <c r="H672" s="6"/>
       <c r="I672" s="6"/>
       <c r="AM672" s="2"/>
       <c r="AN672" s="2"/>
-      <c r="AO672" s="11"/>
+      <c r="AO672" s="10"/>
     </row>
     <row r="673" spans="8:41" x14ac:dyDescent="0.2">
       <c r="H673" s="6"/>
       <c r="I673" s="6"/>
       <c r="AM673" s="2"/>
       <c r="AN673" s="2"/>
-      <c r="AO673" s="11"/>
+      <c r="AO673" s="10"/>
     </row>
     <row r="674" spans="8:41" x14ac:dyDescent="0.2">
       <c r="H674" s="6"/>
       <c r="I674" s="6"/>
       <c r="AM674" s="2"/>
       <c r="AN674" s="2"/>
-      <c r="AO674" s="11"/>
+      <c r="AO674" s="10"/>
     </row>
     <row r="675" spans="8:41" x14ac:dyDescent="0.2">
       <c r="H675" s="6"/>
       <c r="I675" s="6"/>
       <c r="AM675" s="2"/>
       <c r="AN675" s="2"/>
-      <c r="AO675" s="11"/>
+      <c r="AO675" s="10"/>
     </row>
     <row r="676" spans="8:41" x14ac:dyDescent="0.2">
       <c r="H676" s="6"/>
       <c r="I676" s="6"/>
       <c r="AM676" s="2"/>
       <c r="AN676" s="2"/>
-      <c r="AO676" s="11"/>
+      <c r="AO676" s="10"/>
     </row>
     <row r="677" spans="8:41" x14ac:dyDescent="0.2">
       <c r="H677" s="6"/>
       <c r="I677" s="6"/>
       <c r="AM677" s="2"/>
       <c r="AN677" s="2"/>
-      <c r="AO677" s="11"/>
+      <c r="AO677" s="10"/>
     </row>
     <row r="678" spans="8:41" x14ac:dyDescent="0.2">
       <c r="H678" s="6"/>
       <c r="I678" s="6"/>
       <c r="AM678" s="2"/>
       <c r="AN678" s="2"/>
-      <c r="AO678" s="11"/>
+      <c r="AO678" s="10"/>
     </row>
     <row r="679" spans="8:41" x14ac:dyDescent="0.2">
       <c r="H679" s="6"/>
       <c r="I679" s="6"/>
       <c r="AM679" s="2"/>
       <c r="AN679" s="2"/>
-      <c r="AO679" s="11"/>
+      <c r="AO679" s="10"/>
     </row>
     <row r="680" spans="8:41" x14ac:dyDescent="0.2">
       <c r="H680" s="6"/>
       <c r="I680" s="6"/>
       <c r="AM680" s="2"/>
       <c r="AN680" s="2"/>
-      <c r="AO680" s="11"/>
+      <c r="AO680" s="10"/>
     </row>
     <row r="681" spans="8:41" x14ac:dyDescent="0.2">
       <c r="H681" s="6"/>
       <c r="I681" s="6"/>
       <c r="AM681" s="2"/>
       <c r="AN681" s="2"/>
-      <c r="AO681" s="11"/>
+      <c r="AO681" s="10"/>
     </row>
     <row r="682" spans="8:41" x14ac:dyDescent="0.2">
       <c r="H682" s="6"/>
       <c r="I682" s="6"/>
       <c r="AM682" s="2"/>
       <c r="AN682" s="2"/>
-      <c r="AO682" s="11"/>
+      <c r="AO682" s="10"/>
     </row>
     <row r="683" spans="8:41" x14ac:dyDescent="0.2">
       <c r="H683" s="6"/>
       <c r="I683" s="6"/>
       <c r="AM683" s="2"/>
       <c r="AN683" s="2"/>
-      <c r="AO683" s="11"/>
+      <c r="AO683" s="10"/>
     </row>
     <row r="684" spans="8:41" x14ac:dyDescent="0.2">
       <c r="H684" s="6"/>
       <c r="I684" s="6"/>
       <c r="AM684" s="2"/>
       <c r="AN684" s="2"/>
-      <c r="AO684" s="11"/>
+      <c r="AO684" s="10"/>
     </row>
     <row r="685" spans="8:41" x14ac:dyDescent="0.2">
       <c r="H685" s="6"/>
       <c r="I685" s="6"/>
       <c r="AM685" s="2"/>
       <c r="AN685" s="2"/>
-      <c r="AO685" s="11"/>
+      <c r="AO685" s="10"/>
     </row>
     <row r="686" spans="8:41" x14ac:dyDescent="0.2">
       <c r="H686" s="6"/>
       <c r="I686" s="6"/>
       <c r="AM686" s="2"/>
       <c r="AN686" s="2"/>
-      <c r="AO686" s="11"/>
+      <c r="AO686" s="10"/>
     </row>
     <row r="687" spans="8:41" x14ac:dyDescent="0.2">
       <c r="H687" s="6"/>
       <c r="I687" s="6"/>
       <c r="AM687" s="2"/>
       <c r="AN687" s="2"/>
-      <c r="AO687" s="11"/>
+      <c r="AO687" s="10"/>
     </row>
     <row r="688" spans="8:41" x14ac:dyDescent="0.2">
       <c r="H688" s="6"/>
       <c r="I688" s="6"/>
       <c r="AM688" s="2"/>
       <c r="AN688" s="2"/>
-      <c r="AO688" s="11"/>
+      <c r="AO688" s="10"/>
     </row>
     <row r="689" spans="8:41" x14ac:dyDescent="0.2">
       <c r="H689" s="6"/>
       <c r="I689" s="6"/>
       <c r="AM689" s="2"/>
       <c r="AN689" s="2"/>
-      <c r="AO689" s="11"/>
+      <c r="AO689" s="10"/>
     </row>
     <row r="690" spans="8:41" x14ac:dyDescent="0.2">
       <c r="H690" s="6"/>
       <c r="I690" s="6"/>
       <c r="AM690" s="2"/>
       <c r="AN690" s="2"/>
-      <c r="AO690" s="11"/>
+      <c r="AO690" s="10"/>
     </row>
     <row r="691" spans="8:41" x14ac:dyDescent="0.2">
       <c r="H691" s="6"/>
       <c r="I691" s="6"/>
       <c r="AM691" s="2"/>
       <c r="AN691" s="2"/>
-      <c r="AO691" s="11"/>
+      <c r="AO691" s="10"/>
     </row>
     <row r="692" spans="8:41" x14ac:dyDescent="0.2">
       <c r="H692" s="6"/>
       <c r="I692" s="6"/>
       <c r="AM692" s="2"/>
       <c r="AN692" s="2"/>
-      <c r="AO692" s="11"/>
+      <c r="AO692" s="10"/>
     </row>
     <row r="693" spans="8:41" x14ac:dyDescent="0.2">
       <c r="H693" s="6"/>
       <c r="I693" s="6"/>
       <c r="AM693" s="2"/>
       <c r="AN693" s="2"/>
-      <c r="AO693" s="11"/>
+      <c r="AO693" s="10"/>
     </row>
     <row r="694" spans="8:41" x14ac:dyDescent="0.2">
       <c r="H694" s="6"/>
       <c r="I694" s="6"/>
       <c r="AM694" s="2"/>
       <c r="AN694" s="2"/>
-      <c r="AO694" s="11"/>
+      <c r="AO694" s="10"/>
     </row>
     <row r="695" spans="8:41" x14ac:dyDescent="0.2">
       <c r="H695" s="6"/>
       <c r="I695" s="6"/>
       <c r="AM695" s="2"/>
       <c r="AN695" s="2"/>
-      <c r="AO695" s="11"/>
+      <c r="AO695" s="10"/>
     </row>
     <row r="696" spans="8:41" x14ac:dyDescent="0.2">
       <c r="H696" s="6"/>
       <c r="I696" s="6"/>
       <c r="AM696" s="2"/>
       <c r="AN696" s="2"/>
-      <c r="AO696" s="11"/>
+      <c r="AO696" s="10"/>
     </row>
     <row r="697" spans="8:41" x14ac:dyDescent="0.2">
       <c r="H697" s="6"/>
       <c r="I697" s="6"/>
       <c r="AM697" s="2"/>
       <c r="AN697" s="2"/>
-      <c r="AO697" s="11"/>
+      <c r="AO697" s="10"/>
     </row>
     <row r="698" spans="8:41" x14ac:dyDescent="0.2">
       <c r="H698" s="6"/>
       <c r="I698" s="6"/>
       <c r="AM698" s="2"/>
       <c r="AN698" s="2"/>
-      <c r="AO698" s="11"/>
+      <c r="AO698" s="10"/>
     </row>
     <row r="699" spans="8:41" x14ac:dyDescent="0.2">
       <c r="H699" s="6"/>
       <c r="I699" s="6"/>
       <c r="AM699" s="2"/>
       <c r="AN699" s="2"/>
-      <c r="AO699" s="11"/>
+      <c r="AO699" s="10"/>
     </row>
     <row r="700" spans="8:41" x14ac:dyDescent="0.2">
       <c r="H700" s="6"/>
       <c r="I700" s="6"/>
       <c r="AM700" s="2"/>
       <c r="AN700" s="2"/>
-      <c r="AO700" s="11"/>
+      <c r="AO700" s="10"/>
     </row>
     <row r="701" spans="8:41" x14ac:dyDescent="0.2">
       <c r="H701" s="6"/>
       <c r="I701" s="6"/>
       <c r="AM701" s="2"/>
       <c r="AN701" s="2"/>
-      <c r="AO701" s="11"/>
+      <c r="AO701" s="10"/>
     </row>
     <row r="702" spans="8:41" x14ac:dyDescent="0.2">
       <c r="H702" s="6"/>
       <c r="I702" s="6"/>
       <c r="AM702" s="2"/>
       <c r="AN702" s="2"/>
-      <c r="AO702" s="11"/>
+      <c r="AO702" s="10"/>
     </row>
     <row r="703" spans="8:41" x14ac:dyDescent="0.2">
       <c r="H703" s="6"/>
       <c r="I703" s="6"/>
       <c r="AM703" s="2"/>
       <c r="AN703" s="2"/>
-      <c r="AO703" s="11"/>
+      <c r="AO703" s="10"/>
     </row>
     <row r="704" spans="8:41" x14ac:dyDescent="0.2">
       <c r="H704" s="6"/>
       <c r="I704" s="6"/>
       <c r="AM704" s="2"/>
       <c r="AN704" s="2"/>
-      <c r="AO704" s="11"/>
+      <c r="AO704" s="10"/>
     </row>
     <row r="705" spans="8:41" x14ac:dyDescent="0.2">
       <c r="H705" s="6"/>
       <c r="I705" s="6"/>
       <c r="AM705" s="2"/>
       <c r="AN705" s="2"/>
-      <c r="AO705" s="11"/>
+      <c r="AO705" s="10"/>
     </row>
     <row r="706" spans="8:41" x14ac:dyDescent="0.2">
       <c r="H706" s="6"/>
       <c r="I706" s="6"/>
       <c r="AM706" s="2"/>
       <c r="AN706" s="2"/>
-      <c r="AO706" s="11"/>
+      <c r="AO706" s="10"/>
     </row>
     <row r="707" spans="8:41" x14ac:dyDescent="0.2">
       <c r="H707" s="6"/>
       <c r="I707" s="6"/>
       <c r="AM707" s="2"/>
       <c r="AN707" s="2"/>
-      <c r="AO707" s="11"/>
+      <c r="AO707" s="10"/>
     </row>
     <row r="708" spans="8:41" x14ac:dyDescent="0.2">
       <c r="H708" s="6"/>
       <c r="I708" s="6"/>
       <c r="AM708" s="2"/>
       <c r="AN708" s="2"/>
-      <c r="AO708" s="11"/>
+      <c r="AO708" s="10"/>
     </row>
     <row r="709" spans="8:41" x14ac:dyDescent="0.2">
       <c r="H709" s="6"/>
       <c r="I709" s="6"/>
       <c r="AM709" s="2"/>
       <c r="AN709" s="2"/>
-      <c r="AO709" s="11"/>
+      <c r="AO709" s="10"/>
     </row>
     <row r="710" spans="8:41" x14ac:dyDescent="0.2">
       <c r="H710" s="6"/>
       <c r="I710" s="6"/>
       <c r="AM710" s="2"/>
       <c r="AN710" s="2"/>
-      <c r="AO710" s="11"/>
+      <c r="AO710" s="10"/>
     </row>
     <row r="711" spans="8:41" x14ac:dyDescent="0.2">
       <c r="H711" s="6"/>
       <c r="I711" s="6"/>
       <c r="AM711" s="2"/>
       <c r="AN711" s="2"/>
-      <c r="AO711" s="11"/>
+      <c r="AO711" s="10"/>
     </row>
     <row r="712" spans="8:41" x14ac:dyDescent="0.2">
       <c r="H712" s="6"/>
       <c r="I712" s="6"/>
       <c r="AM712" s="2"/>
       <c r="AN712" s="2"/>
-      <c r="AO712" s="11"/>
+      <c r="AO712" s="10"/>
     </row>
     <row r="713" spans="8:41" x14ac:dyDescent="0.2">
       <c r="H713" s="6"/>
       <c r="I713" s="6"/>
       <c r="AM713" s="2"/>
       <c r="AN713" s="2"/>
-      <c r="AO713" s="11"/>
+      <c r="AO713" s="10"/>
     </row>
     <row r="714" spans="8:41" x14ac:dyDescent="0.2">
       <c r="H714" s="6"/>
       <c r="I714" s="6"/>
       <c r="AM714" s="2"/>
       <c r="AN714" s="2"/>
-      <c r="AO714" s="11"/>
+      <c r="AO714" s="10"/>
     </row>
     <row r="715" spans="8:41" x14ac:dyDescent="0.2">
       <c r="H715" s="6"/>
       <c r="I715" s="6"/>
       <c r="AM715" s="2"/>
       <c r="AN715" s="2"/>
-      <c r="AO715" s="11"/>
+      <c r="AO715" s="10"/>
     </row>
     <row r="716" spans="8:41" x14ac:dyDescent="0.2">
       <c r="H716" s="6"/>
       <c r="I716" s="6"/>
       <c r="AM716" s="2"/>
       <c r="AN716" s="2"/>
-      <c r="AO716" s="11"/>
+      <c r="AO716" s="10"/>
     </row>
     <row r="717" spans="8:41" x14ac:dyDescent="0.2">
       <c r="H717" s="6"/>
       <c r="I717" s="6"/>
       <c r="AM717" s="2"/>
       <c r="AN717" s="2"/>
-      <c r="AO717" s="11"/>
+      <c r="AO717" s="10"/>
     </row>
     <row r="718" spans="8:41" x14ac:dyDescent="0.2">
       <c r="H718" s="6"/>
       <c r="I718" s="6"/>
       <c r="AM718" s="2"/>
       <c r="AN718" s="2"/>
-      <c r="AO718" s="11"/>
+      <c r="AO718" s="10"/>
     </row>
     <row r="719" spans="8:41" x14ac:dyDescent="0.2">
       <c r="H719" s="6"/>
       <c r="I719" s="6"/>
       <c r="AM719" s="2"/>
       <c r="AN719" s="2"/>
-      <c r="AO719" s="11"/>
+      <c r="AO719" s="10"/>
     </row>
     <row r="720" spans="8:41" x14ac:dyDescent="0.2">
       <c r="H720" s="6"/>
       <c r="I720" s="6"/>
       <c r="AM720" s="2"/>
       <c r="AN720" s="2"/>
-      <c r="AO720" s="11"/>
+      <c r="AO720" s="10"/>
     </row>
     <row r="721" spans="8:41" x14ac:dyDescent="0.2">
       <c r="H721" s="6"/>
       <c r="I721" s="6"/>
       <c r="AM721" s="2"/>
       <c r="AN721" s="2"/>
-      <c r="AO721" s="11"/>
+      <c r="AO721" s="10"/>
     </row>
     <row r="722" spans="8:41" x14ac:dyDescent="0.2">
       <c r="H722" s="6"/>
       <c r="I722" s="6"/>
       <c r="AM722" s="2"/>
       <c r="AN722" s="2"/>
-      <c r="AO722" s="11"/>
+      <c r="AO722" s="10"/>
     </row>
     <row r="723" spans="8:41" x14ac:dyDescent="0.2">
       <c r="H723" s="6"/>
       <c r="I723" s="6"/>
       <c r="AM723" s="2"/>
       <c r="AN723" s="2"/>
-      <c r="AO723" s="11"/>
+      <c r="AO723" s="10"/>
     </row>
     <row r="724" spans="8:41" x14ac:dyDescent="0.2">
       <c r="H724" s="6"/>
       <c r="I724" s="6"/>
       <c r="AM724" s="2"/>
       <c r="AN724" s="2"/>
-      <c r="AO724" s="11"/>
+      <c r="AO724" s="10"/>
     </row>
     <row r="725" spans="8:41" x14ac:dyDescent="0.2">
       <c r="H725" s="6"/>
       <c r="I725" s="6"/>
       <c r="AM725" s="2"/>
       <c r="AN725" s="2"/>
-      <c r="AO725" s="11"/>
+      <c r="AO725" s="10"/>
     </row>
     <row r="726" spans="8:41" x14ac:dyDescent="0.2">
       <c r="H726" s="6"/>
       <c r="I726" s="6"/>
       <c r="AM726" s="2"/>
       <c r="AN726" s="2"/>
-      <c r="AO726" s="11"/>
+      <c r="AO726" s="10"/>
     </row>
     <row r="727" spans="8:41" x14ac:dyDescent="0.2">
       <c r="H727" s="6"/>
       <c r="I727" s="6"/>
       <c r="AM727" s="2"/>
       <c r="AN727" s="2"/>
-      <c r="AO727" s="11"/>
+      <c r="AO727" s="10"/>
     </row>
     <row r="728" spans="8:41" x14ac:dyDescent="0.2">
       <c r="H728" s="6"/>
       <c r="I728" s="6"/>
       <c r="AM728" s="2"/>
       <c r="AN728" s="2"/>
-      <c r="AO728" s="11"/>
+      <c r="AO728" s="10"/>
     </row>
     <row r="729" spans="8:41" x14ac:dyDescent="0.2">
       <c r="H729" s="6"/>
       <c r="I729" s="6"/>
       <c r="AM729" s="2"/>
       <c r="AN729" s="2"/>
-      <c r="AO729" s="11"/>
+      <c r="AO729" s="10"/>
     </row>
     <row r="730" spans="8:41" x14ac:dyDescent="0.2">
       <c r="H730" s="6"/>
       <c r="I730" s="6"/>
       <c r="AM730" s="2"/>
       <c r="AN730" s="2"/>
-      <c r="AO730" s="11"/>
+      <c r="AO730" s="10"/>
     </row>
     <row r="731" spans="8:41" x14ac:dyDescent="0.2">
       <c r="H731" s="6"/>
       <c r="I731" s="6"/>
       <c r="AM731" s="2"/>
       <c r="AN731" s="2"/>
-      <c r="AO731" s="11"/>
+      <c r="AO731" s="10"/>
     </row>
     <row r="732" spans="8:41" x14ac:dyDescent="0.2">
       <c r="H732" s="6"/>
       <c r="I732" s="6"/>
       <c r="AM732" s="2"/>
       <c r="AN732" s="2"/>
-      <c r="AO732" s="11"/>
+      <c r="AO732" s="10"/>
     </row>
     <row r="733" spans="8:41" x14ac:dyDescent="0.2">
       <c r="H733" s="6"/>
       <c r="I733" s="6"/>
       <c r="AM733" s="2"/>
       <c r="AN733" s="2"/>
-      <c r="AO733" s="11"/>
+      <c r="AO733" s="10"/>
     </row>
     <row r="734" spans="8:41" x14ac:dyDescent="0.2">
       <c r="H734" s="6"/>
       <c r="I734" s="6"/>
       <c r="AM734" s="2"/>
       <c r="AN734" s="2"/>
-      <c r="AO734" s="11"/>
+      <c r="AO734" s="10"/>
     </row>
     <row r="735" spans="8:41" x14ac:dyDescent="0.2">
       <c r="H735" s="6"/>
       <c r="I735" s="6"/>
       <c r="AM735" s="2"/>
       <c r="AN735" s="2"/>
-      <c r="AO735" s="11"/>
+      <c r="AO735" s="10"/>
     </row>
     <row r="736" spans="8:41" x14ac:dyDescent="0.2">
       <c r="H736" s="6"/>
       <c r="I736" s="6"/>
       <c r="AM736" s="2"/>
       <c r="AN736" s="2"/>
-      <c r="AO736" s="11"/>
+      <c r="AO736" s="10"/>
     </row>
     <row r="737" spans="8:41" x14ac:dyDescent="0.2">
       <c r="H737" s="6"/>
       <c r="I737" s="6"/>
       <c r="AM737" s="2"/>
       <c r="AN737" s="2"/>
-      <c r="AO737" s="11"/>
+      <c r="AO737" s="10"/>
     </row>
     <row r="738" spans="8:41" x14ac:dyDescent="0.2">
       <c r="H738" s="6"/>
       <c r="I738" s="6"/>
       <c r="AM738" s="2"/>
       <c r="AN738" s="2"/>
-      <c r="AO738" s="11"/>
+      <c r="AO738" s="10"/>
     </row>
     <row r="739" spans="8:41" x14ac:dyDescent="0.2">
       <c r="H739" s="6"/>
       <c r="I739" s="6"/>
       <c r="AM739" s="2"/>
       <c r="AN739" s="2"/>
-      <c r="AO739" s="11"/>
+      <c r="AO739" s="10"/>
     </row>
     <row r="740" spans="8:41" x14ac:dyDescent="0.2">
       <c r="H740" s="6"/>
       <c r="I740" s="6"/>
       <c r="AM740" s="2"/>
       <c r="AN740" s="2"/>
-      <c r="AO740" s="11"/>
+      <c r="AO740" s="10"/>
     </row>
     <row r="741" spans="8:41" x14ac:dyDescent="0.2">
       <c r="H741" s="6"/>
       <c r="I741" s="6"/>
       <c r="AM741" s="2"/>
       <c r="AN741" s="2"/>
-      <c r="AO741" s="11"/>
+      <c r="AO741" s="10"/>
     </row>
     <row r="742" spans="8:41" x14ac:dyDescent="0.2">
       <c r="H742" s="6"/>
       <c r="I742" s="6"/>
       <c r="AM742" s="2"/>
       <c r="AN742" s="2"/>
-      <c r="AO742" s="11"/>
+      <c r="AO742" s="10"/>
     </row>
     <row r="743" spans="8:41" x14ac:dyDescent="0.2">
       <c r="H743" s="6"/>
       <c r="I743" s="6"/>
       <c r="AM743" s="2"/>
       <c r="AN743" s="2"/>
-      <c r="AO743" s="11"/>
+      <c r="AO743" s="10"/>
     </row>
     <row r="744" spans="8:41" x14ac:dyDescent="0.2">
       <c r="H744" s="6"/>
       <c r="I744" s="6"/>
       <c r="AM744" s="2"/>
       <c r="AN744" s="2"/>
-      <c r="AO744" s="11"/>
+      <c r="AO744" s="10"/>
     </row>
     <row r="745" spans="8:41" x14ac:dyDescent="0.2">
       <c r="H745" s="6"/>
       <c r="I745" s="6"/>
       <c r="AM745" s="2"/>
       <c r="AN745" s="2"/>
-      <c r="AO745" s="11"/>
+      <c r="AO745" s="10"/>
     </row>
     <row r="746" spans="8:41" x14ac:dyDescent="0.2">
       <c r="H746" s="6"/>
       <c r="I746" s="6"/>
       <c r="AM746" s="2"/>
       <c r="AN746" s="2"/>
-      <c r="AO746" s="11"/>
+      <c r="AO746" s="10"/>
     </row>
     <row r="747" spans="8:41" x14ac:dyDescent="0.2">
       <c r="H747" s="6"/>
       <c r="I747" s="6"/>
       <c r="AM747" s="2"/>
       <c r="AN747" s="2"/>
-      <c r="AO747" s="11"/>
+      <c r="AO747" s="10"/>
     </row>
     <row r="748" spans="8:41" x14ac:dyDescent="0.2">
       <c r="H748" s="6"/>
       <c r="I748" s="6"/>
       <c r="AM748" s="2"/>
       <c r="AN748" s="2"/>
-      <c r="AO748" s="11"/>
+      <c r="AO748" s="10"/>
     </row>
     <row r="749" spans="8:41" x14ac:dyDescent="0.2">
       <c r="H749" s="6"/>
       <c r="I749" s="6"/>
       <c r="AM749" s="2"/>
       <c r="AN749" s="2"/>
-      <c r="AO749" s="11"/>
+      <c r="AO749" s="10"/>
     </row>
     <row r="750" spans="8:41" x14ac:dyDescent="0.2">
       <c r="H750" s="6"/>
       <c r="I750" s="6"/>
       <c r="AM750" s="2"/>
       <c r="AN750" s="2"/>
-      <c r="AO750" s="11"/>
+      <c r="AO750" s="10"/>
     </row>
     <row r="751" spans="8:41" x14ac:dyDescent="0.2">
       <c r="H751" s="6"/>
       <c r="I751" s="6"/>
       <c r="AM751" s="2"/>
       <c r="AN751" s="2"/>
-      <c r="AO751" s="11"/>
+      <c r="AO751" s="10"/>
     </row>
     <row r="752" spans="8:41" x14ac:dyDescent="0.2">
       <c r="H752" s="6"/>
       <c r="I752" s="6"/>
       <c r="AM752" s="2"/>
       <c r="AN752" s="2"/>
-      <c r="AO752" s="11"/>
+      <c r="AO752" s="10"/>
     </row>
     <row r="753" spans="8:41" x14ac:dyDescent="0.2">
       <c r="H753" s="6"/>
       <c r="I753" s="6"/>
       <c r="AM753" s="2"/>
       <c r="AN753" s="2"/>
-      <c r="AO753" s="11"/>
+      <c r="AO753" s="10"/>
     </row>
     <row r="754" spans="8:41" x14ac:dyDescent="0.2">
       <c r="H754" s="6"/>
       <c r="I754" s="6"/>
       <c r="AM754" s="2"/>
       <c r="AN754" s="2"/>
-      <c r="AO754" s="11"/>
+      <c r="AO754" s="10"/>
     </row>
     <row r="755" spans="8:41" x14ac:dyDescent="0.2">
       <c r="H755" s="6"/>
       <c r="I755" s="6"/>
       <c r="AM755" s="2"/>
       <c r="AN755" s="2"/>
-      <c r="AO755" s="11"/>
+      <c r="AO755" s="10"/>
     </row>
     <row r="756" spans="8:41" x14ac:dyDescent="0.2">
       <c r="H756" s="6"/>
       <c r="I756" s="6"/>
       <c r="AM756" s="2"/>
       <c r="AN756" s="2"/>
-      <c r="AO756" s="11"/>
+      <c r="AO756" s="10"/>
     </row>
     <row r="757" spans="8:41" x14ac:dyDescent="0.2">
       <c r="H757" s="6"/>
       <c r="I757" s="6"/>
       <c r="AM757" s="2"/>
       <c r="AN757" s="2"/>
-      <c r="AO757" s="11"/>
+      <c r="AO757" s="10"/>
     </row>
     <row r="758" spans="8:41" x14ac:dyDescent="0.2">
       <c r="H758" s="6"/>
       <c r="I758" s="6"/>
       <c r="AM758" s="2"/>
       <c r="AN758" s="2"/>
-      <c r="AO758" s="11"/>
+      <c r="AO758" s="10"/>
     </row>
     <row r="759" spans="8:41" x14ac:dyDescent="0.2">
       <c r="H759" s="6"/>
       <c r="I759" s="6"/>
       <c r="AM759" s="2"/>
       <c r="AN759" s="2"/>
-      <c r="AO759" s="11"/>
+      <c r="AO759" s="10"/>
     </row>
     <row r="760" spans="8:41" x14ac:dyDescent="0.2">
       <c r="H760" s="6"/>
       <c r="I760" s="6"/>
       <c r="AM760" s="2"/>
       <c r="AN760" s="2"/>
-      <c r="AO760" s="11"/>
+      <c r="AO760" s="10"/>
     </row>
     <row r="761" spans="8:41" x14ac:dyDescent="0.2">
       <c r="H761" s="6"/>
       <c r="I761" s="6"/>
       <c r="AM761" s="2"/>
       <c r="AN761" s="2"/>
-      <c r="AO761" s="11"/>
+      <c r="AO761" s="10"/>
     </row>
     <row r="762" spans="8:41" x14ac:dyDescent="0.2">
       <c r="H762" s="6"/>
       <c r="I762" s="6"/>
       <c r="AM762" s="2"/>
       <c r="AN762" s="2"/>
-      <c r="AO762" s="11"/>
+      <c r="AO762" s="10"/>
     </row>
     <row r="763" spans="8:41" x14ac:dyDescent="0.2">
       <c r="H763" s="6"/>
       <c r="I763" s="6"/>
       <c r="AM763" s="2"/>
       <c r="AN763" s="2"/>
-      <c r="AO763" s="11"/>
+      <c r="AO763" s="10"/>
     </row>
     <row r="764" spans="8:41" x14ac:dyDescent="0.2">
       <c r="H764" s="6"/>
       <c r="I764" s="6"/>
       <c r="AM764" s="2"/>
       <c r="AN764" s="2"/>
-      <c r="AO764" s="11"/>
+      <c r="AO764" s="10"/>
     </row>
     <row r="765" spans="8:41" x14ac:dyDescent="0.2">
       <c r="H765" s="6"/>
       <c r="I765" s="6"/>
       <c r="AM765" s="2"/>
       <c r="AN765" s="2"/>
-      <c r="AO765" s="11"/>
+      <c r="AO765" s="10"/>
     </row>
     <row r="766" spans="8:41" x14ac:dyDescent="0.2">
       <c r="H766" s="6"/>
       <c r="I766" s="6"/>
       <c r="AM766" s="2"/>
       <c r="AN766" s="2"/>
-      <c r="AO766" s="11"/>
+      <c r="AO766" s="10"/>
     </row>
     <row r="767" spans="8:41" x14ac:dyDescent="0.2">
       <c r="H767" s="6"/>
       <c r="I767" s="6"/>
       <c r="AM767" s="2"/>
       <c r="AN767" s="2"/>
-      <c r="AO767" s="11"/>
+      <c r="AO767" s="10"/>
     </row>
     <row r="768" spans="8:41" x14ac:dyDescent="0.2">
       <c r="H768" s="6"/>
       <c r="I768" s="6"/>
       <c r="AM768" s="2"/>
       <c r="AN768" s="2"/>
-      <c r="AO768" s="11"/>
+      <c r="AO768" s="10"/>
     </row>
     <row r="769" spans="8:41" x14ac:dyDescent="0.2">
       <c r="H769" s="6"/>
       <c r="I769" s="6"/>
       <c r="AM769" s="2"/>
       <c r="AN769" s="2"/>
-      <c r="AO769" s="12"/>
+      <c r="AO769" s="11"/>
     </row>
     <row r="770" spans="8:41" x14ac:dyDescent="0.2">
       <c r="H770" s="6"/>
       <c r="I770" s="6"/>
       <c r="AM770" s="2"/>
       <c r="AN770" s="2"/>
-      <c r="AO770" s="11"/>
+      <c r="AO770" s="10"/>
     </row>
     <row r="771" spans="8:41" x14ac:dyDescent="0.2">
       <c r="H771" s="6"/>
       <c r="I771" s="6"/>
       <c r="AM771" s="2"/>
       <c r="AN771" s="2"/>
-      <c r="AO771" s="11"/>
+      <c r="AO771" s="10"/>
     </row>
     <row r="772" spans="8:41" x14ac:dyDescent="0.2">
       <c r="H772" s="6"/>
       <c r="I772" s="6"/>
       <c r="AM772" s="2"/>
       <c r="AN772" s="2"/>
-      <c r="AO772" s="11"/>
+      <c r="AO772" s="10"/>
     </row>
     <row r="773" spans="8:41" x14ac:dyDescent="0.2">
       <c r="H773" s="6"/>
       <c r="I773" s="6"/>
       <c r="AM773" s="2"/>
       <c r="AN773" s="2"/>
-      <c r="AO773" s="11"/>
+      <c r="AO773" s="10"/>
     </row>
     <row r="774" spans="8:41" x14ac:dyDescent="0.2">
       <c r="H774" s="6"/>
       <c r="I774" s="6"/>
       <c r="AM774" s="2"/>
       <c r="AN774" s="2"/>
-      <c r="AO774" s="11"/>
+      <c r="AO774" s="10"/>
     </row>
     <row r="775" spans="8:41" x14ac:dyDescent="0.2">
       <c r="H775" s="6"/>
       <c r="I775" s="6"/>
       <c r="AM775" s="2"/>
       <c r="AN775" s="2"/>
-      <c r="AO775" s="11"/>
+      <c r="AO775" s="10"/>
     </row>
     <row r="776" spans="8:41" x14ac:dyDescent="0.2">
       <c r="H776" s="6"/>
       <c r="I776" s="6"/>
       <c r="AM776" s="2"/>
       <c r="AN776" s="2"/>
-      <c r="AO776" s="11"/>
+      <c r="AO776" s="10"/>
     </row>
     <row r="777" spans="8:41" x14ac:dyDescent="0.2">
       <c r="H777" s="6"/>
       <c r="I777" s="6"/>
       <c r="AM777" s="2"/>
       <c r="AN777" s="2"/>
-      <c r="AO777" s="11"/>
+      <c r="AO777" s="10"/>
     </row>
     <row r="778" spans="8:41" x14ac:dyDescent="0.2">
       <c r="H778" s="6"/>
       <c r="I778" s="6"/>
       <c r="AM778" s="2"/>
       <c r="AN778" s="2"/>
-      <c r="AO778" s="11"/>
+      <c r="AO778" s="10"/>
     </row>
     <row r="779" spans="8:41" x14ac:dyDescent="0.2">
       <c r="H779" s="6"/>
       <c r="I779" s="6"/>
       <c r="AM779" s="2"/>
       <c r="AN779" s="2"/>
-      <c r="AO779" s="11"/>
+      <c r="AO779" s="10"/>
     </row>
     <row r="780" spans="8:41" x14ac:dyDescent="0.2">
       <c r="H780" s="6"/>
       <c r="I780" s="6"/>
       <c r="AM780" s="2"/>
       <c r="AN780" s="2"/>
-      <c r="AO780" s="11"/>
+      <c r="AO780" s="10"/>
     </row>
     <row r="781" spans="8:41" x14ac:dyDescent="0.2">
       <c r="H781" s="6"/>
       <c r="I781" s="6"/>
       <c r="AM781" s="2"/>
       <c r="AN781" s="2"/>
-      <c r="AO781" s="11"/>
+      <c r="AO781" s="10"/>
     </row>
     <row r="782" spans="8:41" x14ac:dyDescent="0.2">
       <c r="H782" s="6"/>
       <c r="I782" s="6"/>
       <c r="AM782" s="2"/>
       <c r="AN782" s="2"/>
-      <c r="AO782" s="11"/>
+      <c r="AO782" s="10"/>
     </row>
     <row r="783" spans="8:41" x14ac:dyDescent="0.2">
       <c r="H783" s="6"/>
       <c r="I783" s="6"/>
       <c r="AM783" s="2"/>
       <c r="AN783" s="2"/>
-      <c r="AO783" s="11"/>
+      <c r="AO783" s="10"/>
     </row>
     <row r="784" spans="8:41" x14ac:dyDescent="0.2">
       <c r="H784" s="6"/>
       <c r="I784" s="6"/>
       <c r="AM784" s="2"/>
       <c r="AN784" s="2"/>
-      <c r="AO784" s="11"/>
+      <c r="AO784" s="10"/>
     </row>
     <row r="785" spans="8:41" x14ac:dyDescent="0.2">
       <c r="H785" s="6"/>
       <c r="I785" s="6"/>
       <c r="AM785" s="2"/>
       <c r="AN785" s="2"/>
-      <c r="AO785" s="11"/>
+      <c r="AO785" s="10"/>
     </row>
     <row r="786" spans="8:41" x14ac:dyDescent="0.2">
       <c r="H786" s="6"/>
       <c r="I786" s="6"/>
       <c r="AM786" s="2"/>
       <c r="AN786" s="2"/>
-      <c r="AO786" s="11"/>
+      <c r="AO786" s="10"/>
     </row>
     <row r="787" spans="8:41" x14ac:dyDescent="0.2">
       <c r="H787" s="6"/>
       <c r="I787" s="6"/>
       <c r="AM787" s="2"/>
       <c r="AN787" s="2"/>
-      <c r="AO787" s="11"/>
+      <c r="AO787" s="10"/>
     </row>
     <row r="788" spans="8:41" x14ac:dyDescent="0.2">
       <c r="H788" s="6"/>
       <c r="I788" s="6"/>
       <c r="AM788" s="2"/>
       <c r="AN788" s="2"/>
-      <c r="AO788" s="11"/>
+      <c r="AO788" s="10"/>
     </row>
     <row r="789" spans="8:41" x14ac:dyDescent="0.2">
       <c r="H789" s="6"/>
       <c r="I789" s="6"/>
       <c r="AM789" s="2"/>
       <c r="AN789" s="2"/>
-      <c r="AO789" s="11"/>
+      <c r="AO789" s="10"/>
     </row>
     <row r="790" spans="8:41" x14ac:dyDescent="0.2">
       <c r="H790" s="6"/>
       <c r="I790" s="6"/>
       <c r="AM790" s="2"/>
       <c r="AN790" s="2"/>
-      <c r="AO790" s="11"/>
+      <c r="AO790" s="10"/>
     </row>
     <row r="791" spans="8:41" x14ac:dyDescent="0.2">
       <c r="H791" s="6"/>
       <c r="I791" s="6"/>
       <c r="AM791" s="2"/>
       <c r="AN791" s="2"/>
-      <c r="AO791" s="11"/>
+      <c r="AO791" s="10"/>
     </row>
     <row r="792" spans="8:41" x14ac:dyDescent="0.2">
       <c r="H792" s="6"/>
       <c r="I792" s="6"/>
       <c r="AM792" s="2"/>
       <c r="AN792" s="2"/>
-      <c r="AO792" s="11"/>
+      <c r="AO792" s="10"/>
     </row>
     <row r="793" spans="8:41" x14ac:dyDescent="0.2">
       <c r="H793" s="6"/>
       <c r="I793" s="6"/>
       <c r="AM793" s="2"/>
       <c r="AN793" s="2"/>
-      <c r="AO793" s="11"/>
+      <c r="AO793" s="10"/>
     </row>
     <row r="794" spans="8:41" x14ac:dyDescent="0.2">
       <c r="H794" s="6"/>
       <c r="I794" s="6"/>
       <c r="AM794" s="2"/>
       <c r="AN794" s="2"/>
-      <c r="AO794" s="11"/>
+      <c r="AO794" s="10"/>
     </row>
     <row r="795" spans="8:41" x14ac:dyDescent="0.2">
       <c r="H795" s="6"/>
       <c r="I795" s="6"/>
       <c r="AM795" s="2"/>
       <c r="AN795" s="2"/>
-      <c r="AO795" s="11"/>
+      <c r="AO795" s="10"/>
     </row>
     <row r="796" spans="8:41" x14ac:dyDescent="0.2">
       <c r="H796" s="6"/>
       <c r="I796" s="6"/>
       <c r="AM796" s="2"/>
       <c r="AN796" s="2"/>
-      <c r="AO796" s="11"/>
+      <c r="AO796" s="10"/>
     </row>
     <row r="797" spans="8:41" x14ac:dyDescent="0.2">
       <c r="H797" s="6"/>
       <c r="I797" s="6"/>
       <c r="AM797" s="2"/>
       <c r="AN797" s="2"/>
-      <c r="AO797" s="11"/>
+      <c r="AO797" s="10"/>
     </row>
     <row r="798" spans="8:41" x14ac:dyDescent="0.2">
       <c r="H798" s="6"/>
       <c r="I798" s="6"/>
       <c r="AM798" s="2"/>
       <c r="AN798" s="2"/>
-      <c r="AO798" s="11"/>
+      <c r="AO798" s="10"/>
     </row>
     <row r="799" spans="8:41" x14ac:dyDescent="0.2">
       <c r="H799" s="6"/>
       <c r="I799" s="6"/>
       <c r="AM799" s="2"/>
       <c r="AN799" s="2"/>
-      <c r="AO799" s="11"/>
+      <c r="AO799" s="10"/>
     </row>
     <row r="800" spans="8:41" x14ac:dyDescent="0.2">
       <c r="H800" s="6"/>
       <c r="I800" s="6"/>
       <c r="AM800" s="2"/>
       <c r="AN800" s="2"/>
-      <c r="AO800" s="11"/>
+      <c r="AO800" s="10"/>
     </row>
     <row r="801" spans="8:41" x14ac:dyDescent="0.2">
       <c r="H801" s="6"/>
       <c r="I801" s="6"/>
       <c r="AM801" s="2"/>
       <c r="AN801" s="2"/>
-      <c r="AO801" s="11"/>
+      <c r="AO801" s="10"/>
     </row>
     <row r="802" spans="8:41" x14ac:dyDescent="0.2">
       <c r="H802" s="6"/>
       <c r="I802" s="6"/>
       <c r="AM802" s="2"/>
       <c r="AN802" s="2"/>
-      <c r="AO802" s="11"/>
+      <c r="AO802" s="10"/>
     </row>
     <row r="803" spans="8:41" x14ac:dyDescent="0.2">
       <c r="H803" s="6"/>
       <c r="I803" s="6"/>
       <c r="AM803" s="2"/>
       <c r="AN803" s="2"/>
-      <c r="AO803" s="11"/>
+      <c r="AO803" s="10"/>
     </row>
     <row r="804" spans="8:41" x14ac:dyDescent="0.2">
       <c r="H804" s="6"/>
       <c r="I804" s="6"/>
       <c r="AM804" s="2"/>
       <c r="AN804" s="2"/>
-      <c r="AO804" s="11"/>
+      <c r="AO804" s="10"/>
     </row>
     <row r="805" spans="8:41" x14ac:dyDescent="0.2">
       <c r="H805" s="6"/>
       <c r="I805" s="6"/>
       <c r="AM805" s="2"/>
       <c r="AN805" s="2"/>
-      <c r="AO805" s="11"/>
+      <c r="AO805" s="10"/>
     </row>
     <row r="806" spans="8:41" x14ac:dyDescent="0.2">
       <c r="H806" s="6"/>
       <c r="I806" s="6"/>
       <c r="AM806" s="2"/>
       <c r="AN806" s="2"/>
-      <c r="AO806" s="11"/>
+      <c r="AO806" s="10"/>
     </row>
     <row r="807" spans="8:41" x14ac:dyDescent="0.2">
       <c r="H807" s="6"/>
       <c r="I807" s="6"/>
       <c r="AM807" s="2"/>
       <c r="AN807" s="2"/>
-      <c r="AO807" s="11"/>
+      <c r="AO807" s="10"/>
     </row>
     <row r="808" spans="8:41" x14ac:dyDescent="0.2">
       <c r="H808" s="6"/>
       <c r="I808" s="6"/>
       <c r="AM808" s="2"/>
       <c r="AN808" s="2"/>
-      <c r="AO808" s="11"/>
+      <c r="AO808" s="10"/>
     </row>
     <row r="809" spans="8:41" x14ac:dyDescent="0.2">
       <c r="H809" s="6"/>
       <c r="I809" s="6"/>
       <c r="AM809" s="2"/>
       <c r="AN809" s="2"/>
-      <c r="AO809" s="11"/>
+      <c r="AO809" s="10"/>
     </row>
     <row r="810" spans="8:41" x14ac:dyDescent="0.2">
       <c r="H810" s="6"/>
       <c r="I810" s="6"/>
       <c r="AM810" s="2"/>
       <c r="AN810" s="2"/>
-      <c r="AO810" s="11"/>
+      <c r="AO810" s="10"/>
     </row>
     <row r="811" spans="8:41" x14ac:dyDescent="0.2">
       <c r="H811" s="6"/>
       <c r="I811" s="6"/>
       <c r="AM811" s="2"/>
       <c r="AN811" s="2"/>
-      <c r="AO811" s="11"/>
+      <c r="AO811" s="10"/>
     </row>
     <row r="812" spans="8:41" x14ac:dyDescent="0.2">
       <c r="H812" s="6"/>
       <c r="I812" s="6"/>
       <c r="AM812" s="2"/>
       <c r="AN812" s="2"/>
-      <c r="AO812" s="11"/>
+      <c r="AO812" s="10"/>
     </row>
     <row r="813" spans="8:41" x14ac:dyDescent="0.2">
       <c r="H813" s="6"/>
       <c r="I813" s="6"/>
       <c r="AM813" s="2"/>
       <c r="AN813" s="2"/>
-      <c r="AO813" s="11"/>
+      <c r="AO813" s="10"/>
     </row>
     <row r="814" spans="8:41" x14ac:dyDescent="0.2">
       <c r="H814" s="6"/>
       <c r="I814" s="6"/>
       <c r="AM814" s="2"/>
       <c r="AN814" s="2"/>
-      <c r="AO814" s="11"/>
+      <c r="AO814" s="10"/>
     </row>
     <row r="815" spans="8:41" x14ac:dyDescent="0.2">
       <c r="H815" s="6"/>
       <c r="I815" s="6"/>
       <c r="AM815" s="2"/>
       <c r="AN815" s="2"/>
-      <c r="AO815" s="11"/>
+      <c r="AO815" s="10"/>
     </row>
     <row r="832" spans="11:12" x14ac:dyDescent="0.2">
-      <c r="K832" s="13"/>
-      <c r="L832" s="13"/>
+      <c r="K832" s="12"/>
+      <c r="L832" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
